--- a/data/raw data/language history/LHQ3 Aggregate Scores.xlsx
+++ b/data/raw data/language history/LHQ3 Aggregate Scores.xlsx
@@ -208,13 +208,21 @@
     <col min="5" max="5" width="32.400000000000006" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="24.3" customWidth="1"/>
-    <col min="9" max="9" width="24.3" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
     <col min="10" max="10" width="24.3" customWidth="1"/>
     <col min="11" max="11" width="24.3" customWidth="1"/>
-    <col min="12" max="12" width="32.400000000000006" customWidth="1"/>
-    <col min="13" max="13" width="32.400000000000006" customWidth="1"/>
-    <col min="14" max="14" width="49.95" customWidth="1"/>
+    <col min="12" max="12" width="24.3" customWidth="1"/>
+    <col min="13" max="13" width="24.3" customWidth="1"/>
+    <col min="14" max="14" width="24.3" customWidth="1"/>
+    <col min="15" max="15" width="24.3" customWidth="1"/>
+    <col min="16" max="16" width="24.3" customWidth="1"/>
+    <col min="17" max="17" width="24.3" customWidth="1"/>
+    <col min="18" max="18" width="32.400000000000006" customWidth="1"/>
+    <col min="19" max="19" width="32.400000000000006" customWidth="1"/>
+    <col min="20" max="20" width="32.400000000000006" customWidth="1"/>
+    <col min="21" max="21" width="32.400000000000006" customWidth="1"/>
+    <col min="22" max="22" width="49.95" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -262,35 +270,75 @@
       </c>
       <c t="inlineStr" r="H2" s="2">
         <is>
+          <t xml:space="preserve">L3 Proficiency Score</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I2" s="2">
+        <is>
+          <t xml:space="preserve">L4 Proficiency Score</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J2" s="2">
+        <is>
           <t xml:space="preserve">L1 Immersion Score</t>
         </is>
       </c>
-      <c t="inlineStr" r="I2" s="2">
+      <c t="inlineStr" r="K2" s="2">
         <is>
           <t xml:space="preserve">L2 Immersion Score</t>
         </is>
       </c>
-      <c t="inlineStr" r="J2" s="2">
+      <c t="inlineStr" r="L2" s="2">
+        <is>
+          <t xml:space="preserve">L3 Immersion Score</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M2" s="2">
+        <is>
+          <t xml:space="preserve">L4 Immersion Score</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="N2" s="2">
         <is>
           <t xml:space="preserve">L1 Dominance Score</t>
         </is>
       </c>
-      <c t="inlineStr" r="K2" s="2">
+      <c t="inlineStr" r="O2" s="2">
         <is>
           <t xml:space="preserve">L2 Dominance Score</t>
         </is>
       </c>
-      <c t="inlineStr" r="L2" s="2">
+      <c t="inlineStr" r="P2" s="2">
+        <is>
+          <t xml:space="preserve">L3 Dominance Score</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q2" s="2">
+        <is>
+          <t xml:space="preserve">L4 Dominance Score</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="R2" s="2">
         <is>
           <t xml:space="preserve">L1 to L1 Dominance Ratio</t>
         </is>
       </c>
-      <c t="inlineStr" r="M2" s="2">
+      <c t="inlineStr" r="S2" s="2">
         <is>
           <t xml:space="preserve">L2 to L1 Dominance Ratio</t>
         </is>
       </c>
-      <c t="inlineStr" r="N2" s="2">
+      <c t="inlineStr" r="T2" s="2">
+        <is>
+          <t xml:space="preserve">L3 to L1 Dominance Ratio</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U2" s="2">
+        <is>
+          <t xml:space="preserve">L4 to L1 Dominance Ratio</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="V2" s="2">
         <is>
           <t xml:space="preserve">Multilingual Language Diversity
 Score</t>
@@ -328,24 +376,54 @@
         <v>0.86</v>
       </c>
       <c r="H3" s="66">
+        <v>0.39</v>
+      </c>
+      <c t="inlineStr" r="I3">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J3" s="66">
         <v>0.96</v>
       </c>
-      <c r="I3" s="66">
+      <c r="K3" s="66">
         <v>0.82</v>
       </c>
-      <c r="J3" s="66">
+      <c r="L3" s="66">
+        <v>0.40</v>
+      </c>
+      <c r="M3" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N3" s="66">
         <v>0.53</v>
       </c>
-      <c r="K3" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="L3" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M3" s="66">
+      <c r="O3" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="P3" s="66">
+        <v>0.20</v>
+      </c>
+      <c t="inlineStr" r="Q3">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R3" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S3" s="66">
         <v>0.94</v>
       </c>
-      <c r="N3" s="66">
+      <c r="T3" s="66">
+        <v>0.37</v>
+      </c>
+      <c t="inlineStr" r="U3">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V3" s="66">
         <v>1.47</v>
       </c>
     </row>
@@ -380,24 +458,54 @@
         <v>0.93</v>
       </c>
       <c r="H4" s="66">
+        <v>0.29</v>
+      </c>
+      <c t="inlineStr" r="I4">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J4" s="66">
         <v>0.93</v>
       </c>
-      <c r="I4" s="66">
+      <c r="K4" s="66">
         <v>0.73</v>
       </c>
-      <c r="J4" s="66">
+      <c r="L4" s="66">
+        <v>0.32</v>
+      </c>
+      <c r="M4" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N4" s="66">
         <v>0.52</v>
       </c>
-      <c r="K4" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="L4" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M4" s="66">
+      <c r="O4" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="P4" s="66">
+        <v>0.14</v>
+      </c>
+      <c t="inlineStr" r="Q4">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R4" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S4" s="66">
         <v>0.95</v>
       </c>
-      <c r="N4" s="66">
+      <c r="T4" s="66">
+        <v>0.27</v>
+      </c>
+      <c t="inlineStr" r="U4">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V4" s="66">
         <v>1.41</v>
       </c>
     </row>
@@ -429,25 +537,61 @@
       <c r="G5" s="66">
         <v>0.89</v>
       </c>
-      <c r="H5" s="66">
+      <c t="inlineStr" r="H5">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I5">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J5" s="66">
         <v>0.93</v>
       </c>
-      <c r="I5" s="66">
+      <c r="K5" s="66">
         <v>0.66</v>
       </c>
-      <c r="J5" s="66">
+      <c r="L5" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M5" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N5" s="66">
         <v>1.02</v>
       </c>
-      <c r="K5" s="66">
+      <c r="O5" s="66">
         <v>0.94</v>
       </c>
-      <c r="L5" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M5" s="66">
+      <c t="inlineStr" r="P5">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q5">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R5" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S5" s="66">
         <v>0.92</v>
       </c>
-      <c r="N5" s="66">
+      <c t="inlineStr" r="T5">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U5">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V5" s="66">
         <v>1.00</v>
       </c>
     </row>
@@ -479,25 +623,61 @@
       <c r="G6" s="66">
         <v>0.68</v>
       </c>
-      <c r="H6" s="66">
+      <c t="inlineStr" r="H6">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I6">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J6" s="66">
         <v>0.91</v>
       </c>
-      <c r="I6" s="66">
+      <c r="K6" s="66">
         <v>0.67</v>
       </c>
-      <c r="J6" s="66">
+      <c r="L6" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M6" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N6" s="66">
         <v>0.59</v>
       </c>
-      <c r="K6" s="66">
+      <c r="O6" s="66">
         <v>0.37</v>
       </c>
-      <c r="L6" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M6" s="66">
+      <c t="inlineStr" r="P6">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q6">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R6" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S6" s="66">
         <v>0.62</v>
       </c>
-      <c r="N6" s="66">
+      <c t="inlineStr" r="T6">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U6">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V6" s="66">
         <v>0.96</v>
       </c>
     </row>
@@ -530,24 +710,54 @@
         <v>1.00</v>
       </c>
       <c r="H7" s="66">
+        <v>0.21</v>
+      </c>
+      <c t="inlineStr" r="I7">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J7" s="66">
         <v>0.96</v>
       </c>
-      <c r="I7" s="66">
+      <c r="K7" s="66">
         <v>0.75</v>
       </c>
-      <c r="J7" s="66">
+      <c r="L7" s="66">
+        <v>0.42</v>
+      </c>
+      <c r="M7" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N7" s="66">
         <v>0.62</v>
       </c>
-      <c r="K7" s="66">
+      <c r="O7" s="66">
         <v>0.54</v>
       </c>
-      <c r="L7" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M7" s="66">
+      <c r="P7" s="66">
+        <v>0.11</v>
+      </c>
+      <c t="inlineStr" r="Q7">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R7" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S7" s="66">
         <v>0.87</v>
       </c>
-      <c r="N7" s="66">
+      <c r="T7" s="66">
+        <v>0.17</v>
+      </c>
+      <c t="inlineStr" r="U7">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V7" s="66">
         <v>1.33</v>
       </c>
     </row>
@@ -582,24 +792,54 @@
         <v>0.82</v>
       </c>
       <c r="H8" s="66">
+        <v>0.43</v>
+      </c>
+      <c t="inlineStr" r="I8">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J8" s="66">
         <v>0.91</v>
       </c>
-      <c r="I8" s="66">
+      <c r="K8" s="66">
         <v>0.56</v>
       </c>
-      <c r="J8" s="66">
+      <c r="L8" s="66">
+        <v>0.32</v>
+      </c>
+      <c r="M8" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N8" s="66">
         <v>0.59</v>
       </c>
-      <c r="K8" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="L8" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M8" s="66">
+      <c r="O8" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="P8" s="66">
+        <v>0.21</v>
+      </c>
+      <c t="inlineStr" r="Q8">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R8" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S8" s="66">
         <v>0.86</v>
       </c>
-      <c r="N8" s="66">
+      <c r="T8" s="66">
+        <v>0.36</v>
+      </c>
+      <c t="inlineStr" r="U8">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V8" s="66">
         <v>1.48</v>
       </c>
     </row>
@@ -634,24 +874,48 @@
         <v>0.68</v>
       </c>
       <c r="H9" s="66">
+        <v>0.14</v>
+      </c>
+      <c r="I9" s="66">
+        <v>0.18</v>
+      </c>
+      <c r="J9" s="66">
         <v>0.93</v>
       </c>
-      <c r="I9" s="66">
+      <c r="K9" s="66">
         <v>0.60</v>
       </c>
-      <c r="J9" s="66">
+      <c r="L9" s="66">
+        <v>0.24</v>
+      </c>
+      <c r="M9" s="66">
+        <v>0.19</v>
+      </c>
+      <c r="N9" s="66">
         <v>0.64</v>
       </c>
-      <c r="K9" s="66">
+      <c r="O9" s="66">
         <v>0.36</v>
       </c>
-      <c r="L9" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M9" s="66">
+      <c r="P9" s="66">
+        <v>0.07</v>
+      </c>
+      <c r="Q9" s="66">
+        <v>0.09</v>
+      </c>
+      <c r="R9" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S9" s="66">
         <v>0.57</v>
       </c>
-      <c r="N9" s="66">
+      <c r="T9" s="66">
+        <v>0.11</v>
+      </c>
+      <c r="U9" s="66">
+        <v>0.14</v>
+      </c>
+      <c r="V9" s="66">
         <v>1.53</v>
       </c>
     </row>
@@ -686,24 +950,54 @@
         <v>1.00</v>
       </c>
       <c r="H10" s="66">
+        <v>0.18</v>
+      </c>
+      <c t="inlineStr" r="I10">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J10" s="66">
         <v>0.94</v>
       </c>
-      <c r="I10" s="66">
+      <c r="K10" s="66">
         <v>0.94</v>
       </c>
-      <c r="J10" s="66">
+      <c r="L10" s="66">
+        <v>0.17</v>
+      </c>
+      <c r="M10" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N10" s="66">
         <v>0.54</v>
       </c>
-      <c r="K10" s="66">
+      <c r="O10" s="66">
         <v>0.57</v>
       </c>
-      <c r="L10" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M10" s="66">
+      <c r="P10" s="66">
+        <v>0.09</v>
+      </c>
+      <c t="inlineStr" r="Q10">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R10" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S10" s="66">
         <v>1.05</v>
       </c>
-      <c r="N10" s="66">
+      <c r="T10" s="66">
+        <v>0.16</v>
+      </c>
+      <c t="inlineStr" r="U10">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V10" s="66">
         <v>1.31</v>
       </c>
     </row>
@@ -737,25 +1031,61 @@
       <c r="G11" s="66">
         <v>0.93</v>
       </c>
-      <c r="H11" s="66">
+      <c t="inlineStr" r="H11">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I11">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J11" s="66">
         <v>0.95</v>
       </c>
-      <c r="I11" s="66">
+      <c r="K11" s="66">
         <v>0.76</v>
       </c>
-      <c r="J11" s="66">
+      <c r="L11" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M11" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N11" s="66">
         <v>0.55</v>
       </c>
-      <c r="K11" s="66">
+      <c r="O11" s="66">
         <v>0.60</v>
       </c>
-      <c r="L11" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M11" s="66">
+      <c t="inlineStr" r="P11">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q11">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R11" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S11" s="66">
         <v>1.09</v>
       </c>
-      <c r="N11" s="66">
+      <c t="inlineStr" r="T11">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U11">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V11" s="66">
         <v>1.00</v>
       </c>
     </row>
@@ -788,24 +1118,48 @@
         <v>0.68</v>
       </c>
       <c r="H12" s="66">
+        <v>0.32</v>
+      </c>
+      <c r="I12" s="66">
+        <v>0.32</v>
+      </c>
+      <c r="J12" s="66">
         <v>0.95</v>
       </c>
-      <c r="I12" s="66">
+      <c r="K12" s="66">
         <v>0.68</v>
       </c>
-      <c r="J12" s="66">
+      <c r="L12" s="66">
+        <v>0.30</v>
+      </c>
+      <c r="M12" s="66">
+        <v>0.24</v>
+      </c>
+      <c r="N12" s="66">
         <v>0.51</v>
       </c>
-      <c r="K12" s="66">
+      <c r="O12" s="66">
         <v>0.39</v>
       </c>
-      <c r="L12" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M12" s="66">
+      <c r="P12" s="66">
+        <v>0.16</v>
+      </c>
+      <c r="Q12" s="66">
+        <v>0.16</v>
+      </c>
+      <c r="R12" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S12" s="66">
         <v>0.78</v>
       </c>
-      <c r="N12" s="66">
+      <c r="T12" s="66">
+        <v>0.32</v>
+      </c>
+      <c r="U12" s="66">
+        <v>0.32</v>
+      </c>
+      <c r="V12" s="66">
         <v>1.82</v>
       </c>
     </row>
@@ -838,24 +1192,54 @@
         <v>0.93</v>
       </c>
       <c r="H13" s="66">
+        <v>0.79</v>
+      </c>
+      <c t="inlineStr" r="I13">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J13" s="66">
         <v>0.97</v>
       </c>
-      <c r="I13" s="66">
+      <c r="K13" s="66">
         <v>0.86</v>
       </c>
-      <c r="J13" s="66">
+      <c r="L13" s="66">
+        <v>0.86</v>
+      </c>
+      <c r="M13" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N13" s="66">
         <v>0.65</v>
       </c>
-      <c r="K13" s="66">
+      <c r="O13" s="66">
         <v>0.51</v>
       </c>
-      <c r="L13" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M13" s="66">
+      <c r="P13" s="66">
+        <v>0.39</v>
+      </c>
+      <c t="inlineStr" r="Q13">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R13" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S13" s="66">
         <v>0.79</v>
       </c>
-      <c r="N13" s="66">
+      <c r="T13" s="66">
+        <v>0.61</v>
+      </c>
+      <c t="inlineStr" r="U13">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V13" s="66">
         <v>1.56</v>
       </c>
     </row>
@@ -890,24 +1274,54 @@
         <v>0.86</v>
       </c>
       <c r="H14" s="66">
+        <v>0.61</v>
+      </c>
+      <c t="inlineStr" r="I14">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J14" s="66">
         <v>0.98</v>
       </c>
-      <c r="I14" s="66">
+      <c r="K14" s="66">
         <v>0.82</v>
       </c>
-      <c r="J14" s="66">
+      <c r="L14" s="66">
+        <v>0.65</v>
+      </c>
+      <c r="M14" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N14" s="66">
         <v>0.63</v>
       </c>
-      <c r="K14" s="66">
+      <c r="O14" s="66">
         <v>0.45</v>
       </c>
-      <c r="L14" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M14" s="66">
+      <c r="P14" s="66">
+        <v>0.30</v>
+      </c>
+      <c t="inlineStr" r="Q14">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R14" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S14" s="66">
         <v>0.71</v>
       </c>
-      <c r="N14" s="66">
+      <c r="T14" s="66">
+        <v>0.48</v>
+      </c>
+      <c t="inlineStr" r="U14">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V14" s="66">
         <v>1.52</v>
       </c>
     </row>
@@ -939,25 +1353,61 @@
       <c r="G15" s="66">
         <v>0.71</v>
       </c>
-      <c r="H15" s="66">
+      <c t="inlineStr" r="H15">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I15">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J15" s="66">
         <v>0.56</v>
       </c>
-      <c r="I15" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="J15" s="66">
+      <c r="K15" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="L15" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M15" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N15" s="66">
         <v>0.58</v>
       </c>
-      <c r="K15" s="66">
+      <c r="O15" s="66">
         <v>0.46</v>
       </c>
-      <c r="L15" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M15" s="66">
+      <c t="inlineStr" r="P15">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q15">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R15" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S15" s="66">
         <v>0.80</v>
       </c>
-      <c r="N15" s="66">
+      <c t="inlineStr" r="T15">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U15">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V15" s="66">
         <v>0.99</v>
       </c>
     </row>
@@ -992,24 +1442,54 @@
         <v>0.93</v>
       </c>
       <c r="H16" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="I16" s="66">
+        <v>0.18</v>
+      </c>
+      <c t="inlineStr" r="I16">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J16" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="K16" s="66">
         <v>0.67</v>
       </c>
-      <c r="J16" s="66">
+      <c r="L16" s="66">
+        <v>0.28</v>
+      </c>
+      <c r="M16" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N16" s="66">
         <v>0.58</v>
       </c>
-      <c r="K16" s="66">
+      <c r="O16" s="66">
         <v>0.54</v>
       </c>
-      <c r="L16" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M16" s="66">
+      <c r="P16" s="66">
+        <v>0.09</v>
+      </c>
+      <c t="inlineStr" r="Q16">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R16" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S16" s="66">
         <v>0.93</v>
       </c>
-      <c r="N16" s="66">
+      <c r="T16" s="66">
+        <v>0.15</v>
+      </c>
+      <c t="inlineStr" r="U16">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V16" s="66">
         <v>1.31</v>
       </c>
     </row>
@@ -1042,24 +1522,54 @@
         <v>0.68</v>
       </c>
       <c r="H17" s="66">
+        <v>0.79</v>
+      </c>
+      <c t="inlineStr" r="I17">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J17" s="66">
         <v>0.95</v>
       </c>
-      <c r="I17" s="66">
+      <c r="K17" s="66">
         <v>0.97</v>
       </c>
-      <c r="J17" s="66">
+      <c r="L17" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="M17" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N17" s="66">
         <v>0.65</v>
       </c>
-      <c r="K17" s="66">
+      <c r="O17" s="66">
         <v>0.34</v>
       </c>
-      <c r="L17" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M17" s="66">
+      <c r="P17" s="66">
+        <v>0.44</v>
+      </c>
+      <c t="inlineStr" r="Q17">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R17" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S17" s="66">
         <v>0.52</v>
       </c>
-      <c r="N17" s="66">
+      <c r="T17" s="66">
+        <v>0.68</v>
+      </c>
+      <c t="inlineStr" r="U17">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V17" s="66">
         <v>1.53</v>
       </c>
     </row>
@@ -1094,24 +1604,48 @@
         <v>0.79</v>
       </c>
       <c r="H18" s="66">
-        <v>1.00</v>
+        <v>0.75</v>
       </c>
       <c r="I18" s="66">
+        <v>0.21</v>
+      </c>
+      <c r="J18" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="K18" s="66">
         <v>0.69</v>
       </c>
-      <c r="J18" s="66">
+      <c r="L18" s="66">
+        <v>0.23</v>
+      </c>
+      <c r="M18" s="66">
+        <v>0.24</v>
+      </c>
+      <c r="N18" s="66">
         <v>0.51</v>
       </c>
-      <c r="K18" s="66">
+      <c r="O18" s="66">
         <v>0.43</v>
       </c>
-      <c r="L18" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M18" s="66">
+      <c r="P18" s="66">
+        <v>0.38</v>
+      </c>
+      <c r="Q18" s="66">
+        <v>0.11</v>
+      </c>
+      <c r="R18" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S18" s="66">
         <v>0.85</v>
       </c>
-      <c r="N18" s="66">
+      <c r="T18" s="66">
+        <v>0.73</v>
+      </c>
+      <c r="U18" s="66">
+        <v>0.21</v>
+      </c>
+      <c r="V18" s="66">
         <v>1.84</v>
       </c>
     </row>
@@ -1146,24 +1680,54 @@
         <v>0.75</v>
       </c>
       <c r="H19" s="66">
+        <v>0.36</v>
+      </c>
+      <c t="inlineStr" r="I19">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J19" s="66">
         <v>0.95</v>
       </c>
-      <c r="I19" s="66">
+      <c r="K19" s="66">
         <v>0.80</v>
       </c>
-      <c r="J19" s="66">
+      <c r="L19" s="66">
+        <v>0.32</v>
+      </c>
+      <c r="M19" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N19" s="66">
         <v>0.59</v>
       </c>
-      <c r="K19" s="66">
+      <c r="O19" s="66">
         <v>0.46</v>
       </c>
-      <c r="L19" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M19" s="66">
+      <c r="P19" s="66">
+        <v>0.18</v>
+      </c>
+      <c t="inlineStr" r="Q19">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R19" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S19" s="66">
         <v>0.77</v>
       </c>
-      <c r="N19" s="66">
+      <c r="T19" s="66">
+        <v>0.30</v>
+      </c>
+      <c t="inlineStr" r="U19">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V19" s="66">
         <v>1.44</v>
       </c>
     </row>
@@ -1198,24 +1762,54 @@
         <v>0.21</v>
       </c>
       <c r="H20" s="66">
+        <v>0.96</v>
+      </c>
+      <c t="inlineStr" r="I20">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J20" s="66">
         <v>0.73</v>
       </c>
-      <c r="I20" s="66">
+      <c r="K20" s="66">
         <v>0.32</v>
       </c>
-      <c r="J20" s="66">
+      <c r="L20" s="66">
+        <v>0.82</v>
+      </c>
+      <c r="M20" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N20" s="66">
         <v>0.47</v>
       </c>
-      <c r="K20" s="66">
+      <c r="O20" s="66">
         <v>0.11</v>
       </c>
-      <c r="L20" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M20" s="66">
+      <c r="P20" s="66">
+        <v>0.53</v>
+      </c>
+      <c t="inlineStr" r="Q20">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R20" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S20" s="66">
         <v>0.23</v>
       </c>
-      <c r="N20" s="66">
+      <c r="T20" s="66">
+        <v>1.13</v>
+      </c>
+      <c t="inlineStr" r="U20">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V20" s="66">
         <v>1.36</v>
       </c>
     </row>
@@ -1250,24 +1844,48 @@
         <v>0.93</v>
       </c>
       <c r="H21" s="66">
+        <v>0.18</v>
+      </c>
+      <c r="I21" s="66">
+        <v>0.14</v>
+      </c>
+      <c r="J21" s="66">
         <v>0.93</v>
       </c>
-      <c r="I21" s="66">
+      <c r="K21" s="66">
         <v>0.76</v>
       </c>
-      <c r="J21" s="66">
+      <c r="L21" s="66">
+        <v>0.26</v>
+      </c>
+      <c r="M21" s="66">
+        <v>0.17</v>
+      </c>
+      <c r="N21" s="66">
         <v>0.56</v>
       </c>
-      <c r="K21" s="66">
+      <c r="O21" s="66">
         <v>0.56</v>
       </c>
-      <c r="L21" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M21" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="N21" s="66">
+      <c r="P21" s="66">
+        <v>0.09</v>
+      </c>
+      <c r="Q21" s="66">
+        <v>0.07</v>
+      </c>
+      <c r="R21" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S21" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="T21" s="66">
+        <v>0.16</v>
+      </c>
+      <c r="U21" s="66">
+        <v>0.13</v>
+      </c>
+      <c r="V21" s="66">
         <v>1.54</v>
       </c>
     </row>
@@ -1302,24 +1920,54 @@
         <v>0.82</v>
       </c>
       <c r="H22" s="66">
+        <v>0.18</v>
+      </c>
+      <c t="inlineStr" r="I22">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J22" s="66">
         <v>0.91</v>
       </c>
-      <c r="I22" s="66">
+      <c r="K22" s="66">
         <v>0.74</v>
       </c>
-      <c r="J22" s="66">
+      <c r="L22" s="66">
+        <v>0.28</v>
+      </c>
+      <c r="M22" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N22" s="66">
         <v>0.55</v>
       </c>
-      <c r="K22" s="66">
+      <c r="O22" s="66">
         <v>0.44</v>
       </c>
-      <c r="L22" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M22" s="66">
+      <c r="P22" s="66">
+        <v>0.09</v>
+      </c>
+      <c t="inlineStr" r="Q22">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R22" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S22" s="66">
         <v>0.80</v>
       </c>
-      <c r="N22" s="66">
+      <c r="T22" s="66">
+        <v>0.16</v>
+      </c>
+      <c t="inlineStr" r="U22">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V22" s="66">
         <v>1.32</v>
       </c>
     </row>
@@ -1354,24 +2002,54 @@
         <v>0.89</v>
       </c>
       <c r="H23" s="66">
+        <v>0.29</v>
+      </c>
+      <c t="inlineStr" r="I23">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J23" s="66">
         <v>0.98</v>
       </c>
-      <c r="I23" s="66">
+      <c r="K23" s="66">
         <v>0.72</v>
       </c>
-      <c r="J23" s="66">
+      <c r="L23" s="66">
+        <v>0.30</v>
+      </c>
+      <c r="M23" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N23" s="66">
         <v>0.69</v>
       </c>
-      <c r="K23" s="66">
+      <c r="O23" s="66">
         <v>0.64</v>
       </c>
-      <c r="L23" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M23" s="66">
+      <c r="P23" s="66">
+        <v>0.14</v>
+      </c>
+      <c t="inlineStr" r="Q23">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R23" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S23" s="66">
         <v>0.93</v>
       </c>
-      <c r="N23" s="66">
+      <c r="T23" s="66">
+        <v>0.21</v>
+      </c>
+      <c t="inlineStr" r="U23">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V23" s="66">
         <v>1.36</v>
       </c>
     </row>
@@ -1404,24 +2082,54 @@
         <v>0.71</v>
       </c>
       <c r="H24" s="66">
+        <v>0.36</v>
+      </c>
+      <c t="inlineStr" r="I24">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J24" s="66">
         <v>0.93</v>
       </c>
-      <c r="I24" s="66">
+      <c r="K24" s="66">
         <v>0.82</v>
       </c>
-      <c r="J24" s="66">
+      <c r="L24" s="66">
+        <v>0.60</v>
+      </c>
+      <c r="M24" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N24" s="66">
         <v>0.53</v>
       </c>
-      <c r="K24" s="66">
+      <c r="O24" s="66">
         <v>0.41</v>
       </c>
-      <c r="L24" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M24" s="66">
+      <c r="P24" s="66">
+        <v>0.18</v>
+      </c>
+      <c t="inlineStr" r="Q24">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R24" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S24" s="66">
         <v>0.78</v>
       </c>
-      <c r="N24" s="66">
+      <c r="T24" s="66">
+        <v>0.34</v>
+      </c>
+      <c t="inlineStr" r="U24">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V24" s="66">
         <v>1.47</v>
       </c>
     </row>
@@ -1456,24 +2164,50 @@
         <v>0.89</v>
       </c>
       <c r="H25" s="66">
+        <v>0.14</v>
+      </c>
+      <c r="I25" s="66">
+        <v>0.21</v>
+      </c>
+      <c r="J25" s="66">
         <v>0.96</v>
       </c>
-      <c r="I25" s="66">
+      <c r="K25" s="66">
         <v>0.56</v>
       </c>
-      <c r="J25" s="66">
+      <c t="inlineStr" r="L25">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="M25" s="66">
+        <v>0.31</v>
+      </c>
+      <c r="N25" s="66">
         <v>0.52</v>
       </c>
-      <c r="K25" s="66">
+      <c r="O25" s="66">
         <v>0.54</v>
       </c>
-      <c r="L25" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M25" s="66">
+      <c r="P25" s="66">
+        <v>0.07</v>
+      </c>
+      <c r="Q25" s="66">
+        <v>0.11</v>
+      </c>
+      <c r="R25" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S25" s="66">
         <v>1.04</v>
       </c>
-      <c r="N25" s="66">
+      <c r="T25" s="66">
+        <v>0.14</v>
+      </c>
+      <c r="U25" s="66">
+        <v>0.20</v>
+      </c>
+      <c r="V25" s="66">
         <v>1.59</v>
       </c>
     </row>
@@ -1507,25 +2241,61 @@
       <c r="G26" s="66">
         <v>0.93</v>
       </c>
-      <c r="H26" s="66">
+      <c t="inlineStr" r="H26">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I26">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J26" s="66">
         <v>0.96</v>
       </c>
-      <c r="I26" s="66">
+      <c r="K26" s="66">
         <v>0.74</v>
       </c>
-      <c r="J26" s="66">
+      <c r="L26" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M26" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N26" s="66">
         <v>0.67</v>
       </c>
-      <c r="K26" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="L26" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M26" s="66">
+      <c r="O26" s="66">
+        <v>0.50</v>
+      </c>
+      <c t="inlineStr" r="P26">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q26">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R26" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S26" s="66">
         <v>0.75</v>
       </c>
-      <c r="N26" s="66">
+      <c t="inlineStr" r="T26">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U26">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V26" s="66">
         <v>0.99</v>
       </c>
     </row>
@@ -1559,25 +2329,61 @@
       <c r="G27" s="66">
         <v>0.79</v>
       </c>
-      <c r="H27" s="66">
+      <c t="inlineStr" r="H27">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I27">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J27" s="66">
         <v>0.71</v>
       </c>
-      <c r="I27" s="66">
+      <c r="K27" s="66">
         <v>0.66</v>
       </c>
-      <c r="J27" s="66">
+      <c r="L27" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M27" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N27" s="66">
         <v>0.54</v>
       </c>
-      <c r="K27" s="66">
+      <c r="O27" s="66">
         <v>0.46</v>
       </c>
-      <c r="L27" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M27" s="66">
+      <c t="inlineStr" r="P27">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q27">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R27" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S27" s="66">
         <v>0.86</v>
       </c>
-      <c r="N27" s="66">
+      <c t="inlineStr" r="T27">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U27">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V27" s="66">
         <v>1.00</v>
       </c>
     </row>
@@ -1612,24 +2418,54 @@
         <v>0.86</v>
       </c>
       <c r="H28" s="66">
+        <v>1.00</v>
+      </c>
+      <c t="inlineStr" r="I28">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J28" s="66">
         <v>0.91</v>
       </c>
-      <c r="I28" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="J28" s="66">
+      <c r="K28" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="L28" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M28" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N28" s="66">
         <v>0.18</v>
       </c>
-      <c r="K28" s="66">
+      <c r="O28" s="66">
         <v>0.53</v>
       </c>
-      <c r="L28" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M28" s="66">
+      <c r="P28" s="66">
+        <v>0.83</v>
+      </c>
+      <c t="inlineStr" r="Q28">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R28" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S28" s="66">
         <v>3.01</v>
       </c>
-      <c r="N28" s="66">
+      <c r="T28" s="66">
+        <v>4.70</v>
+      </c>
+      <c t="inlineStr" r="U28">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V28" s="66">
         <v>1.37</v>
       </c>
     </row>
@@ -1664,24 +2500,48 @@
         <v>0.43</v>
       </c>
       <c r="H29" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="I29" s="66">
+        <v>0.86</v>
+      </c>
+      <c r="J29" s="66">
         <v>0.90</v>
-      </c>
-      <c r="I29" s="66">
-        <v>0.21</v>
-      </c>
-      <c r="J29" s="66">
-        <v>0.51</v>
       </c>
       <c r="K29" s="66">
         <v>0.21</v>
       </c>
       <c r="L29" s="66">
-        <v>1.00</v>
+        <v>0.17</v>
       </c>
       <c r="M29" s="66">
+        <v>0.48</v>
+      </c>
+      <c r="N29" s="66">
+        <v>0.51</v>
+      </c>
+      <c r="O29" s="66">
+        <v>0.21</v>
+      </c>
+      <c r="P29" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="Q29" s="66">
+        <v>0.52</v>
+      </c>
+      <c r="R29" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S29" s="66">
         <v>0.42</v>
       </c>
-      <c r="N29" s="66">
+      <c r="T29" s="66">
+        <v>0.49</v>
+      </c>
+      <c r="U29" s="66">
+        <v>1.01</v>
+      </c>
+      <c r="V29" s="66">
         <v>1.89</v>
       </c>
     </row>
@@ -1715,25 +2575,61 @@
       <c r="G30" s="66">
         <v>0.86</v>
       </c>
-      <c r="H30" s="66">
+      <c t="inlineStr" r="H30">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I30">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J30" s="66">
         <v>0.93</v>
       </c>
-      <c r="I30" s="66">
+      <c r="K30" s="66">
         <v>0.71</v>
       </c>
-      <c r="J30" s="66">
+      <c r="L30" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M30" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N30" s="66">
         <v>0.60</v>
       </c>
-      <c r="K30" s="66">
+      <c r="O30" s="66">
         <v>0.46</v>
       </c>
-      <c r="L30" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M30" s="66">
+      <c t="inlineStr" r="P30">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q30">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R30" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S30" s="66">
         <v>0.77</v>
       </c>
-      <c r="N30" s="66">
+      <c t="inlineStr" r="T30">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U30">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V30" s="66">
         <v>0.99</v>
       </c>
     </row>
@@ -1768,24 +2664,54 @@
         <v>0.86</v>
       </c>
       <c r="H31" s="66">
+        <v>0.50</v>
+      </c>
+      <c t="inlineStr" r="I31">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J31" s="66">
         <v>0.90</v>
       </c>
-      <c r="I31" s="66">
+      <c r="K31" s="66">
         <v>0.75</v>
       </c>
-      <c r="J31" s="66">
+      <c r="L31" s="66">
+        <v>0.96</v>
+      </c>
+      <c r="M31" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N31" s="66">
         <v>0.75</v>
       </c>
-      <c r="K31" s="66">
+      <c r="O31" s="66">
         <v>0.58</v>
       </c>
-      <c r="L31" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M31" s="66">
+      <c r="P31" s="66">
+        <v>0.26</v>
+      </c>
+      <c t="inlineStr" r="Q31">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R31" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S31" s="66">
         <v>0.77</v>
       </c>
-      <c r="N31" s="66">
+      <c r="T31" s="66">
+        <v>0.34</v>
+      </c>
+      <c t="inlineStr" r="U31">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V31" s="66">
         <v>1.47</v>
       </c>
     </row>
@@ -1817,25 +2743,61 @@
       <c r="G32" s="66">
         <v>0.71</v>
       </c>
-      <c r="H32" s="66">
+      <c t="inlineStr" r="H32">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I32">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J32" s="66">
         <v>0.95</v>
       </c>
-      <c r="I32" s="66">
+      <c r="K32" s="66">
         <v>0.69</v>
       </c>
-      <c r="J32" s="66">
+      <c r="L32" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M32" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N32" s="66">
         <v>0.49</v>
       </c>
-      <c r="K32" s="66">
+      <c r="O32" s="66">
         <v>0.44</v>
       </c>
-      <c r="L32" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M32" s="66">
+      <c t="inlineStr" r="P32">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q32">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R32" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S32" s="66">
         <v>0.89</v>
       </c>
-      <c r="N32" s="66">
+      <c t="inlineStr" r="T32">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U32">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V32" s="66">
         <v>1.00</v>
       </c>
     </row>
@@ -1870,24 +2832,54 @@
         <v>0.71</v>
       </c>
       <c r="H33" s="66">
+        <v>0.36</v>
+      </c>
+      <c t="inlineStr" r="I33">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J33" s="66">
         <v>0.93</v>
       </c>
-      <c r="I33" s="66">
+      <c r="K33" s="66">
         <v>0.89</v>
       </c>
-      <c r="J33" s="66">
+      <c r="L33" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M33" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N33" s="66">
         <v>0.58</v>
       </c>
-      <c r="K33" s="66">
+      <c r="O33" s="66">
         <v>0.41</v>
       </c>
-      <c r="L33" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M33" s="66">
+      <c r="P33" s="66">
+        <v>0.18</v>
+      </c>
+      <c t="inlineStr" r="Q33">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R33" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S33" s="66">
         <v>0.70</v>
       </c>
-      <c r="N33" s="66">
+      <c r="T33" s="66">
+        <v>0.31</v>
+      </c>
+      <c t="inlineStr" r="U33">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V33" s="66">
         <v>1.44</v>
       </c>
     </row>
@@ -1922,24 +2914,54 @@
         <v>1.00</v>
       </c>
       <c r="H34" s="66">
+        <v>0.21</v>
+      </c>
+      <c t="inlineStr" r="I34">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J34" s="66">
         <v>0.92</v>
       </c>
-      <c r="I34" s="66">
+      <c r="K34" s="66">
         <v>0.57</v>
       </c>
-      <c r="J34" s="66">
+      <c r="L34" s="66">
+        <v>0.31</v>
+      </c>
+      <c r="M34" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N34" s="66">
         <v>0.76</v>
       </c>
-      <c r="K34" s="66">
+      <c r="O34" s="66">
         <v>0.54</v>
       </c>
-      <c r="L34" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M34" s="66">
+      <c r="P34" s="66">
+        <v>0.11</v>
+      </c>
+      <c t="inlineStr" r="Q34">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R34" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S34" s="66">
         <v>0.71</v>
       </c>
-      <c r="N34" s="66">
+      <c r="T34" s="66">
+        <v>0.14</v>
+      </c>
+      <c t="inlineStr" r="U34">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V34" s="66">
         <v>1.29</v>
       </c>
     </row>
@@ -1974,24 +2996,48 @@
         <v>0.75</v>
       </c>
       <c r="H35" s="66">
-        <v>0.50</v>
+        <v>0.39</v>
       </c>
       <c r="I35" s="66">
+        <v>0.14</v>
+      </c>
+      <c r="J35" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="K35" s="66">
         <v>0.47</v>
       </c>
-      <c r="J35" s="66">
+      <c r="L35" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M35" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N35" s="66">
         <v>0.66</v>
       </c>
-      <c r="K35" s="66">
+      <c r="O35" s="66">
         <v>0.44</v>
       </c>
-      <c r="L35" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M35" s="66">
+      <c r="P35" s="66">
+        <v>0.20</v>
+      </c>
+      <c r="Q35" s="66">
+        <v>0.07</v>
+      </c>
+      <c r="R35" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S35" s="66">
         <v>0.67</v>
       </c>
-      <c r="N35" s="66">
+      <c r="T35" s="66">
+        <v>0.30</v>
+      </c>
+      <c r="U35" s="66">
+        <v>0.11</v>
+      </c>
+      <c r="V35" s="66">
         <v>1.66</v>
       </c>
     </row>
@@ -2025,25 +3071,61 @@
       <c r="G36" s="66">
         <v>0.82</v>
       </c>
-      <c r="H36" s="66">
+      <c t="inlineStr" r="H36">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I36">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J36" s="66">
         <v>0.95</v>
       </c>
-      <c r="I36" s="66">
+      <c r="K36" s="66">
         <v>0.79</v>
       </c>
-      <c r="J36" s="66">
+      <c r="L36" s="66">
+        <v>0.48</v>
+      </c>
+      <c r="M36" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N36" s="66">
         <v>0.54</v>
       </c>
-      <c r="K36" s="66">
+      <c r="O36" s="66">
         <v>0.45</v>
       </c>
-      <c r="L36" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M36" s="66">
+      <c t="inlineStr" r="P36">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q36">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R36" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S36" s="66">
         <v>0.84</v>
       </c>
-      <c r="N36" s="66">
+      <c t="inlineStr" r="T36">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U36">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V36" s="66">
         <v>0.99</v>
       </c>
     </row>
@@ -2078,24 +3160,54 @@
         <v>1.00</v>
       </c>
       <c r="H37" s="66">
+        <v>0.29</v>
+      </c>
+      <c t="inlineStr" r="I37">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J37" s="66">
         <v>0.94</v>
       </c>
-      <c r="I37" s="66">
+      <c r="K37" s="66">
         <v>0.68</v>
       </c>
-      <c r="J37" s="66">
+      <c r="L37" s="66">
+        <v>0.34</v>
+      </c>
+      <c r="M37" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N37" s="66">
         <v>0.62</v>
       </c>
-      <c r="K37" s="66">
+      <c r="O37" s="66">
         <v>0.67</v>
       </c>
-      <c r="L37" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M37" s="66">
+      <c r="P37" s="66">
+        <v>0.15</v>
+      </c>
+      <c t="inlineStr" r="Q37">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R37" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S37" s="66">
         <v>1.09</v>
       </c>
-      <c r="N37" s="66">
+      <c r="T37" s="66">
+        <v>0.24</v>
+      </c>
+      <c t="inlineStr" r="U37">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V37" s="66">
         <v>1.38</v>
       </c>
     </row>
@@ -2128,24 +3240,48 @@
         <v>0.86</v>
       </c>
       <c r="H38" s="66">
+        <v>0.39</v>
+      </c>
+      <c r="I38" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="J38" s="66">
         <v>0.81</v>
       </c>
-      <c r="I38" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="J38" s="66">
+      <c r="K38" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="L38" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="M38" s="66">
+        <v>0.06</v>
+      </c>
+      <c r="N38" s="66">
         <v>0.69</v>
       </c>
-      <c r="K38" s="66">
+      <c r="O38" s="66">
         <v>0.46</v>
       </c>
-      <c r="L38" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M38" s="66">
+      <c r="P38" s="66">
+        <v>0.20</v>
+      </c>
+      <c r="Q38" s="66">
+        <v>0.12</v>
+      </c>
+      <c r="R38" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S38" s="66">
         <v>0.67</v>
       </c>
-      <c r="N38" s="66">
+      <c r="T38" s="66">
+        <v>0.29</v>
+      </c>
+      <c r="U38" s="66">
+        <v>0.18</v>
+      </c>
+      <c r="V38" s="66">
         <v>1.73</v>
       </c>
     </row>
@@ -2178,24 +3314,54 @@
         <v>1.00</v>
       </c>
       <c r="H39" s="66">
+        <v>0.36</v>
+      </c>
+      <c t="inlineStr" r="I39">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J39" s="66">
         <v>0.95</v>
       </c>
-      <c r="I39" s="66">
+      <c r="K39" s="66">
         <v>0.76</v>
       </c>
-      <c r="J39" s="66">
+      <c r="L39" s="66">
+        <v>0.04</v>
+      </c>
+      <c r="M39" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N39" s="66">
         <v>0.56</v>
       </c>
-      <c r="K39" s="66">
+      <c r="O39" s="66">
         <v>0.62</v>
       </c>
-      <c r="L39" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M39" s="66">
+      <c r="P39" s="66">
+        <v>0.18</v>
+      </c>
+      <c t="inlineStr" r="Q39">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R39" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S39" s="66">
         <v>1.10</v>
       </c>
-      <c r="N39" s="66">
+      <c r="T39" s="66">
+        <v>0.32</v>
+      </c>
+      <c t="inlineStr" r="U39">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V39" s="66">
         <v>1.43</v>
       </c>
     </row>
@@ -2229,25 +3395,61 @@
       <c r="G40" s="66">
         <v>0.96</v>
       </c>
-      <c r="H40" s="66">
+      <c t="inlineStr" r="H40">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I40">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J40" s="66">
         <v>0.57</v>
       </c>
-      <c r="I40" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="J40" s="66">
+      <c r="K40" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="L40" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M40" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N40" s="66">
         <v>0.58</v>
       </c>
-      <c r="K40" s="66">
+      <c r="O40" s="66">
         <v>0.57</v>
       </c>
-      <c r="L40" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M40" s="66">
+      <c t="inlineStr" r="P40">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q40">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R40" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S40" s="66">
         <v>0.98</v>
       </c>
-      <c r="N40" s="66">
+      <c t="inlineStr" r="T40">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U40">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V40" s="66">
         <v>1.00</v>
       </c>
     </row>
@@ -2286,30 +3488,62 @@
         </is>
       </c>
       <c r="H41" s="66">
+        <v>0.21</v>
+      </c>
+      <c t="inlineStr" r="I41">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J41" s="66">
         <v>0.58</v>
       </c>
-      <c r="I41" s="66">
-        <v>0.50</v>
-      </c>
-      <c t="inlineStr" r="J41">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K41">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+      <c r="K41" s="66">
+        <v>0.50</v>
       </c>
       <c r="L41" s="66">
-        <v>1.00</v>
-      </c>
-      <c t="inlineStr" r="M41">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="N41" s="66">
+        <v>0.28</v>
+      </c>
+      <c r="M41" s="66">
+        <v>0.50</v>
+      </c>
+      <c t="inlineStr" r="N41">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="O41">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="P41" s="66">
+        <v>0.11</v>
+      </c>
+      <c t="inlineStr" r="Q41">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R41" s="66">
+        <v>1.00</v>
+      </c>
+      <c t="inlineStr" r="S41">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="T41">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U41">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V41" s="66">
         <v>1.23</v>
       </c>
     </row>
@@ -2343,25 +3577,61 @@
       <c r="G42" s="66">
         <v>1.00</v>
       </c>
-      <c r="H42" s="66">
+      <c t="inlineStr" r="H42">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I42">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J42" s="66">
         <v>0.54</v>
       </c>
-      <c r="I42" s="66">
+      <c r="K42" s="66">
         <v>0.55</v>
       </c>
-      <c r="J42" s="66">
+      <c r="L42" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M42" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N42" s="66">
         <v>0.07</v>
       </c>
-      <c r="K42" s="66">
+      <c r="O42" s="66">
         <v>0.63</v>
       </c>
-      <c r="L42" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M42" s="66">
+      <c t="inlineStr" r="P42">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q42">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R42" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S42" s="66">
         <v>8.80</v>
       </c>
-      <c r="N42" s="66">
+      <c t="inlineStr" r="T42">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U42">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V42" s="66">
         <v>0.48</v>
       </c>
     </row>
@@ -2396,24 +3666,54 @@
         <v>1.00</v>
       </c>
       <c r="H43" s="66">
+        <v>0.32</v>
+      </c>
+      <c t="inlineStr" r="I43">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J43" s="66">
         <v>0.92</v>
       </c>
-      <c r="I43" s="66">
+      <c r="K43" s="66">
         <v>0.72</v>
       </c>
-      <c r="J43" s="66">
+      <c r="L43" s="66">
+        <v>0.17</v>
+      </c>
+      <c r="M43" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N43" s="66">
         <v>0.63</v>
       </c>
-      <c r="K43" s="66">
+      <c r="O43" s="66">
         <v>0.59</v>
       </c>
-      <c r="L43" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M43" s="66">
+      <c r="P43" s="66">
+        <v>0.16</v>
+      </c>
+      <c t="inlineStr" r="Q43">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R43" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S43" s="66">
         <v>0.93</v>
       </c>
-      <c r="N43" s="66">
+      <c r="T43" s="66">
+        <v>0.25</v>
+      </c>
+      <c t="inlineStr" r="U43">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V43" s="66">
         <v>1.40</v>
       </c>
     </row>
@@ -2448,24 +3748,48 @@
         <v>0.89</v>
       </c>
       <c r="H44" s="66">
+        <v>0.57</v>
+      </c>
+      <c r="I44" s="66">
+        <v>0.18</v>
+      </c>
+      <c r="J44" s="66">
         <v>0.56</v>
       </c>
-      <c r="I44" s="66">
+      <c r="K44" s="66">
         <v>0.51</v>
       </c>
-      <c r="J44" s="66">
+      <c r="L44" s="66">
+        <v>0.52</v>
+      </c>
+      <c r="M44" s="66">
+        <v>0.51</v>
+      </c>
+      <c r="N44" s="66">
         <v>0.49</v>
       </c>
-      <c r="K44" s="66">
+      <c r="O44" s="66">
         <v>0.55</v>
       </c>
-      <c r="L44" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M44" s="66">
+      <c r="P44" s="66">
+        <v>0.30</v>
+      </c>
+      <c r="Q44" s="66">
+        <v>0.09</v>
+      </c>
+      <c r="R44" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S44" s="66">
         <v>1.12</v>
       </c>
-      <c r="N44" s="66">
+      <c r="T44" s="66">
+        <v>0.62</v>
+      </c>
+      <c r="U44" s="66">
+        <v>0.18</v>
+      </c>
+      <c r="V44" s="66">
         <v>1.78</v>
       </c>
     </row>
@@ -2498,24 +3822,54 @@
         <v>1.00</v>
       </c>
       <c r="H45" s="66">
+        <v>0.14</v>
+      </c>
+      <c t="inlineStr" r="I45">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J45" s="66">
         <v>0.93</v>
       </c>
-      <c r="I45" s="66">
+      <c r="K45" s="66">
         <v>0.77</v>
       </c>
-      <c r="J45" s="66">
+      <c r="L45" s="66">
+        <v>0.35</v>
+      </c>
+      <c r="M45" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N45" s="66">
         <v>0.65</v>
       </c>
-      <c r="K45" s="66">
+      <c r="O45" s="66">
         <v>0.59</v>
       </c>
-      <c r="L45" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M45" s="66">
+      <c r="P45" s="66">
+        <v>0.07</v>
+      </c>
+      <c t="inlineStr" r="Q45">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R45" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S45" s="66">
         <v>0.92</v>
       </c>
-      <c r="N45" s="66">
+      <c r="T45" s="66">
+        <v>0.11</v>
+      </c>
+      <c t="inlineStr" r="U45">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V45" s="66">
         <v>1.25</v>
       </c>
     </row>
@@ -2550,24 +3904,48 @@
         <v>0.71</v>
       </c>
       <c r="H46" s="66">
+        <v>0.54</v>
+      </c>
+      <c r="I46" s="66">
+        <v>0.18</v>
+      </c>
+      <c r="J46" s="66">
         <v>0.97</v>
       </c>
-      <c r="I46" s="66">
+      <c r="K46" s="66">
         <v>0.80</v>
       </c>
-      <c r="J46" s="66">
+      <c r="L46" s="66">
+        <v>0.74</v>
+      </c>
+      <c r="M46" s="66">
+        <v>0.33</v>
+      </c>
+      <c r="N46" s="66">
         <v>0.52</v>
       </c>
-      <c r="K46" s="66">
+      <c r="O46" s="66">
         <v>0.38</v>
       </c>
-      <c r="L46" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M46" s="66">
+      <c r="P46" s="66">
+        <v>0.27</v>
+      </c>
+      <c r="Q46" s="66">
+        <v>0.09</v>
+      </c>
+      <c r="R46" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S46" s="66">
         <v>0.72</v>
       </c>
-      <c r="N46" s="66">
+      <c r="T46" s="66">
+        <v>0.52</v>
+      </c>
+      <c r="U46" s="66">
+        <v>0.17</v>
+      </c>
+      <c r="V46" s="66">
         <v>1.80</v>
       </c>
     </row>
@@ -2602,24 +3980,54 @@
         <v>0.86</v>
       </c>
       <c r="H47" s="66">
+        <v>0.14</v>
+      </c>
+      <c t="inlineStr" r="I47">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J47" s="66">
         <v>0.93</v>
       </c>
-      <c r="I47" s="66">
+      <c r="K47" s="66">
         <v>0.74</v>
       </c>
-      <c r="J47" s="66">
+      <c r="L47" s="66">
+        <v>0.26</v>
+      </c>
+      <c r="M47" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N47" s="66">
         <v>0.76</v>
       </c>
-      <c r="K47" s="66">
+      <c r="O47" s="66">
         <v>0.48</v>
       </c>
-      <c r="L47" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M47" s="66">
+      <c r="P47" s="66">
+        <v>0.07</v>
+      </c>
+      <c t="inlineStr" r="Q47">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R47" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S47" s="66">
         <v>0.64</v>
       </c>
-      <c r="N47" s="66">
+      <c r="T47" s="66">
+        <v>0.09</v>
+      </c>
+      <c t="inlineStr" r="U47">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V47" s="66">
         <v>1.22</v>
       </c>
     </row>
@@ -2652,24 +4060,48 @@
         <v>0.79</v>
       </c>
       <c r="H48" s="66">
+        <v>0.36</v>
+      </c>
+      <c r="I48" s="66">
+        <v>0.18</v>
+      </c>
+      <c r="J48" s="66">
         <v>0.90</v>
       </c>
-      <c r="I48" s="66">
+      <c r="K48" s="66">
         <v>0.62</v>
       </c>
-      <c r="J48" s="66">
+      <c r="L48" s="66">
+        <v>0.33</v>
+      </c>
+      <c r="M48" s="66">
+        <v>0.06</v>
+      </c>
+      <c r="N48" s="66">
         <v>0.73</v>
       </c>
-      <c r="K48" s="66">
+      <c r="O48" s="66">
         <v>0.43</v>
       </c>
-      <c r="L48" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M48" s="66">
+      <c r="P48" s="66">
+        <v>0.18</v>
+      </c>
+      <c r="Q48" s="66">
+        <v>0.09</v>
+      </c>
+      <c r="R48" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S48" s="66">
         <v>0.59</v>
       </c>
-      <c r="N48" s="66">
+      <c r="T48" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="U48" s="66">
+        <v>0.12</v>
+      </c>
+      <c r="V48" s="66">
         <v>1.64</v>
       </c>
     </row>
@@ -2702,24 +4134,54 @@
         <v>1.00</v>
       </c>
       <c r="H49" s="66">
+        <v>0.29</v>
+      </c>
+      <c t="inlineStr" r="I49">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J49" s="66">
         <v>0.93</v>
       </c>
-      <c r="I49" s="66">
+      <c r="K49" s="66">
         <v>0.92</v>
       </c>
-      <c r="J49" s="66">
+      <c r="L49" s="66">
+        <v>0.30</v>
+      </c>
+      <c r="M49" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N49" s="66">
         <v>0.64</v>
       </c>
-      <c r="K49" s="66">
+      <c r="O49" s="66">
         <v>0.62</v>
       </c>
-      <c r="L49" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M49" s="66">
+      <c r="P49" s="66">
+        <v>0.14</v>
+      </c>
+      <c t="inlineStr" r="Q49">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R49" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S49" s="66">
         <v>0.96</v>
       </c>
-      <c r="N49" s="66">
+      <c r="T49" s="66">
+        <v>0.22</v>
+      </c>
+      <c t="inlineStr" r="U49">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V49" s="66">
         <v>1.37</v>
       </c>
     </row>
@@ -2752,24 +4214,54 @@
         <v>0.89</v>
       </c>
       <c r="H50" s="66">
+        <v>0.29</v>
+      </c>
+      <c t="inlineStr" r="I50">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J50" s="66">
         <v>0.92</v>
       </c>
-      <c r="I50" s="66">
+      <c r="K50" s="66">
         <v>0.66</v>
       </c>
-      <c r="J50" s="66">
+      <c r="L50" s="66">
+        <v>0.26</v>
+      </c>
+      <c r="M50" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N50" s="66">
         <v>0.64</v>
       </c>
-      <c r="K50" s="66">
+      <c r="O50" s="66">
         <v>0.52</v>
       </c>
-      <c r="L50" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M50" s="66">
+      <c r="P50" s="66">
+        <v>0.14</v>
+      </c>
+      <c t="inlineStr" r="Q50">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R50" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S50" s="66">
         <v>0.81</v>
       </c>
-      <c r="N50" s="66">
+      <c r="T50" s="66">
+        <v>0.22</v>
+      </c>
+      <c t="inlineStr" r="U50">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V50" s="66">
         <v>1.38</v>
       </c>
     </row>
@@ -2804,24 +4296,54 @@
         <v>0.79</v>
       </c>
       <c r="H51" s="66">
+        <v>0.14</v>
+      </c>
+      <c t="inlineStr" r="I51">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J51" s="66">
         <v>0.91</v>
       </c>
-      <c r="I51" s="66">
+      <c r="K51" s="66">
         <v>0.68</v>
       </c>
-      <c r="J51" s="66">
+      <c r="L51" s="66">
+        <v>0.32</v>
+      </c>
+      <c r="M51" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N51" s="66">
         <v>0.60</v>
       </c>
-      <c r="K51" s="66">
+      <c r="O51" s="66">
         <v>0.49</v>
       </c>
-      <c r="L51" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M51" s="66">
+      <c r="P51" s="66">
+        <v>0.07</v>
+      </c>
+      <c t="inlineStr" r="Q51">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R51" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S51" s="66">
         <v>0.82</v>
       </c>
-      <c r="N51" s="66">
+      <c r="T51" s="66">
+        <v>0.12</v>
+      </c>
+      <c t="inlineStr" r="U51">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V51" s="66">
         <v>1.27</v>
       </c>
     </row>
@@ -2855,25 +4377,61 @@
       <c r="G52" s="66">
         <v>0.96</v>
       </c>
-      <c r="H52" s="66">
+      <c t="inlineStr" r="H52">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I52">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J52" s="66">
         <v>0.96</v>
       </c>
-      <c r="I52" s="66">
+      <c r="K52" s="66">
         <v>0.81</v>
       </c>
-      <c r="J52" s="66">
+      <c r="L52" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M52" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N52" s="66">
         <v>0.62</v>
       </c>
-      <c r="K52" s="66">
+      <c r="O52" s="66">
         <v>0.59</v>
       </c>
-      <c r="L52" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M52" s="66">
+      <c t="inlineStr" r="P52">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q52">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R52" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S52" s="66">
         <v>0.96</v>
       </c>
-      <c r="N52" s="66">
+      <c t="inlineStr" r="T52">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U52">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V52" s="66">
         <v>1.00</v>
       </c>
     </row>
@@ -2906,24 +4464,54 @@
         <v>0.93</v>
       </c>
       <c r="H53" s="66">
+        <v>0.29</v>
+      </c>
+      <c t="inlineStr" r="I53">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J53" s="66">
         <v>0.95</v>
       </c>
-      <c r="I53" s="66">
+      <c r="K53" s="66">
         <v>0.76</v>
       </c>
-      <c r="J53" s="66">
+      <c r="L53" s="66">
+        <v>0.46</v>
+      </c>
+      <c r="M53" s="66">
+        <v>0.29</v>
+      </c>
+      <c r="N53" s="66">
         <v>0.66</v>
       </c>
-      <c r="K53" s="66">
+      <c r="O53" s="66">
         <v>0.52</v>
       </c>
-      <c r="L53" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M53" s="66">
+      <c r="P53" s="66">
+        <v>0.14</v>
+      </c>
+      <c t="inlineStr" r="Q53">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R53" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S53" s="66">
         <v>0.78</v>
       </c>
-      <c r="N53" s="66">
+      <c r="T53" s="66">
+        <v>0.22</v>
+      </c>
+      <c t="inlineStr" r="U53">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V53" s="66">
         <v>1.38</v>
       </c>
     </row>
@@ -2956,30 +4544,54 @@
         <v>0.89</v>
       </c>
       <c r="H54" s="66">
+        <v>0.29</v>
+      </c>
+      <c r="I54" s="66">
+        <v>0.32</v>
+      </c>
+      <c r="J54" s="66">
         <v>0.94</v>
       </c>
-      <c r="I54" s="66">
+      <c r="K54" s="66">
         <v>0.78</v>
       </c>
-      <c r="J54" s="66">
+      <c r="L54" s="66">
+        <v>0.32</v>
+      </c>
+      <c r="M54" s="66">
+        <v>0.30</v>
+      </c>
+      <c r="N54" s="66">
         <v>0.59</v>
       </c>
-      <c r="K54" s="66">
+      <c r="O54" s="66">
         <v>0.52</v>
       </c>
-      <c r="L54" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="M54" s="66">
+      <c r="P54" s="66">
+        <v>0.14</v>
+      </c>
+      <c r="Q54" s="66">
+        <v>0.16</v>
+      </c>
+      <c r="R54" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S54" s="66">
         <v>0.88</v>
       </c>
-      <c r="N54" s="66">
+      <c r="T54" s="66">
+        <v>0.24</v>
+      </c>
+      <c r="U54" s="66">
+        <v>0.27</v>
+      </c>
+      <c r="V54" s="66">
         <v>1.75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:V1"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/data/raw data/language history/LHQ3 Aggregate Scores.xlsx
+++ b/data/raw data/language history/LHQ3 Aggregate Scores.xlsx
@@ -512,14 +512,16 @@
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">bder6</t>
-        </is>
-      </c>
-      <c r="B5" s="66">
-        <v>0.00</v>
+          <t xml:space="preserve">awfh6</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B5">
+        <is>
+          <t xml:space="preserve">awfh6</t>
+        </is>
       </c>
       <c r="C5" s="66">
-        <v>19.00</v>
+        <v>21.00</v>
       </c>
       <c t="inlineStr" r="D5">
         <is>
@@ -532,80 +534,68 @@
         </is>
       </c>
       <c r="F5" s="66">
-        <v>1.00</v>
+        <v>0.93</v>
       </c>
       <c r="G5" s="66">
-        <v>0.89</v>
-      </c>
-      <c t="inlineStr" r="H5">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I5">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.82</v>
+      </c>
+      <c r="H5" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="66">
+        <v>0.29</v>
       </c>
       <c r="J5" s="66">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="K5" s="66">
-        <v>0.66</v>
+        <v>0.58</v>
       </c>
       <c r="L5" s="66">
-        <v>0.50</v>
+        <v>0.31</v>
       </c>
       <c r="M5" s="66">
-        <v>0.50</v>
+        <v>0.07</v>
       </c>
       <c r="N5" s="66">
-        <v>1.02</v>
+        <v>0.64</v>
       </c>
       <c r="O5" s="66">
-        <v>0.94</v>
-      </c>
-      <c t="inlineStr" r="P5">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="Q5">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.51</v>
+      </c>
+      <c r="P5" s="66">
+        <v>0.12</v>
+      </c>
+      <c r="Q5" s="66">
+        <v>0.14</v>
       </c>
       <c r="R5" s="66">
         <v>1.00</v>
       </c>
       <c r="S5" s="66">
-        <v>0.92</v>
-      </c>
-      <c t="inlineStr" r="T5">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="U5">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.81</v>
+      </c>
+      <c r="T5" s="66">
+        <v>0.20</v>
+      </c>
+      <c r="U5" s="66">
+        <v>0.22</v>
       </c>
       <c r="V5" s="66">
-        <v>1.00</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">bdjk0</t>
+          <t xml:space="preserve">bder6</t>
         </is>
       </c>
       <c r="B6" s="66">
         <v>0.00</v>
       </c>
       <c r="C6" s="66">
-        <v>23.00</v>
+        <v>19.00</v>
       </c>
       <c t="inlineStr" r="D6">
         <is>
@@ -614,14 +604,14 @@
       </c>
       <c t="inlineStr" r="E6">
         <is>
-          <t xml:space="preserve">Graduate school (Master)</t>
+          <t xml:space="preserve">High school</t>
         </is>
       </c>
       <c r="F6" s="66">
         <v>1.00</v>
       </c>
       <c r="G6" s="66">
-        <v>0.68</v>
+        <v>0.89</v>
       </c>
       <c t="inlineStr" r="H6">
         <is>
@@ -634,10 +624,10 @@
         </is>
       </c>
       <c r="J6" s="66">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="K6" s="66">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="L6" s="66">
         <v>0.50</v>
@@ -646,10 +636,10 @@
         <v>0.50</v>
       </c>
       <c r="N6" s="66">
-        <v>0.59</v>
+        <v>1.02</v>
       </c>
       <c r="O6" s="66">
-        <v>0.37</v>
+        <v>0.94</v>
       </c>
       <c t="inlineStr" r="P6">
         <is>
@@ -665,7 +655,7 @@
         <v>1.00</v>
       </c>
       <c r="S6" s="66">
-        <v>0.62</v>
+        <v>0.92</v>
       </c>
       <c t="inlineStr" r="T6">
         <is>
@@ -678,20 +668,20 @@
         </is>
       </c>
       <c r="V6" s="66">
-        <v>0.96</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">cgju5</t>
+          <t xml:space="preserve">bdjk0</t>
         </is>
       </c>
       <c r="B7" s="66">
         <v>0.00</v>
       </c>
       <c r="C7" s="66">
-        <v>44.00</v>
+        <v>23.00</v>
       </c>
       <c t="inlineStr" r="D7">
         <is>
@@ -700,17 +690,19 @@
       </c>
       <c t="inlineStr" r="E7">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">Graduate school (Master)</t>
         </is>
       </c>
       <c r="F7" s="66">
         <v>1.00</v>
       </c>
       <c r="G7" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="H7" s="66">
-        <v>0.21</v>
+        <v>0.68</v>
+      </c>
+      <c t="inlineStr" r="H7">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="I7">
         <is>
@@ -718,62 +710,64 @@
         </is>
       </c>
       <c r="J7" s="66">
+        <v>0.91</v>
+      </c>
+      <c r="K7" s="66">
+        <v>0.67</v>
+      </c>
+      <c r="L7" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M7" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N7" s="66">
+        <v>0.59</v>
+      </c>
+      <c r="O7" s="66">
+        <v>0.37</v>
+      </c>
+      <c t="inlineStr" r="P7">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q7">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R7" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S7" s="66">
+        <v>0.62</v>
+      </c>
+      <c t="inlineStr" r="T7">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U7">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V7" s="66">
         <v>0.96</v>
-      </c>
-      <c r="K7" s="66">
-        <v>0.75</v>
-      </c>
-      <c r="L7" s="66">
-        <v>0.42</v>
-      </c>
-      <c r="M7" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="N7" s="66">
-        <v>0.62</v>
-      </c>
-      <c r="O7" s="66">
-        <v>0.54</v>
-      </c>
-      <c r="P7" s="66">
-        <v>0.11</v>
-      </c>
-      <c t="inlineStr" r="Q7">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="R7" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="S7" s="66">
-        <v>0.87</v>
-      </c>
-      <c r="T7" s="66">
-        <v>0.17</v>
-      </c>
-      <c t="inlineStr" r="U7">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="V7" s="66">
-        <v>1.33</v>
       </c>
     </row>
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">chkk1</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B8">
-        <is>
-          <t xml:space="preserve">chkk1</t>
-        </is>
+          <t xml:space="preserve">cgju5</t>
+        </is>
+      </c>
+      <c r="B8" s="66">
+        <v>0.00</v>
       </c>
       <c r="C8" s="66">
-        <v>20.00</v>
+        <v>44.00</v>
       </c>
       <c t="inlineStr" r="D8">
         <is>
@@ -782,43 +776,43 @@
       </c>
       <c t="inlineStr" r="E8">
         <is>
-          <t xml:space="preserve">High school</t>
+          <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
       <c r="F8" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G8" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="H8" s="66">
+        <v>0.21</v>
+      </c>
+      <c t="inlineStr" r="I8">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J8" s="66">
         <v>0.96</v>
       </c>
-      <c r="G8" s="66">
-        <v>0.82</v>
-      </c>
-      <c r="H8" s="66">
-        <v>0.43</v>
-      </c>
-      <c t="inlineStr" r="I8">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="J8" s="66">
-        <v>0.91</v>
-      </c>
       <c r="K8" s="66">
-        <v>0.56</v>
+        <v>0.75</v>
       </c>
       <c r="L8" s="66">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="M8" s="66">
         <v>0.50</v>
       </c>
       <c r="N8" s="66">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="O8" s="66">
-        <v>0.50</v>
+        <v>0.54</v>
       </c>
       <c r="P8" s="66">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c t="inlineStr" r="Q8">
         <is>
@@ -829,10 +823,10 @@
         <v>1.00</v>
       </c>
       <c r="S8" s="66">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="T8" s="66">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c t="inlineStr" r="U8">
         <is>
@@ -840,22 +834,22 @@
         </is>
       </c>
       <c r="V8" s="66">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">crar9</t>
+          <t xml:space="preserve">chkk1</t>
         </is>
       </c>
       <c t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">crar9</t>
+          <t xml:space="preserve">chkk1</t>
         </is>
       </c>
       <c r="C9" s="66">
-        <v>21.00</v>
+        <v>20.00</v>
       </c>
       <c t="inlineStr" r="D9">
         <is>
@@ -871,71 +865,77 @@
         <v>0.96</v>
       </c>
       <c r="G9" s="66">
-        <v>0.68</v>
+        <v>0.82</v>
       </c>
       <c r="H9" s="66">
-        <v>0.14</v>
-      </c>
-      <c r="I9" s="66">
-        <v>0.18</v>
+        <v>0.43</v>
+      </c>
+      <c t="inlineStr" r="I9">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="J9" s="66">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="K9" s="66">
-        <v>0.60</v>
+        <v>0.56</v>
       </c>
       <c r="L9" s="66">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="M9" s="66">
-        <v>0.19</v>
+        <v>0.50</v>
       </c>
       <c r="N9" s="66">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
       <c r="O9" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="P9" s="66">
+        <v>0.21</v>
+      </c>
+      <c t="inlineStr" r="Q9">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R9" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S9" s="66">
+        <v>0.86</v>
+      </c>
+      <c r="T9" s="66">
         <v>0.36</v>
       </c>
-      <c r="P9" s="66">
-        <v>0.07</v>
-      </c>
-      <c r="Q9" s="66">
-        <v>0.09</v>
-      </c>
-      <c r="R9" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="S9" s="66">
-        <v>0.57</v>
-      </c>
-      <c r="T9" s="66">
-        <v>0.11</v>
-      </c>
-      <c r="U9" s="66">
-        <v>0.14</v>
+      <c t="inlineStr" r="U9">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="V9" s="66">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">dbrb5</t>
+          <t xml:space="preserve">crar9</t>
         </is>
       </c>
       <c t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">dbrb5</t>
+          <t xml:space="preserve">crar9</t>
         </is>
       </c>
       <c r="C10" s="66">
-        <v>27.00</v>
+        <v>21.00</v>
       </c>
       <c t="inlineStr" r="D10">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E10">
@@ -944,76 +944,70 @@
         </is>
       </c>
       <c r="F10" s="66">
-        <v>1.00</v>
+        <v>0.96</v>
       </c>
       <c r="G10" s="66">
-        <v>1.00</v>
+        <v>0.68</v>
       </c>
       <c r="H10" s="66">
+        <v>0.14</v>
+      </c>
+      <c r="I10" s="66">
         <v>0.18</v>
       </c>
-      <c t="inlineStr" r="I10">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
       <c r="J10" s="66">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="K10" s="66">
-        <v>0.94</v>
+        <v>0.60</v>
       </c>
       <c r="L10" s="66">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="M10" s="66">
-        <v>0.50</v>
+        <v>0.19</v>
       </c>
       <c r="N10" s="66">
-        <v>0.54</v>
+        <v>0.64</v>
       </c>
       <c r="O10" s="66">
+        <v>0.36</v>
+      </c>
+      <c r="P10" s="66">
+        <v>0.07</v>
+      </c>
+      <c r="Q10" s="66">
+        <v>0.09</v>
+      </c>
+      <c r="R10" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S10" s="66">
         <v>0.57</v>
       </c>
-      <c r="P10" s="66">
-        <v>0.09</v>
-      </c>
-      <c t="inlineStr" r="Q10">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="R10" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="S10" s="66">
-        <v>1.05</v>
-      </c>
       <c r="T10" s="66">
-        <v>0.16</v>
-      </c>
-      <c t="inlineStr" r="U10">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.11</v>
+      </c>
+      <c r="U10" s="66">
+        <v>0.14</v>
       </c>
       <c r="V10" s="66">
-        <v>1.31</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">exdq7</t>
+          <t xml:space="preserve">dbrb5</t>
         </is>
       </c>
       <c t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">exdq7</t>
+          <t xml:space="preserve">dbrb5</t>
         </is>
       </c>
       <c r="C11" s="66">
-        <v>26.00</v>
+        <v>27.00</v>
       </c>
       <c t="inlineStr" r="D11">
         <is>
@@ -1022,19 +1016,17 @@
       </c>
       <c t="inlineStr" r="E11">
         <is>
-          <t xml:space="preserve">Graduate school (Master)</t>
+          <t xml:space="preserve">High school</t>
         </is>
       </c>
       <c r="F11" s="66">
         <v>1.00</v>
       </c>
       <c r="G11" s="66">
-        <v>0.93</v>
-      </c>
-      <c t="inlineStr" r="H11">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>1.00</v>
+      </c>
+      <c r="H11" s="66">
+        <v>0.18</v>
       </c>
       <c t="inlineStr" r="I11">
         <is>
@@ -1042,27 +1034,25 @@
         </is>
       </c>
       <c r="J11" s="66">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="K11" s="66">
-        <v>0.76</v>
+        <v>0.94</v>
       </c>
       <c r="L11" s="66">
-        <v>0.50</v>
+        <v>0.17</v>
       </c>
       <c r="M11" s="66">
         <v>0.50</v>
       </c>
       <c r="N11" s="66">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O11" s="66">
-        <v>0.60</v>
-      </c>
-      <c t="inlineStr" r="P11">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.57</v>
+      </c>
+      <c r="P11" s="66">
+        <v>0.09</v>
       </c>
       <c t="inlineStr" r="Q11">
         <is>
@@ -1073,12 +1063,10 @@
         <v>1.00</v>
       </c>
       <c r="S11" s="66">
-        <v>1.09</v>
-      </c>
-      <c t="inlineStr" r="T11">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>1.05</v>
+      </c>
+      <c r="T11" s="66">
+        <v>0.16</v>
       </c>
       <c t="inlineStr" r="U11">
         <is>
@@ -1086,20 +1074,22 @@
         </is>
       </c>
       <c r="V11" s="66">
-        <v>1.00</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="12">
       <c t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">ezje7</t>
-        </is>
-      </c>
-      <c r="B12" s="66">
-        <v>0.00</v>
+          <t xml:space="preserve">dzyb1</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B12">
+        <is>
+          <t xml:space="preserve">qfm69swb</t>
+        </is>
       </c>
       <c r="C12" s="66">
-        <v>25.00</v>
+        <v>22.00</v>
       </c>
       <c t="inlineStr" r="D12">
         <is>
@@ -1108,72 +1098,80 @@
       </c>
       <c t="inlineStr" r="E12">
         <is>
-          <t xml:space="preserve">Graduate school (Doctor)</t>
+          <t xml:space="preserve">High school</t>
         </is>
       </c>
       <c r="F12" s="66">
-        <v>0.86</v>
+        <v>1.00</v>
       </c>
       <c r="G12" s="66">
-        <v>0.68</v>
+        <v>0.79</v>
       </c>
       <c r="H12" s="66">
-        <v>0.32</v>
-      </c>
-      <c r="I12" s="66">
-        <v>0.32</v>
+        <v>0.54</v>
+      </c>
+      <c t="inlineStr" r="I12">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="J12" s="66">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="K12" s="66">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="L12" s="66">
-        <v>0.30</v>
+        <v>0.51</v>
       </c>
       <c r="M12" s="66">
-        <v>0.24</v>
+        <v>0.50</v>
       </c>
       <c r="N12" s="66">
-        <v>0.51</v>
+        <v>0.66</v>
       </c>
       <c r="O12" s="66">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="P12" s="66">
-        <v>0.16</v>
-      </c>
-      <c r="Q12" s="66">
-        <v>0.16</v>
+        <v>0.27</v>
+      </c>
+      <c t="inlineStr" r="Q12">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="R12" s="66">
         <v>1.00</v>
       </c>
       <c r="S12" s="66">
-        <v>0.78</v>
+        <v>0.66</v>
       </c>
       <c r="T12" s="66">
-        <v>0.32</v>
-      </c>
-      <c r="U12" s="66">
-        <v>0.32</v>
+        <v>0.41</v>
+      </c>
+      <c t="inlineStr" r="U12">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="V12" s="66">
-        <v>1.82</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="13">
       <c t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">finc3</t>
-        </is>
-      </c>
-      <c r="B13" s="66">
-        <v>0.00</v>
+          <t xml:space="preserve">exdq7</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B13">
+        <is>
+          <t xml:space="preserve">exdq7</t>
+        </is>
       </c>
       <c r="C13" s="66">
-        <v>42.00</v>
+        <v>26.00</v>
       </c>
       <c t="inlineStr" r="D13">
         <is>
@@ -1182,7 +1180,7 @@
       </c>
       <c t="inlineStr" r="E13">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">Graduate school (Master)</t>
         </is>
       </c>
       <c r="F13" s="66">
@@ -1191,8 +1189,10 @@
       <c r="G13" s="66">
         <v>0.93</v>
       </c>
-      <c r="H13" s="66">
-        <v>0.79</v>
+      <c t="inlineStr" r="H13">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="I13">
         <is>
@@ -1200,25 +1200,27 @@
         </is>
       </c>
       <c r="J13" s="66">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="K13" s="66">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="L13" s="66">
-        <v>0.86</v>
+        <v>0.50</v>
       </c>
       <c r="M13" s="66">
         <v>0.50</v>
       </c>
       <c r="N13" s="66">
-        <v>0.65</v>
+        <v>0.55</v>
       </c>
       <c r="O13" s="66">
-        <v>0.51</v>
-      </c>
-      <c r="P13" s="66">
-        <v>0.39</v>
+        <v>0.60</v>
+      </c>
+      <c t="inlineStr" r="P13">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="Q13">
         <is>
@@ -1229,10 +1231,12 @@
         <v>1.00</v>
       </c>
       <c r="S13" s="66">
-        <v>0.79</v>
-      </c>
-      <c r="T13" s="66">
-        <v>0.61</v>
+        <v>1.09</v>
+      </c>
+      <c t="inlineStr" r="T13">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="U13">
         <is>
@@ -1240,22 +1244,20 @@
         </is>
       </c>
       <c r="V13" s="66">
-        <v>1.56</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="14">
       <c t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">fkft1</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B14">
-        <is>
-          <t xml:space="preserve">fkft1</t>
-        </is>
+          <t xml:space="preserve">ezje7</t>
+        </is>
+      </c>
+      <c r="B14" s="66">
+        <v>0.00</v>
       </c>
       <c r="C14" s="66">
-        <v>54.00</v>
+        <v>25.00</v>
       </c>
       <c t="inlineStr" r="D14">
         <is>
@@ -1264,82 +1266,76 @@
       </c>
       <c t="inlineStr" r="E14">
         <is>
-          <t xml:space="preserve">Graduate school (Master)</t>
+          <t xml:space="preserve">Graduate school (Doctor)</t>
         </is>
       </c>
       <c r="F14" s="66">
-        <v>1.00</v>
+        <v>0.86</v>
       </c>
       <c r="G14" s="66">
-        <v>0.86</v>
+        <v>0.68</v>
       </c>
       <c r="H14" s="66">
-        <v>0.61</v>
-      </c>
-      <c t="inlineStr" r="I14">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.32</v>
+      </c>
+      <c r="I14" s="66">
+        <v>0.32</v>
       </c>
       <c r="J14" s="66">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="K14" s="66">
-        <v>0.82</v>
+        <v>0.68</v>
       </c>
       <c r="L14" s="66">
-        <v>0.65</v>
+        <v>0.30</v>
       </c>
       <c r="M14" s="66">
-        <v>0.50</v>
+        <v>0.24</v>
       </c>
       <c r="N14" s="66">
-        <v>0.63</v>
+        <v>0.51</v>
       </c>
       <c r="O14" s="66">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="P14" s="66">
-        <v>0.30</v>
-      </c>
-      <c t="inlineStr" r="Q14">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.16</v>
+      </c>
+      <c r="Q14" s="66">
+        <v>0.16</v>
       </c>
       <c r="R14" s="66">
         <v>1.00</v>
       </c>
       <c r="S14" s="66">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="T14" s="66">
-        <v>0.48</v>
-      </c>
-      <c t="inlineStr" r="U14">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.32</v>
+      </c>
+      <c r="U14" s="66">
+        <v>0.32</v>
       </c>
       <c r="V14" s="66">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="15">
       <c t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">fqrf6</t>
+          <t xml:space="preserve">finc3</t>
         </is>
       </c>
       <c r="B15" s="66">
         <v>0.00</v>
       </c>
       <c r="C15" s="66">
-        <v>26.00</v>
+        <v>42.00</v>
       </c>
       <c t="inlineStr" r="D15">
         <is>
-          <t xml:space="preserve">Female</t>
+          <t xml:space="preserve">Male</t>
         </is>
       </c>
       <c t="inlineStr" r="E15">
@@ -1348,43 +1344,39 @@
         </is>
       </c>
       <c r="F15" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G15" s="66">
+        <v>0.93</v>
+      </c>
+      <c r="H15" s="66">
+        <v>0.79</v>
+      </c>
+      <c t="inlineStr" r="I15">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J15" s="66">
+        <v>0.97</v>
+      </c>
+      <c r="K15" s="66">
         <v>0.86</v>
       </c>
-      <c r="G15" s="66">
-        <v>0.71</v>
-      </c>
-      <c t="inlineStr" r="H15">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I15">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="J15" s="66">
-        <v>0.56</v>
-      </c>
-      <c r="K15" s="66">
-        <v>0.50</v>
-      </c>
       <c r="L15" s="66">
-        <v>0.50</v>
+        <v>0.86</v>
       </c>
       <c r="M15" s="66">
         <v>0.50</v>
       </c>
       <c r="N15" s="66">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
       <c r="O15" s="66">
-        <v>0.46</v>
-      </c>
-      <c t="inlineStr" r="P15">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.51</v>
+      </c>
+      <c r="P15" s="66">
+        <v>0.39</v>
       </c>
       <c t="inlineStr" r="Q15">
         <is>
@@ -1395,12 +1387,10 @@
         <v>1.00</v>
       </c>
       <c r="S15" s="66">
-        <v>0.80</v>
-      </c>
-      <c t="inlineStr" r="T15">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.79</v>
+      </c>
+      <c r="T15" s="66">
+        <v>0.61</v>
       </c>
       <c t="inlineStr" r="U15">
         <is>
@@ -1408,41 +1398,41 @@
         </is>
       </c>
       <c r="V15" s="66">
-        <v>0.99</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="16">
       <c t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">fwma9</t>
+          <t xml:space="preserve">fkft1</t>
         </is>
       </c>
       <c t="inlineStr" r="B16">
         <is>
-          <t xml:space="preserve">fwma9</t>
+          <t xml:space="preserve">fkft1</t>
         </is>
       </c>
       <c r="C16" s="66">
-        <v>21.00</v>
+        <v>54.00</v>
       </c>
       <c t="inlineStr" r="D16">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E16">
         <is>
-          <t xml:space="preserve">High school</t>
+          <t xml:space="preserve">Graduate school (Master)</t>
         </is>
       </c>
       <c r="F16" s="66">
         <v>1.00</v>
       </c>
       <c r="G16" s="66">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="H16" s="66">
-        <v>0.18</v>
+        <v>0.61</v>
       </c>
       <c t="inlineStr" r="I16">
         <is>
@@ -1450,25 +1440,25 @@
         </is>
       </c>
       <c r="J16" s="66">
-        <v>1.00</v>
+        <v>0.98</v>
       </c>
       <c r="K16" s="66">
-        <v>0.67</v>
+        <v>0.82</v>
       </c>
       <c r="L16" s="66">
-        <v>0.28</v>
+        <v>0.65</v>
       </c>
       <c r="M16" s="66">
         <v>0.50</v>
       </c>
       <c r="N16" s="66">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="O16" s="66">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="P16" s="66">
-        <v>0.09</v>
+        <v>0.30</v>
       </c>
       <c t="inlineStr" r="Q16">
         <is>
@@ -1479,10 +1469,10 @@
         <v>1.00</v>
       </c>
       <c r="S16" s="66">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="T16" s="66">
-        <v>0.15</v>
+        <v>0.48</v>
       </c>
       <c t="inlineStr" r="U16">
         <is>
@@ -1490,20 +1480,20 @@
         </is>
       </c>
       <c r="V16" s="66">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="17">
       <c t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">fxvz2</t>
+          <t xml:space="preserve">fqrf6</t>
         </is>
       </c>
       <c r="B17" s="66">
         <v>0.00</v>
       </c>
       <c r="C17" s="66">
-        <v>34.00</v>
+        <v>26.00</v>
       </c>
       <c t="inlineStr" r="D17">
         <is>
@@ -1516,13 +1506,15 @@
         </is>
       </c>
       <c r="F17" s="66">
-        <v>1.00</v>
+        <v>0.86</v>
       </c>
       <c r="G17" s="66">
-        <v>0.68</v>
-      </c>
-      <c r="H17" s="66">
-        <v>0.79</v>
+        <v>0.71</v>
+      </c>
+      <c t="inlineStr" r="H17">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="I17">
         <is>
@@ -1530,25 +1522,27 @@
         </is>
       </c>
       <c r="J17" s="66">
-        <v>0.95</v>
+        <v>0.56</v>
       </c>
       <c r="K17" s="66">
-        <v>0.97</v>
+        <v>0.50</v>
       </c>
       <c r="L17" s="66">
-        <v>0.75</v>
+        <v>0.50</v>
       </c>
       <c r="M17" s="66">
         <v>0.50</v>
       </c>
       <c r="N17" s="66">
-        <v>0.65</v>
+        <v>0.58</v>
       </c>
       <c r="O17" s="66">
-        <v>0.34</v>
-      </c>
-      <c r="P17" s="66">
-        <v>0.44</v>
+        <v>0.46</v>
+      </c>
+      <c t="inlineStr" r="P17">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="Q17">
         <is>
@@ -1559,10 +1553,12 @@
         <v>1.00</v>
       </c>
       <c r="S17" s="66">
-        <v>0.52</v>
-      </c>
-      <c r="T17" s="66">
-        <v>0.68</v>
+        <v>0.80</v>
+      </c>
+      <c t="inlineStr" r="T17">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="U17">
         <is>
@@ -1570,98 +1566,102 @@
         </is>
       </c>
       <c r="V17" s="66">
-        <v>1.53</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="18">
       <c t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">gjop6</t>
+          <t xml:space="preserve">fwma9</t>
         </is>
       </c>
       <c t="inlineStr" r="B18">
         <is>
-          <t xml:space="preserve">gjop6</t>
+          <t xml:space="preserve">fwma9</t>
         </is>
       </c>
       <c r="C18" s="66">
-        <v>31.00</v>
+        <v>21.00</v>
       </c>
       <c t="inlineStr" r="D18">
         <is>
-          <t xml:space="preserve">Female</t>
+          <t xml:space="preserve">Male</t>
         </is>
       </c>
       <c t="inlineStr" r="E18">
         <is>
-          <t xml:space="preserve">Graduate school (Master)</t>
+          <t xml:space="preserve">High school</t>
         </is>
       </c>
       <c r="F18" s="66">
-        <v>0.86</v>
+        <v>1.00</v>
       </c>
       <c r="G18" s="66">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="H18" s="66">
-        <v>0.75</v>
-      </c>
-      <c r="I18" s="66">
-        <v>0.21</v>
+        <v>0.18</v>
+      </c>
+      <c t="inlineStr" r="I18">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="J18" s="66">
         <v>1.00</v>
       </c>
       <c r="K18" s="66">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="L18" s="66">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="M18" s="66">
-        <v>0.24</v>
+        <v>0.50</v>
       </c>
       <c r="N18" s="66">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="O18" s="66">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="P18" s="66">
-        <v>0.38</v>
-      </c>
-      <c r="Q18" s="66">
-        <v>0.11</v>
+        <v>0.09</v>
+      </c>
+      <c t="inlineStr" r="Q18">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="R18" s="66">
         <v>1.00</v>
       </c>
       <c r="S18" s="66">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="T18" s="66">
-        <v>0.73</v>
-      </c>
-      <c r="U18" s="66">
-        <v>0.21</v>
+        <v>0.15</v>
+      </c>
+      <c t="inlineStr" r="U18">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="V18" s="66">
-        <v>1.84</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="19">
       <c t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">gxac7</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B19">
-        <is>
-          <t xml:space="preserve">gxac7</t>
-        </is>
+          <t xml:space="preserve">fxvz2</t>
+        </is>
+      </c>
+      <c r="B19" s="66">
+        <v>0.00</v>
       </c>
       <c r="C19" s="66">
-        <v>22.00</v>
+        <v>34.00</v>
       </c>
       <c t="inlineStr" r="D19">
         <is>
@@ -1674,13 +1674,13 @@
         </is>
       </c>
       <c r="F19" s="66">
-        <v>0.86</v>
+        <v>1.00</v>
       </c>
       <c r="G19" s="66">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="H19" s="66">
-        <v>0.36</v>
+        <v>0.79</v>
       </c>
       <c t="inlineStr" r="I19">
         <is>
@@ -1691,22 +1691,22 @@
         <v>0.95</v>
       </c>
       <c r="K19" s="66">
-        <v>0.80</v>
+        <v>0.97</v>
       </c>
       <c r="L19" s="66">
-        <v>0.32</v>
+        <v>0.75</v>
       </c>
       <c r="M19" s="66">
         <v>0.50</v>
       </c>
       <c r="N19" s="66">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
       <c r="O19" s="66">
-        <v>0.46</v>
+        <v>0.34</v>
       </c>
       <c r="P19" s="66">
-        <v>0.18</v>
+        <v>0.44</v>
       </c>
       <c t="inlineStr" r="Q19">
         <is>
@@ -1717,10 +1717,10 @@
         <v>1.00</v>
       </c>
       <c r="S19" s="66">
-        <v>0.77</v>
+        <v>0.52</v>
       </c>
       <c r="T19" s="66">
-        <v>0.30</v>
+        <v>0.68</v>
       </c>
       <c t="inlineStr" r="U19">
         <is>
@@ -1728,104 +1728,98 @@
         </is>
       </c>
       <c r="V19" s="66">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="20">
       <c t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">hcqa8</t>
+          <t xml:space="preserve">gjop6</t>
         </is>
       </c>
       <c t="inlineStr" r="B20">
         <is>
-          <t xml:space="preserve">hcqa8</t>
+          <t xml:space="preserve">gjop6</t>
         </is>
       </c>
       <c r="C20" s="66">
-        <v>22.00</v>
+        <v>31.00</v>
       </c>
       <c t="inlineStr" r="D20">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E20">
         <is>
-          <t xml:space="preserve">High school</t>
+          <t xml:space="preserve">Graduate school (Master)</t>
         </is>
       </c>
       <c r="F20" s="66">
         <v>0.86</v>
       </c>
       <c r="G20" s="66">
+        <v>0.79</v>
+      </c>
+      <c r="H20" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="I20" s="66">
         <v>0.21</v>
       </c>
-      <c r="H20" s="66">
-        <v>0.96</v>
-      </c>
-      <c t="inlineStr" r="I20">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
       <c r="J20" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="K20" s="66">
+        <v>0.69</v>
+      </c>
+      <c r="L20" s="66">
+        <v>0.23</v>
+      </c>
+      <c r="M20" s="66">
+        <v>0.24</v>
+      </c>
+      <c r="N20" s="66">
+        <v>0.51</v>
+      </c>
+      <c r="O20" s="66">
+        <v>0.43</v>
+      </c>
+      <c r="P20" s="66">
+        <v>0.38</v>
+      </c>
+      <c r="Q20" s="66">
+        <v>0.11</v>
+      </c>
+      <c r="R20" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S20" s="66">
+        <v>0.85</v>
+      </c>
+      <c r="T20" s="66">
         <v>0.73</v>
       </c>
-      <c r="K20" s="66">
-        <v>0.32</v>
-      </c>
-      <c r="L20" s="66">
-        <v>0.82</v>
-      </c>
-      <c r="M20" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="N20" s="66">
-        <v>0.47</v>
-      </c>
-      <c r="O20" s="66">
-        <v>0.11</v>
-      </c>
-      <c r="P20" s="66">
-        <v>0.53</v>
-      </c>
-      <c t="inlineStr" r="Q20">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="R20" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="S20" s="66">
-        <v>0.23</v>
-      </c>
-      <c r="T20" s="66">
-        <v>1.13</v>
-      </c>
-      <c t="inlineStr" r="U20">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+      <c r="U20" s="66">
+        <v>0.21</v>
       </c>
       <c r="V20" s="66">
-        <v>1.36</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="21">
       <c t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">hnzm9</t>
+          <t xml:space="preserve">gxac7</t>
         </is>
       </c>
       <c t="inlineStr" r="B21">
         <is>
-          <t xml:space="preserve">hnzm9</t>
+          <t xml:space="preserve">gxac7</t>
         </is>
       </c>
       <c r="C21" s="66">
-        <v>23.00</v>
+        <v>22.00</v>
       </c>
       <c t="inlineStr" r="D21">
         <is>
@@ -1834,119 +1828,125 @@
       </c>
       <c t="inlineStr" r="E21">
         <is>
-          <t xml:space="preserve">Graduate school (Master)</t>
+          <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
       <c r="F21" s="66">
-        <v>1.00</v>
+        <v>0.86</v>
       </c>
       <c r="G21" s="66">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="H21" s="66">
+        <v>0.36</v>
+      </c>
+      <c t="inlineStr" r="I21">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J21" s="66">
+        <v>0.95</v>
+      </c>
+      <c r="K21" s="66">
+        <v>0.80</v>
+      </c>
+      <c r="L21" s="66">
+        <v>0.32</v>
+      </c>
+      <c r="M21" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N21" s="66">
+        <v>0.59</v>
+      </c>
+      <c r="O21" s="66">
+        <v>0.46</v>
+      </c>
+      <c r="P21" s="66">
         <v>0.18</v>
       </c>
-      <c r="I21" s="66">
-        <v>0.14</v>
-      </c>
-      <c r="J21" s="66">
-        <v>0.93</v>
-      </c>
-      <c r="K21" s="66">
-        <v>0.76</v>
-      </c>
-      <c r="L21" s="66">
-        <v>0.26</v>
-      </c>
-      <c r="M21" s="66">
-        <v>0.17</v>
-      </c>
-      <c r="N21" s="66">
-        <v>0.56</v>
-      </c>
-      <c r="O21" s="66">
-        <v>0.56</v>
-      </c>
-      <c r="P21" s="66">
-        <v>0.09</v>
-      </c>
-      <c r="Q21" s="66">
-        <v>0.07</v>
+      <c t="inlineStr" r="Q21">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="R21" s="66">
         <v>1.00</v>
       </c>
       <c r="S21" s="66">
-        <v>1.00</v>
+        <v>0.77</v>
       </c>
       <c r="T21" s="66">
-        <v>0.16</v>
-      </c>
-      <c r="U21" s="66">
-        <v>0.13</v>
+        <v>0.30</v>
+      </c>
+      <c t="inlineStr" r="U21">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="V21" s="66">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="22">
       <c t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">hymj4</t>
+          <t xml:space="preserve">hcqa8</t>
         </is>
       </c>
       <c t="inlineStr" r="B22">
         <is>
-          <t xml:space="preserve">hymj4</t>
+          <t xml:space="preserve">hcqa8</t>
         </is>
       </c>
       <c r="C22" s="66">
-        <v>23.00</v>
+        <v>22.00</v>
       </c>
       <c t="inlineStr" r="D22">
         <is>
-          <t xml:space="preserve">Female</t>
+          <t xml:space="preserve">Male</t>
         </is>
       </c>
       <c t="inlineStr" r="E22">
         <is>
-          <t xml:space="preserve">Graduate school (Master)</t>
+          <t xml:space="preserve">High school</t>
         </is>
       </c>
       <c r="F22" s="66">
-        <v>1.00</v>
+        <v>0.86</v>
       </c>
       <c r="G22" s="66">
+        <v>0.21</v>
+      </c>
+      <c r="H22" s="66">
+        <v>0.96</v>
+      </c>
+      <c t="inlineStr" r="I22">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J22" s="66">
+        <v>0.73</v>
+      </c>
+      <c r="K22" s="66">
+        <v>0.32</v>
+      </c>
+      <c r="L22" s="66">
         <v>0.82</v>
       </c>
-      <c r="H22" s="66">
-        <v>0.18</v>
-      </c>
-      <c t="inlineStr" r="I22">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="J22" s="66">
-        <v>0.91</v>
-      </c>
-      <c r="K22" s="66">
-        <v>0.74</v>
-      </c>
-      <c r="L22" s="66">
-        <v>0.28</v>
-      </c>
       <c r="M22" s="66">
         <v>0.50</v>
       </c>
       <c r="N22" s="66">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="O22" s="66">
-        <v>0.44</v>
+        <v>0.11</v>
       </c>
       <c r="P22" s="66">
-        <v>0.09</v>
+        <v>0.53</v>
       </c>
       <c t="inlineStr" r="Q22">
         <is>
@@ -1957,10 +1957,10 @@
         <v>1.00</v>
       </c>
       <c r="S22" s="66">
-        <v>0.80</v>
+        <v>0.23</v>
       </c>
       <c r="T22" s="66">
-        <v>0.16</v>
+        <v>1.13</v>
       </c>
       <c t="inlineStr" r="U22">
         <is>
@@ -1968,121 +1968,117 @@
         </is>
       </c>
       <c r="V22" s="66">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="23">
       <c t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">idyh6</t>
+          <t xml:space="preserve">hnzm9</t>
         </is>
       </c>
       <c t="inlineStr" r="B23">
         <is>
-          <t xml:space="preserve">idyh6</t>
+          <t xml:space="preserve">hnzm9</t>
         </is>
       </c>
       <c r="C23" s="66">
-        <v>25.00</v>
+        <v>23.00</v>
       </c>
       <c t="inlineStr" r="D23">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E23">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">Graduate school (Master)</t>
         </is>
       </c>
       <c r="F23" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G23" s="66">
         <v>0.93</v>
       </c>
-      <c r="G23" s="66">
-        <v>0.89</v>
-      </c>
       <c r="H23" s="66">
-        <v>0.29</v>
-      </c>
-      <c t="inlineStr" r="I23">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.18</v>
+      </c>
+      <c r="I23" s="66">
+        <v>0.14</v>
       </c>
       <c r="J23" s="66">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="K23" s="66">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="L23" s="66">
-        <v>0.30</v>
+        <v>0.26</v>
       </c>
       <c r="M23" s="66">
-        <v>0.50</v>
+        <v>0.17</v>
       </c>
       <c r="N23" s="66">
-        <v>0.69</v>
+        <v>0.56</v>
       </c>
       <c r="O23" s="66">
-        <v>0.64</v>
+        <v>0.56</v>
       </c>
       <c r="P23" s="66">
-        <v>0.14</v>
-      </c>
-      <c t="inlineStr" r="Q23">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.09</v>
+      </c>
+      <c r="Q23" s="66">
+        <v>0.07</v>
       </c>
       <c r="R23" s="66">
         <v>1.00</v>
       </c>
       <c r="S23" s="66">
-        <v>0.93</v>
+        <v>1.00</v>
       </c>
       <c r="T23" s="66">
-        <v>0.21</v>
-      </c>
-      <c t="inlineStr" r="U23">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.16</v>
+      </c>
+      <c r="U23" s="66">
+        <v>0.13</v>
       </c>
       <c r="V23" s="66">
-        <v>1.36</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="24">
       <c t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">jpxp4</t>
-        </is>
-      </c>
-      <c r="B24" s="66">
-        <v>0.00</v>
+          <t xml:space="preserve">hymj4</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B24">
+        <is>
+          <t xml:space="preserve">hymj4</t>
+        </is>
       </c>
       <c r="C24" s="66">
-        <v>35.00</v>
+        <v>23.00</v>
       </c>
       <c t="inlineStr" r="D24">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E24">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">Graduate school (Master)</t>
         </is>
       </c>
       <c r="F24" s="66">
-        <v>0.89</v>
+        <v>1.00</v>
       </c>
       <c r="G24" s="66">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
       <c r="H24" s="66">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c t="inlineStr" r="I24">
         <is>
@@ -2090,25 +2086,25 @@
         </is>
       </c>
       <c r="J24" s="66">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="K24" s="66">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="L24" s="66">
-        <v>0.60</v>
+        <v>0.28</v>
       </c>
       <c r="M24" s="66">
         <v>0.50</v>
       </c>
       <c r="N24" s="66">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="O24" s="66">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="P24" s="66">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c t="inlineStr" r="Q24">
         <is>
@@ -2119,10 +2115,10 @@
         <v>1.00</v>
       </c>
       <c r="S24" s="66">
-        <v>0.78</v>
+        <v>0.80</v>
       </c>
       <c r="T24" s="66">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c t="inlineStr" r="U24">
         <is>
@@ -2130,22 +2126,22 @@
         </is>
       </c>
       <c r="V24" s="66">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="25">
       <c t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">ksjo8</t>
+          <t xml:space="preserve">idyh6</t>
         </is>
       </c>
       <c t="inlineStr" r="B25">
         <is>
-          <t xml:space="preserve">ksjo8</t>
+          <t xml:space="preserve">idyh6</t>
         </is>
       </c>
       <c r="C25" s="66">
-        <v>31.00</v>
+        <v>25.00</v>
       </c>
       <c t="inlineStr" r="D25">
         <is>
@@ -2154,73 +2150,75 @@
       </c>
       <c t="inlineStr" r="E25">
         <is>
-          <t xml:space="preserve">Graduate school (Master)</t>
+          <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
       <c r="F25" s="66">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="G25" s="66">
         <v>0.89</v>
       </c>
       <c r="H25" s="66">
+        <v>0.29</v>
+      </c>
+      <c t="inlineStr" r="I25">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J25" s="66">
+        <v>0.98</v>
+      </c>
+      <c r="K25" s="66">
+        <v>0.72</v>
+      </c>
+      <c r="L25" s="66">
+        <v>0.30</v>
+      </c>
+      <c r="M25" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N25" s="66">
+        <v>0.69</v>
+      </c>
+      <c r="O25" s="66">
+        <v>0.64</v>
+      </c>
+      <c r="P25" s="66">
         <v>0.14</v>
       </c>
-      <c r="I25" s="66">
+      <c t="inlineStr" r="Q25">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R25" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S25" s="66">
+        <v>0.93</v>
+      </c>
+      <c r="T25" s="66">
         <v>0.21</v>
       </c>
-      <c r="J25" s="66">
-        <v>0.96</v>
-      </c>
-      <c r="K25" s="66">
-        <v>0.56</v>
-      </c>
-      <c t="inlineStr" r="L25">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="M25" s="66">
-        <v>0.31</v>
-      </c>
-      <c r="N25" s="66">
-        <v>0.52</v>
-      </c>
-      <c r="O25" s="66">
-        <v>0.54</v>
-      </c>
-      <c r="P25" s="66">
-        <v>0.07</v>
-      </c>
-      <c r="Q25" s="66">
-        <v>0.11</v>
-      </c>
-      <c r="R25" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="S25" s="66">
-        <v>1.04</v>
-      </c>
-      <c r="T25" s="66">
-        <v>0.14</v>
-      </c>
-      <c r="U25" s="66">
-        <v>0.20</v>
+      <c t="inlineStr" r="U25">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="V25" s="66">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="26">
       <c t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">kvrn1</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B26">
-        <is>
-          <t xml:space="preserve">kvrn1</t>
-        </is>
+          <t xml:space="preserve">jlos1</t>
+        </is>
+      </c>
+      <c r="B26" s="66">
+        <v>0.00</v>
       </c>
       <c r="C26" s="66">
         <v>23.00</v>
@@ -2239,7 +2237,7 @@
         <v>1.00</v>
       </c>
       <c r="G26" s="66">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c t="inlineStr" r="H26">
         <is>
@@ -2252,10 +2250,10 @@
         </is>
       </c>
       <c r="J26" s="66">
-        <v>0.96</v>
+        <v>0.57</v>
       </c>
       <c r="K26" s="66">
-        <v>0.74</v>
+        <v>0.52</v>
       </c>
       <c r="L26" s="66">
         <v>0.50</v>
@@ -2264,10 +2262,10 @@
         <v>0.50</v>
       </c>
       <c r="N26" s="66">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="O26" s="66">
-        <v>0.50</v>
+        <v>0.60</v>
       </c>
       <c t="inlineStr" r="P26">
         <is>
@@ -2283,7 +2281,7 @@
         <v>1.00</v>
       </c>
       <c r="S26" s="66">
-        <v>0.75</v>
+        <v>1.07</v>
       </c>
       <c t="inlineStr" r="T26">
         <is>
@@ -2296,26 +2294,24 @@
         </is>
       </c>
       <c r="V26" s="66">
-        <v>0.99</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="27">
       <c t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">ltsl3</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B27">
-        <is>
-          <t xml:space="preserve">ltsl3</t>
-        </is>
+          <t xml:space="preserve">jpxp4</t>
+        </is>
+      </c>
+      <c r="B27" s="66">
+        <v>0.00</v>
       </c>
       <c r="C27" s="66">
-        <v>28.00</v>
+        <v>35.00</v>
       </c>
       <c t="inlineStr" r="D27">
         <is>
-          <t xml:space="preserve">Female</t>
+          <t xml:space="preserve">Male</t>
         </is>
       </c>
       <c t="inlineStr" r="E27">
@@ -2324,15 +2320,13 @@
         </is>
       </c>
       <c r="F27" s="66">
-        <v>1.00</v>
+        <v>0.89</v>
       </c>
       <c r="G27" s="66">
-        <v>0.79</v>
-      </c>
-      <c t="inlineStr" r="H27">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.71</v>
+      </c>
+      <c r="H27" s="66">
+        <v>0.36</v>
       </c>
       <c t="inlineStr" r="I27">
         <is>
@@ -2340,27 +2334,25 @@
         </is>
       </c>
       <c r="J27" s="66">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="K27" s="66">
-        <v>0.66</v>
+        <v>0.82</v>
       </c>
       <c r="L27" s="66">
-        <v>0.50</v>
+        <v>0.60</v>
       </c>
       <c r="M27" s="66">
         <v>0.50</v>
       </c>
       <c r="N27" s="66">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="O27" s="66">
-        <v>0.46</v>
-      </c>
-      <c t="inlineStr" r="P27">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.41</v>
+      </c>
+      <c r="P27" s="66">
+        <v>0.18</v>
       </c>
       <c t="inlineStr" r="Q27">
         <is>
@@ -2371,12 +2363,10 @@
         <v>1.00</v>
       </c>
       <c r="S27" s="66">
-        <v>0.86</v>
-      </c>
-      <c t="inlineStr" r="T27">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.78</v>
+      </c>
+      <c r="T27" s="66">
+        <v>0.34</v>
       </c>
       <c t="inlineStr" r="U27">
         <is>
@@ -2384,22 +2374,20 @@
         </is>
       </c>
       <c r="V27" s="66">
-        <v>1.00</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="28">
       <c t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">monr7</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B28">
-        <is>
-          <t xml:space="preserve">monr7</t>
-        </is>
+          <t xml:space="preserve">kixs9</t>
+        </is>
+      </c>
+      <c r="B28" s="66">
+        <v>0.00</v>
       </c>
       <c r="C28" s="66">
-        <v>18.00</v>
+        <v>20.00</v>
       </c>
       <c t="inlineStr" r="D28">
         <is>
@@ -2408,17 +2396,17 @@
       </c>
       <c t="inlineStr" r="E28">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">High school</t>
         </is>
       </c>
       <c r="F28" s="66">
-        <v>0.32</v>
+        <v>0.96</v>
       </c>
       <c r="G28" s="66">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="H28" s="66">
-        <v>1.00</v>
+        <v>0.71</v>
       </c>
       <c t="inlineStr" r="I28">
         <is>
@@ -2426,25 +2414,25 @@
         </is>
       </c>
       <c r="J28" s="66">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="K28" s="66">
-        <v>0.50</v>
+        <v>0.55</v>
       </c>
       <c r="L28" s="66">
-        <v>0.50</v>
+        <v>0.27</v>
       </c>
       <c r="M28" s="66">
         <v>0.50</v>
       </c>
       <c r="N28" s="66">
-        <v>0.18</v>
+        <v>0.74</v>
       </c>
       <c r="O28" s="66">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
       <c r="P28" s="66">
-        <v>0.83</v>
+        <v>0.36</v>
       </c>
       <c t="inlineStr" r="Q28">
         <is>
@@ -2455,10 +2443,10 @@
         <v>1.00</v>
       </c>
       <c r="S28" s="66">
-        <v>3.01</v>
+        <v>0.59</v>
       </c>
       <c r="T28" s="66">
-        <v>4.70</v>
+        <v>0.48</v>
       </c>
       <c t="inlineStr" r="U28">
         <is>
@@ -2466,22 +2454,22 @@
         </is>
       </c>
       <c r="V28" s="66">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="29">
       <c t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">mrbf1</t>
+          <t xml:space="preserve">ksjo8</t>
         </is>
       </c>
       <c t="inlineStr" r="B29">
         <is>
-          <t xml:space="preserve">mrbf1</t>
+          <t xml:space="preserve">ksjo8</t>
         </is>
       </c>
       <c r="C29" s="66">
-        <v>21.00</v>
+        <v>31.00</v>
       </c>
       <c t="inlineStr" r="D29">
         <is>
@@ -2490,70 +2478,72 @@
       </c>
       <c t="inlineStr" r="E29">
         <is>
-          <t xml:space="preserve">High school</t>
+          <t xml:space="preserve">Graduate school (Master)</t>
         </is>
       </c>
       <c r="F29" s="66">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="G29" s="66">
-        <v>0.43</v>
+        <v>0.89</v>
       </c>
       <c r="H29" s="66">
-        <v>0.50</v>
+        <v>0.14</v>
       </c>
       <c r="I29" s="66">
-        <v>0.86</v>
+        <v>0.21</v>
       </c>
       <c r="J29" s="66">
-        <v>0.90</v>
+        <v>0.96</v>
       </c>
       <c r="K29" s="66">
-        <v>0.21</v>
-      </c>
-      <c r="L29" s="66">
-        <v>0.17</v>
+        <v>0.56</v>
+      </c>
+      <c t="inlineStr" r="L29">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="M29" s="66">
-        <v>0.48</v>
+        <v>0.31</v>
       </c>
       <c r="N29" s="66">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="O29" s="66">
-        <v>0.21</v>
+        <v>0.54</v>
       </c>
       <c r="P29" s="66">
-        <v>0.25</v>
+        <v>0.07</v>
       </c>
       <c r="Q29" s="66">
-        <v>0.52</v>
+        <v>0.11</v>
       </c>
       <c r="R29" s="66">
         <v>1.00</v>
       </c>
       <c r="S29" s="66">
-        <v>0.42</v>
+        <v>1.04</v>
       </c>
       <c r="T29" s="66">
-        <v>0.49</v>
+        <v>0.14</v>
       </c>
       <c r="U29" s="66">
-        <v>1.01</v>
+        <v>0.20</v>
       </c>
       <c r="V29" s="66">
-        <v>1.89</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="30">
       <c t="inlineStr" r="A30">
         <is>
-          <t xml:space="preserve">noyy6</t>
+          <t xml:space="preserve">kvrn1</t>
         </is>
       </c>
       <c t="inlineStr" r="B30">
         <is>
-          <t xml:space="preserve">noyy6</t>
+          <t xml:space="preserve">kvrn1</t>
         </is>
       </c>
       <c r="C30" s="66">
@@ -2566,30 +2556,30 @@
       </c>
       <c t="inlineStr" r="E30">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">High school</t>
         </is>
       </c>
       <c r="F30" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G30" s="66">
+        <v>0.93</v>
+      </c>
+      <c t="inlineStr" r="H30">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I30">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J30" s="66">
         <v>0.96</v>
       </c>
-      <c r="G30" s="66">
-        <v>0.86</v>
-      </c>
-      <c t="inlineStr" r="H30">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I30">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="J30" s="66">
-        <v>0.93</v>
-      </c>
       <c r="K30" s="66">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="L30" s="66">
         <v>0.50</v>
@@ -2598,10 +2588,10 @@
         <v>0.50</v>
       </c>
       <c r="N30" s="66">
-        <v>0.60</v>
+        <v>0.67</v>
       </c>
       <c r="O30" s="66">
-        <v>0.46</v>
+        <v>0.50</v>
       </c>
       <c t="inlineStr" r="P30">
         <is>
@@ -2617,7 +2607,7 @@
         <v>1.00</v>
       </c>
       <c r="S30" s="66">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c t="inlineStr" r="T30">
         <is>
@@ -2636,35 +2626,35 @@
     <row r="31">
       <c t="inlineStr" r="A31">
         <is>
-          <t xml:space="preserve">plco6</t>
+          <t xml:space="preserve">kwly7</t>
         </is>
       </c>
       <c t="inlineStr" r="B31">
         <is>
-          <t xml:space="preserve">plco6</t>
+          <t xml:space="preserve">kwly7</t>
         </is>
       </c>
       <c r="C31" s="66">
-        <v>24.00</v>
+        <v>26.00</v>
       </c>
       <c t="inlineStr" r="D31">
         <is>
-          <t xml:space="preserve">Female</t>
+          <t xml:space="preserve">Male</t>
         </is>
       </c>
       <c t="inlineStr" r="E31">
         <is>
-          <t xml:space="preserve">Graduate school (Master)</t>
+          <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
       <c r="F31" s="66">
-        <v>1.00</v>
+        <v>0.57</v>
       </c>
       <c r="G31" s="66">
-        <v>0.86</v>
+        <v>0.14</v>
       </c>
       <c r="H31" s="66">
-        <v>0.50</v>
+        <v>1.00</v>
       </c>
       <c t="inlineStr" r="I31">
         <is>
@@ -2672,25 +2662,25 @@
         </is>
       </c>
       <c r="J31" s="66">
-        <v>0.90</v>
+        <v>0.92</v>
       </c>
       <c r="K31" s="66">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
       <c r="L31" s="66">
-        <v>0.96</v>
+        <v>0.80</v>
       </c>
       <c r="M31" s="66">
         <v>0.50</v>
       </c>
       <c r="N31" s="66">
-        <v>0.75</v>
+        <v>0.32</v>
       </c>
       <c r="O31" s="66">
-        <v>0.58</v>
+        <v>0.07</v>
       </c>
       <c r="P31" s="66">
-        <v>0.26</v>
+        <v>0.72</v>
       </c>
       <c t="inlineStr" r="Q31">
         <is>
@@ -2701,10 +2691,10 @@
         <v>1.00</v>
       </c>
       <c r="S31" s="66">
-        <v>0.77</v>
+        <v>0.23</v>
       </c>
       <c r="T31" s="66">
-        <v>0.34</v>
+        <v>2.27</v>
       </c>
       <c t="inlineStr" r="U31">
         <is>
@@ -2712,20 +2702,22 @@
         </is>
       </c>
       <c r="V31" s="66">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="32">
       <c t="inlineStr" r="A32">
         <is>
-          <t xml:space="preserve">pson3</t>
-        </is>
-      </c>
-      <c r="B32" s="66">
-        <v>0.00</v>
+          <t xml:space="preserve">ltsl3</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B32">
+        <is>
+          <t xml:space="preserve">ltsl3</t>
+        </is>
       </c>
       <c r="C32" s="66">
-        <v>30.00</v>
+        <v>28.00</v>
       </c>
       <c t="inlineStr" r="D32">
         <is>
@@ -2738,26 +2730,26 @@
         </is>
       </c>
       <c r="F32" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G32" s="66">
         <v>0.79</v>
       </c>
-      <c r="G32" s="66">
+      <c t="inlineStr" r="H32">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I32">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J32" s="66">
         <v>0.71</v>
       </c>
-      <c t="inlineStr" r="H32">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I32">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="J32" s="66">
-        <v>0.95</v>
-      </c>
       <c r="K32" s="66">
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
       <c r="L32" s="66">
         <v>0.50</v>
@@ -2766,10 +2758,10 @@
         <v>0.50</v>
       </c>
       <c r="N32" s="66">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="O32" s="66">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c t="inlineStr" r="P32">
         <is>
@@ -2785,7 +2777,7 @@
         <v>1.00</v>
       </c>
       <c r="S32" s="66">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c t="inlineStr" r="T32">
         <is>
@@ -2804,16 +2796,16 @@
     <row r="33">
       <c t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">qdvg4</t>
+          <t xml:space="preserve">monr7</t>
         </is>
       </c>
       <c t="inlineStr" r="B33">
         <is>
-          <t xml:space="preserve">Qdvg4</t>
+          <t xml:space="preserve">monr7</t>
         </is>
       </c>
       <c r="C33" s="66">
-        <v>20.00</v>
+        <v>18.00</v>
       </c>
       <c t="inlineStr" r="D33">
         <is>
@@ -2822,17 +2814,17 @@
       </c>
       <c t="inlineStr" r="E33">
         <is>
-          <t xml:space="preserve">Other</t>
+          <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
       <c r="F33" s="66">
+        <v>0.32</v>
+      </c>
+      <c r="G33" s="66">
         <v>0.86</v>
       </c>
-      <c r="G33" s="66">
-        <v>0.71</v>
-      </c>
       <c r="H33" s="66">
-        <v>0.36</v>
+        <v>1.00</v>
       </c>
       <c t="inlineStr" r="I33">
         <is>
@@ -2840,10 +2832,10 @@
         </is>
       </c>
       <c r="J33" s="66">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="K33" s="66">
-        <v>0.89</v>
+        <v>0.50</v>
       </c>
       <c r="L33" s="66">
         <v>0.50</v>
@@ -2852,13 +2844,13 @@
         <v>0.50</v>
       </c>
       <c r="N33" s="66">
-        <v>0.58</v>
+        <v>0.18</v>
       </c>
       <c r="O33" s="66">
-        <v>0.41</v>
+        <v>0.53</v>
       </c>
       <c r="P33" s="66">
-        <v>0.18</v>
+        <v>0.83</v>
       </c>
       <c t="inlineStr" r="Q33">
         <is>
@@ -2869,10 +2861,10 @@
         <v>1.00</v>
       </c>
       <c r="S33" s="66">
-        <v>0.70</v>
+        <v>3.01</v>
       </c>
       <c r="T33" s="66">
-        <v>0.31</v>
+        <v>4.70</v>
       </c>
       <c t="inlineStr" r="U33">
         <is>
@@ -2880,18 +2872,18 @@
         </is>
       </c>
       <c r="V33" s="66">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="34">
       <c t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">qgsl9</t>
+          <t xml:space="preserve">mrbf1</t>
         </is>
       </c>
       <c t="inlineStr" r="B34">
         <is>
-          <t xml:space="preserve">qgsl9</t>
+          <t xml:space="preserve">mrbf1</t>
         </is>
       </c>
       <c r="C34" s="66">
@@ -2899,85 +2891,79 @@
       </c>
       <c t="inlineStr" r="D34">
         <is>
-          <t xml:space="preserve">Female</t>
+          <t xml:space="preserve">Male</t>
         </is>
       </c>
       <c t="inlineStr" r="E34">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">High school</t>
         </is>
       </c>
       <c r="F34" s="66">
-        <v>1.00</v>
+        <v>0.82</v>
       </c>
       <c r="G34" s="66">
-        <v>1.00</v>
+        <v>0.43</v>
       </c>
       <c r="H34" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="I34" s="66">
+        <v>0.86</v>
+      </c>
+      <c r="J34" s="66">
+        <v>0.90</v>
+      </c>
+      <c r="K34" s="66">
         <v>0.21</v>
       </c>
-      <c t="inlineStr" r="I34">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="J34" s="66">
-        <v>0.92</v>
-      </c>
-      <c r="K34" s="66">
-        <v>0.57</v>
-      </c>
       <c r="L34" s="66">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="M34" s="66">
-        <v>0.50</v>
+        <v>0.48</v>
       </c>
       <c r="N34" s="66">
-        <v>0.76</v>
+        <v>0.51</v>
       </c>
       <c r="O34" s="66">
-        <v>0.54</v>
+        <v>0.21</v>
       </c>
       <c r="P34" s="66">
-        <v>0.11</v>
-      </c>
-      <c t="inlineStr" r="Q34">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.25</v>
+      </c>
+      <c r="Q34" s="66">
+        <v>0.52</v>
       </c>
       <c r="R34" s="66">
         <v>1.00</v>
       </c>
       <c r="S34" s="66">
-        <v>0.71</v>
+        <v>0.42</v>
       </c>
       <c r="T34" s="66">
-        <v>0.14</v>
-      </c>
-      <c t="inlineStr" r="U34">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.49</v>
+      </c>
+      <c r="U34" s="66">
+        <v>1.01</v>
       </c>
       <c r="V34" s="66">
-        <v>1.29</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="35">
       <c t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">qlhb2</t>
+          <t xml:space="preserve">mtjw7</t>
         </is>
       </c>
       <c t="inlineStr" r="B35">
         <is>
-          <t xml:space="preserve">qlhb2</t>
+          <t xml:space="preserve">mtjw7</t>
         </is>
       </c>
       <c r="C35" s="66">
-        <v>22.00</v>
+        <v>27.00</v>
       </c>
       <c t="inlineStr" r="D35">
         <is>
@@ -2986,123 +2972,125 @@
       </c>
       <c t="inlineStr" r="E35">
         <is>
-          <t xml:space="preserve">Graduate school (Master)</t>
+          <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
       <c r="F35" s="66">
         <v>1.00</v>
       </c>
       <c r="G35" s="66">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="H35" s="66">
-        <v>0.39</v>
-      </c>
-      <c r="I35" s="66">
-        <v>0.14</v>
+        <v>0.21</v>
+      </c>
+      <c t="inlineStr" r="I35">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="J35" s="66">
-        <v>0.50</v>
+        <v>0.95</v>
       </c>
       <c r="K35" s="66">
-        <v>0.47</v>
+        <v>0.80</v>
       </c>
       <c r="L35" s="66">
-        <v>0.50</v>
+        <v>0.37</v>
       </c>
       <c r="M35" s="66">
         <v>0.50</v>
       </c>
       <c r="N35" s="66">
-        <v>0.66</v>
+        <v>0.56</v>
       </c>
       <c r="O35" s="66">
-        <v>0.44</v>
+        <v>0.54</v>
       </c>
       <c r="P35" s="66">
-        <v>0.20</v>
-      </c>
-      <c r="Q35" s="66">
-        <v>0.07</v>
+        <v>0.11</v>
+      </c>
+      <c t="inlineStr" r="Q35">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="R35" s="66">
         <v>1.00</v>
       </c>
       <c r="S35" s="66">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="T35" s="66">
-        <v>0.30</v>
-      </c>
-      <c r="U35" s="66">
-        <v>0.11</v>
+        <v>0.19</v>
+      </c>
+      <c t="inlineStr" r="U35">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="V35" s="66">
-        <v>1.66</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="36">
       <c t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">rlgy8</t>
+          <t xml:space="preserve">mvse0</t>
         </is>
       </c>
       <c t="inlineStr" r="B36">
         <is>
-          <t xml:space="preserve">rlgy8</t>
+          <t xml:space="preserve">mvse0</t>
         </is>
       </c>
       <c r="C36" s="66">
-        <v>39.00</v>
+        <v>25.00</v>
       </c>
       <c t="inlineStr" r="D36">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E36">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">High school</t>
         </is>
       </c>
       <c r="F36" s="66">
+        <v>0.86</v>
+      </c>
+      <c r="G36" s="66">
         <v>0.96</v>
       </c>
-      <c r="G36" s="66">
+      <c r="H36" s="66">
+        <v>0.93</v>
+      </c>
+      <c t="inlineStr" r="I36">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J36" s="66">
+        <v>0.93</v>
+      </c>
+      <c r="K36" s="66">
         <v>0.82</v>
       </c>
-      <c t="inlineStr" r="H36">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I36">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="J36" s="66">
-        <v>0.95</v>
-      </c>
-      <c r="K36" s="66">
-        <v>0.79</v>
-      </c>
       <c r="L36" s="66">
-        <v>0.48</v>
+        <v>0.68</v>
       </c>
       <c r="M36" s="66">
         <v>0.50</v>
       </c>
       <c r="N36" s="66">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="O36" s="66">
-        <v>0.45</v>
-      </c>
-      <c t="inlineStr" r="P36">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.53</v>
+      </c>
+      <c r="P36" s="66">
+        <v>0.60</v>
       </c>
       <c t="inlineStr" r="Q36">
         <is>
@@ -3113,12 +3101,10 @@
         <v>1.00</v>
       </c>
       <c r="S36" s="66">
-        <v>0.84</v>
-      </c>
-      <c t="inlineStr" r="T36">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.90</v>
+      </c>
+      <c r="T36" s="66">
+        <v>1.02</v>
       </c>
       <c t="inlineStr" r="U36">
         <is>
@@ -3126,26 +3112,26 @@
         </is>
       </c>
       <c r="V36" s="66">
-        <v>0.99</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="37">
       <c t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">rnkr7</t>
+          <t xml:space="preserve">noyy6</t>
         </is>
       </c>
       <c t="inlineStr" r="B37">
         <is>
-          <t xml:space="preserve">rnkr7</t>
+          <t xml:space="preserve">noyy6</t>
         </is>
       </c>
       <c r="C37" s="66">
-        <v>25.00</v>
+        <v>23.00</v>
       </c>
       <c t="inlineStr" r="D37">
         <is>
-          <t xml:space="preserve">Non-relevant</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E37">
@@ -3154,13 +3140,15 @@
         </is>
       </c>
       <c r="F37" s="66">
-        <v>1.00</v>
+        <v>0.96</v>
       </c>
       <c r="G37" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="H37" s="66">
-        <v>0.29</v>
+        <v>0.86</v>
+      </c>
+      <c t="inlineStr" r="H37">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="I37">
         <is>
@@ -3168,25 +3156,27 @@
         </is>
       </c>
       <c r="J37" s="66">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="K37" s="66">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="L37" s="66">
-        <v>0.34</v>
+        <v>0.50</v>
       </c>
       <c r="M37" s="66">
         <v>0.50</v>
       </c>
       <c r="N37" s="66">
-        <v>0.62</v>
+        <v>0.60</v>
       </c>
       <c r="O37" s="66">
-        <v>0.67</v>
-      </c>
-      <c r="P37" s="66">
-        <v>0.15</v>
+        <v>0.46</v>
+      </c>
+      <c t="inlineStr" r="P37">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="Q37">
         <is>
@@ -3197,10 +3187,12 @@
         <v>1.00</v>
       </c>
       <c r="S37" s="66">
-        <v>1.09</v>
-      </c>
-      <c r="T37" s="66">
-        <v>0.24</v>
+        <v>0.77</v>
+      </c>
+      <c t="inlineStr" r="T37">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="U37">
         <is>
@@ -3208,24 +3200,26 @@
         </is>
       </c>
       <c r="V37" s="66">
-        <v>1.38</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="38">
       <c t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">rqed8</t>
-        </is>
-      </c>
-      <c r="B38" s="66">
-        <v>0.00</v>
+          <t xml:space="preserve">plco6</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B38">
+        <is>
+          <t xml:space="preserve">plco6</t>
+        </is>
       </c>
       <c r="C38" s="66">
-        <v>22.00</v>
+        <v>24.00</v>
       </c>
       <c t="inlineStr" r="D38">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E38">
@@ -3240,62 +3234,68 @@
         <v>0.86</v>
       </c>
       <c r="H38" s="66">
-        <v>0.39</v>
-      </c>
-      <c r="I38" s="66">
-        <v>0.25</v>
+        <v>0.50</v>
+      </c>
+      <c t="inlineStr" r="I38">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="J38" s="66">
-        <v>0.81</v>
+        <v>0.90</v>
       </c>
       <c r="K38" s="66">
-        <v>0.50</v>
+        <v>0.75</v>
       </c>
       <c r="L38" s="66">
-        <v>0.25</v>
+        <v>0.96</v>
       </c>
       <c r="M38" s="66">
-        <v>0.06</v>
+        <v>0.50</v>
       </c>
       <c r="N38" s="66">
-        <v>0.69</v>
+        <v>0.75</v>
       </c>
       <c r="O38" s="66">
-        <v>0.46</v>
+        <v>0.58</v>
       </c>
       <c r="P38" s="66">
-        <v>0.20</v>
-      </c>
-      <c r="Q38" s="66">
-        <v>0.12</v>
+        <v>0.26</v>
+      </c>
+      <c t="inlineStr" r="Q38">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="R38" s="66">
         <v>1.00</v>
       </c>
       <c r="S38" s="66">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="T38" s="66">
-        <v>0.29</v>
-      </c>
-      <c r="U38" s="66">
-        <v>0.18</v>
+        <v>0.34</v>
+      </c>
+      <c t="inlineStr" r="U38">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="V38" s="66">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="39">
       <c t="inlineStr" r="A39">
         <is>
-          <t xml:space="preserve">rvax5</t>
+          <t xml:space="preserve">pson3</t>
         </is>
       </c>
       <c r="B39" s="66">
         <v>0.00</v>
       </c>
       <c r="C39" s="66">
-        <v>26.00</v>
+        <v>30.00</v>
       </c>
       <c t="inlineStr" r="D39">
         <is>
@@ -3304,17 +3304,19 @@
       </c>
       <c t="inlineStr" r="E39">
         <is>
-          <t xml:space="preserve">Graduate school (Master)</t>
+          <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
       <c r="F39" s="66">
-        <v>1.00</v>
+        <v>0.79</v>
       </c>
       <c r="G39" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="H39" s="66">
-        <v>0.36</v>
+        <v>0.71</v>
+      </c>
+      <c t="inlineStr" r="H39">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="I39">
         <is>
@@ -3325,22 +3327,24 @@
         <v>0.95</v>
       </c>
       <c r="K39" s="66">
-        <v>0.76</v>
+        <v>0.69</v>
       </c>
       <c r="L39" s="66">
-        <v>0.04</v>
+        <v>0.50</v>
       </c>
       <c r="M39" s="66">
         <v>0.50</v>
       </c>
       <c r="N39" s="66">
-        <v>0.56</v>
+        <v>0.49</v>
       </c>
       <c r="O39" s="66">
-        <v>0.62</v>
-      </c>
-      <c r="P39" s="66">
-        <v>0.18</v>
+        <v>0.44</v>
+      </c>
+      <c t="inlineStr" r="P39">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="Q39">
         <is>
@@ -3351,10 +3355,12 @@
         <v>1.00</v>
       </c>
       <c r="S39" s="66">
-        <v>1.10</v>
-      </c>
-      <c r="T39" s="66">
-        <v>0.32</v>
+        <v>0.89</v>
+      </c>
+      <c t="inlineStr" r="T39">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="U39">
         <is>
@@ -3362,43 +3368,41 @@
         </is>
       </c>
       <c r="V39" s="66">
-        <v>1.43</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="40">
       <c t="inlineStr" r="A40">
         <is>
-          <t xml:space="preserve">swbd5</t>
+          <t xml:space="preserve">pwck3</t>
         </is>
       </c>
       <c t="inlineStr" r="B40">
         <is>
-          <t xml:space="preserve">swbd5</t>
+          <t xml:space="preserve">pwck3</t>
         </is>
       </c>
       <c r="C40" s="66">
-        <v>20.00</v>
+        <v>19.00</v>
       </c>
       <c t="inlineStr" r="D40">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E40">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">High school</t>
         </is>
       </c>
       <c r="F40" s="66">
         <v>1.00</v>
       </c>
       <c r="G40" s="66">
-        <v>0.96</v>
-      </c>
-      <c t="inlineStr" r="H40">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.86</v>
+      </c>
+      <c r="H40" s="66">
+        <v>0.29</v>
       </c>
       <c t="inlineStr" r="I40">
         <is>
@@ -3406,7 +3410,7 @@
         </is>
       </c>
       <c r="J40" s="66">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="K40" s="66">
         <v>0.50</v>
@@ -3418,15 +3422,13 @@
         <v>0.50</v>
       </c>
       <c r="N40" s="66">
-        <v>0.58</v>
+        <v>0.70</v>
       </c>
       <c r="O40" s="66">
-        <v>0.57</v>
-      </c>
-      <c t="inlineStr" r="P40">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.46</v>
+      </c>
+      <c r="P40" s="66">
+        <v>0.14</v>
       </c>
       <c t="inlineStr" r="Q40">
         <is>
@@ -3437,12 +3439,10 @@
         <v>1.00</v>
       </c>
       <c r="S40" s="66">
-        <v>0.98</v>
-      </c>
-      <c t="inlineStr" r="T40">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.67</v>
+      </c>
+      <c r="T40" s="66">
+        <v>0.21</v>
       </c>
       <c t="inlineStr" r="U40">
         <is>
@@ -3450,22 +3450,22 @@
         </is>
       </c>
       <c r="V40" s="66">
-        <v>1.00</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="41">
       <c t="inlineStr" r="A41">
         <is>
-          <t xml:space="preserve">txeg9</t>
+          <t xml:space="preserve">qdvg4</t>
         </is>
       </c>
       <c t="inlineStr" r="B41">
         <is>
-          <t xml:space="preserve">txeg9</t>
+          <t xml:space="preserve">Qdvg4</t>
         </is>
       </c>
       <c r="C41" s="66">
-        <v>18.00</v>
+        <v>20.00</v>
       </c>
       <c t="inlineStr" r="D41">
         <is>
@@ -3474,21 +3474,17 @@
       </c>
       <c t="inlineStr" r="E41">
         <is>
-          <t xml:space="preserve">High school</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="F41">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="G41">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+          <t xml:space="preserve">Other</t>
+        </is>
+      </c>
+      <c r="F41" s="66">
+        <v>0.86</v>
+      </c>
+      <c r="G41" s="66">
+        <v>0.71</v>
       </c>
       <c r="H41" s="66">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c t="inlineStr" r="I41">
         <is>
@@ -3496,29 +3492,25 @@
         </is>
       </c>
       <c r="J41" s="66">
+        <v>0.93</v>
+      </c>
+      <c r="K41" s="66">
+        <v>0.89</v>
+      </c>
+      <c r="L41" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M41" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N41" s="66">
         <v>0.58</v>
       </c>
-      <c r="K41" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="L41" s="66">
-        <v>0.28</v>
-      </c>
-      <c r="M41" s="66">
-        <v>0.50</v>
-      </c>
-      <c t="inlineStr" r="N41">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="O41">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+      <c r="O41" s="66">
+        <v>0.41</v>
       </c>
       <c r="P41" s="66">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c t="inlineStr" r="Q41">
         <is>
@@ -3528,15 +3520,11 @@
       <c r="R41" s="66">
         <v>1.00</v>
       </c>
-      <c t="inlineStr" r="S41">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="T41">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+      <c r="S41" s="66">
+        <v>0.70</v>
+      </c>
+      <c r="T41" s="66">
+        <v>0.31</v>
       </c>
       <c t="inlineStr" r="U41">
         <is>
@@ -3544,22 +3532,22 @@
         </is>
       </c>
       <c r="V41" s="66">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="42">
       <c t="inlineStr" r="A42">
         <is>
-          <t xml:space="preserve">ugqo0</t>
+          <t xml:space="preserve">qgsl9</t>
         </is>
       </c>
       <c t="inlineStr" r="B42">
         <is>
-          <t xml:space="preserve">ugqo0</t>
+          <t xml:space="preserve">qgsl9</t>
         </is>
       </c>
       <c r="C42" s="66">
-        <v>24.00</v>
+        <v>21.00</v>
       </c>
       <c t="inlineStr" r="D42">
         <is>
@@ -3568,86 +3556,80 @@
       </c>
       <c t="inlineStr" r="E42">
         <is>
-          <t xml:space="preserve">High school</t>
+          <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
       <c r="F42" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G42" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="H42" s="66">
+        <v>0.21</v>
+      </c>
+      <c t="inlineStr" r="I42">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J42" s="66">
+        <v>0.92</v>
+      </c>
+      <c r="K42" s="66">
+        <v>0.57</v>
+      </c>
+      <c r="L42" s="66">
+        <v>0.31</v>
+      </c>
+      <c r="M42" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N42" s="66">
+        <v>0.76</v>
+      </c>
+      <c r="O42" s="66">
+        <v>0.54</v>
+      </c>
+      <c r="P42" s="66">
+        <v>0.11</v>
+      </c>
+      <c t="inlineStr" r="Q42">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R42" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S42" s="66">
+        <v>0.71</v>
+      </c>
+      <c r="T42" s="66">
         <v>0.14</v>
       </c>
-      <c r="G42" s="66">
-        <v>1.00</v>
-      </c>
-      <c t="inlineStr" r="H42">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I42">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="J42" s="66">
-        <v>0.54</v>
-      </c>
-      <c r="K42" s="66">
-        <v>0.55</v>
-      </c>
-      <c r="L42" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="M42" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="N42" s="66">
-        <v>0.07</v>
-      </c>
-      <c r="O42" s="66">
-        <v>0.63</v>
-      </c>
-      <c t="inlineStr" r="P42">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="Q42">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="R42" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="S42" s="66">
-        <v>8.80</v>
-      </c>
-      <c t="inlineStr" r="T42">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
       <c t="inlineStr" r="U42">
         <is>
           <t xml:space="preserve">N/A</t>
         </is>
       </c>
       <c r="V42" s="66">
-        <v>0.48</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="43">
       <c t="inlineStr" r="A43">
         <is>
-          <t xml:space="preserve">uicn9</t>
+          <t xml:space="preserve">qlhb2</t>
         </is>
       </c>
       <c t="inlineStr" r="B43">
         <is>
-          <t xml:space="preserve">uicn9</t>
+          <t xml:space="preserve">qlhb2</t>
         </is>
       </c>
       <c r="C43" s="66">
-        <v>23.00</v>
+        <v>22.00</v>
       </c>
       <c t="inlineStr" r="D43">
         <is>
@@ -3656,158 +3638,166 @@
       </c>
       <c t="inlineStr" r="E43">
         <is>
-          <t xml:space="preserve">N/A</t>
+          <t xml:space="preserve">Graduate school (Master)</t>
         </is>
       </c>
       <c r="F43" s="66">
         <v>1.00</v>
       </c>
       <c r="G43" s="66">
-        <v>1.00</v>
+        <v>0.75</v>
       </c>
       <c r="H43" s="66">
-        <v>0.32</v>
-      </c>
-      <c t="inlineStr" r="I43">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.39</v>
+      </c>
+      <c r="I43" s="66">
+        <v>0.14</v>
       </c>
       <c r="J43" s="66">
-        <v>0.92</v>
+        <v>0.50</v>
       </c>
       <c r="K43" s="66">
-        <v>0.72</v>
+        <v>0.47</v>
       </c>
       <c r="L43" s="66">
-        <v>0.17</v>
+        <v>0.50</v>
       </c>
       <c r="M43" s="66">
         <v>0.50</v>
       </c>
       <c r="N43" s="66">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="O43" s="66">
-        <v>0.59</v>
+        <v>0.44</v>
       </c>
       <c r="P43" s="66">
-        <v>0.16</v>
-      </c>
-      <c t="inlineStr" r="Q43">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.20</v>
+      </c>
+      <c r="Q43" s="66">
+        <v>0.07</v>
       </c>
       <c r="R43" s="66">
         <v>1.00</v>
       </c>
       <c r="S43" s="66">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="T43" s="66">
-        <v>0.25</v>
-      </c>
-      <c t="inlineStr" r="U43">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.30</v>
+      </c>
+      <c r="U43" s="66">
+        <v>0.11</v>
       </c>
       <c r="V43" s="66">
-        <v>1.40</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="44">
       <c t="inlineStr" r="A44">
         <is>
-          <t xml:space="preserve">usjs8</t>
+          <t xml:space="preserve">rlgy8</t>
         </is>
       </c>
       <c t="inlineStr" r="B44">
         <is>
-          <t xml:space="preserve">usjs8</t>
+          <t xml:space="preserve">rlgy8</t>
         </is>
       </c>
       <c r="C44" s="66">
-        <v>24.00</v>
+        <v>39.00</v>
       </c>
       <c t="inlineStr" r="D44">
         <is>
-          <t xml:space="preserve">Female</t>
+          <t xml:space="preserve">Male</t>
         </is>
       </c>
       <c t="inlineStr" r="E44">
         <is>
-          <t xml:space="preserve">High school</t>
+          <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
       <c r="F44" s="66">
         <v>0.96</v>
       </c>
       <c r="G44" s="66">
-        <v>0.89</v>
-      </c>
-      <c r="H44" s="66">
-        <v>0.57</v>
-      </c>
-      <c r="I44" s="66">
-        <v>0.18</v>
+        <v>0.82</v>
+      </c>
+      <c t="inlineStr" r="H44">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I44">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="J44" s="66">
-        <v>0.56</v>
+        <v>0.95</v>
       </c>
       <c r="K44" s="66">
-        <v>0.51</v>
+        <v>0.79</v>
       </c>
       <c r="L44" s="66">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="M44" s="66">
-        <v>0.51</v>
+        <v>0.50</v>
       </c>
       <c r="N44" s="66">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="O44" s="66">
-        <v>0.55</v>
-      </c>
-      <c r="P44" s="66">
-        <v>0.30</v>
-      </c>
-      <c r="Q44" s="66">
-        <v>0.09</v>
+        <v>0.45</v>
+      </c>
+      <c t="inlineStr" r="P44">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q44">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="R44" s="66">
         <v>1.00</v>
       </c>
       <c r="S44" s="66">
-        <v>1.12</v>
-      </c>
-      <c r="T44" s="66">
-        <v>0.62</v>
-      </c>
-      <c r="U44" s="66">
-        <v>0.18</v>
+        <v>0.84</v>
+      </c>
+      <c t="inlineStr" r="T44">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U44">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="V44" s="66">
-        <v>1.78</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="45">
       <c t="inlineStr" r="A45">
         <is>
-          <t xml:space="preserve">uyxx3</t>
-        </is>
-      </c>
-      <c r="B45" s="66">
-        <v>0.00</v>
+          <t xml:space="preserve">rnkr7</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B45">
+        <is>
+          <t xml:space="preserve">rnkr7</t>
+        </is>
       </c>
       <c r="C45" s="66">
-        <v>26.00</v>
+        <v>25.00</v>
       </c>
       <c t="inlineStr" r="D45">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Non-relevant</t>
         </is>
       </c>
       <c t="inlineStr" r="E45">
@@ -3822,7 +3812,7 @@
         <v>1.00</v>
       </c>
       <c r="H45" s="66">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
       <c t="inlineStr" r="I45">
         <is>
@@ -3830,25 +3820,25 @@
         </is>
       </c>
       <c r="J45" s="66">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="K45" s="66">
-        <v>0.77</v>
+        <v>0.68</v>
       </c>
       <c r="L45" s="66">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="M45" s="66">
         <v>0.50</v>
       </c>
       <c r="N45" s="66">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="O45" s="66">
-        <v>0.59</v>
+        <v>0.67</v>
       </c>
       <c r="P45" s="66">
-        <v>0.07</v>
+        <v>0.15</v>
       </c>
       <c t="inlineStr" r="Q45">
         <is>
@@ -3859,10 +3849,10 @@
         <v>1.00</v>
       </c>
       <c r="S45" s="66">
-        <v>0.92</v>
+        <v>1.09</v>
       </c>
       <c r="T45" s="66">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c t="inlineStr" r="U45">
         <is>
@@ -3870,107 +3860,111 @@
         </is>
       </c>
       <c r="V45" s="66">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="46">
       <c t="inlineStr" r="A46">
         <is>
-          <t xml:space="preserve">wjob1</t>
+          <t xml:space="preserve">rodf4</t>
         </is>
       </c>
       <c t="inlineStr" r="B46">
         <is>
-          <t xml:space="preserve">wjob1</t>
+          <t xml:space="preserve">rodf4</t>
         </is>
       </c>
       <c r="C46" s="66">
-        <v>44.00</v>
+        <v>21.00</v>
       </c>
       <c t="inlineStr" r="D46">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Non-relevant</t>
         </is>
       </c>
       <c t="inlineStr" r="E46">
         <is>
-          <t xml:space="preserve">High school</t>
+          <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
       <c r="F46" s="66">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="G46" s="66">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="H46" s="66">
-        <v>0.54</v>
-      </c>
-      <c r="I46" s="66">
-        <v>0.18</v>
+        <v>0.14</v>
+      </c>
+      <c t="inlineStr" r="I46">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="J46" s="66">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="K46" s="66">
-        <v>0.80</v>
+        <v>0.67</v>
       </c>
       <c r="L46" s="66">
-        <v>0.74</v>
+        <v>0.31</v>
       </c>
       <c r="M46" s="66">
-        <v>0.33</v>
+        <v>0.50</v>
       </c>
       <c r="N46" s="66">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="O46" s="66">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="P46" s="66">
-        <v>0.27</v>
-      </c>
-      <c r="Q46" s="66">
-        <v>0.09</v>
+        <v>0.07</v>
+      </c>
+      <c t="inlineStr" r="Q46">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="R46" s="66">
         <v>1.00</v>
       </c>
       <c r="S46" s="66">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="T46" s="66">
-        <v>0.52</v>
-      </c>
-      <c r="U46" s="66">
-        <v>0.17</v>
+        <v>0.12</v>
+      </c>
+      <c t="inlineStr" r="U46">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="V46" s="66">
-        <v>1.80</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="47">
       <c t="inlineStr" r="A47">
         <is>
-          <t xml:space="preserve">xqls8</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B47">
-        <is>
-          <t xml:space="preserve">xqls8</t>
-        </is>
+          <t xml:space="preserve">rqed8</t>
+        </is>
+      </c>
+      <c r="B47" s="66">
+        <v>0.00</v>
       </c>
       <c r="C47" s="66">
-        <v>21.00</v>
+        <v>22.00</v>
       </c>
       <c t="inlineStr" r="D47">
         <is>
-          <t xml:space="preserve">Female</t>
+          <t xml:space="preserve">Male</t>
         </is>
       </c>
       <c t="inlineStr" r="E47">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">Graduate school (Master)</t>
         </is>
       </c>
       <c r="F47" s="66">
@@ -3980,161 +3974,165 @@
         <v>0.86</v>
       </c>
       <c r="H47" s="66">
-        <v>0.14</v>
-      </c>
-      <c t="inlineStr" r="I47">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.39</v>
+      </c>
+      <c r="I47" s="66">
+        <v>0.25</v>
       </c>
       <c r="J47" s="66">
-        <v>0.93</v>
+        <v>0.81</v>
       </c>
       <c r="K47" s="66">
-        <v>0.74</v>
+        <v>0.50</v>
       </c>
       <c r="L47" s="66">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="M47" s="66">
-        <v>0.50</v>
+        <v>0.06</v>
       </c>
       <c r="N47" s="66">
-        <v>0.76</v>
+        <v>0.69</v>
       </c>
       <c r="O47" s="66">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="P47" s="66">
-        <v>0.07</v>
-      </c>
-      <c t="inlineStr" r="Q47">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.20</v>
+      </c>
+      <c r="Q47" s="66">
+        <v>0.12</v>
       </c>
       <c r="R47" s="66">
         <v>1.00</v>
       </c>
       <c r="S47" s="66">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="T47" s="66">
-        <v>0.09</v>
-      </c>
-      <c t="inlineStr" r="U47">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.29</v>
+      </c>
+      <c r="U47" s="66">
+        <v>0.18</v>
       </c>
       <c r="V47" s="66">
-        <v>1.22</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="48">
       <c t="inlineStr" r="A48">
         <is>
-          <t xml:space="preserve">yozx4</t>
+          <t xml:space="preserve">rvax5</t>
         </is>
       </c>
       <c r="B48" s="66">
         <v>0.00</v>
       </c>
       <c r="C48" s="66">
-        <v>18.00</v>
+        <v>26.00</v>
       </c>
       <c t="inlineStr" r="D48">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E48">
         <is>
-          <t xml:space="preserve">High school</t>
+          <t xml:space="preserve">Graduate school (Master)</t>
         </is>
       </c>
       <c r="F48" s="66">
         <v>1.00</v>
       </c>
       <c r="G48" s="66">
-        <v>0.79</v>
+        <v>1.00</v>
       </c>
       <c r="H48" s="66">
         <v>0.36</v>
       </c>
-      <c r="I48" s="66">
-        <v>0.18</v>
+      <c t="inlineStr" r="I48">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="J48" s="66">
-        <v>0.90</v>
+        <v>0.95</v>
       </c>
       <c r="K48" s="66">
+        <v>0.76</v>
+      </c>
+      <c r="L48" s="66">
+        <v>0.04</v>
+      </c>
+      <c r="M48" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N48" s="66">
+        <v>0.56</v>
+      </c>
+      <c r="O48" s="66">
         <v>0.62</v>
-      </c>
-      <c r="L48" s="66">
-        <v>0.33</v>
-      </c>
-      <c r="M48" s="66">
-        <v>0.06</v>
-      </c>
-      <c r="N48" s="66">
-        <v>0.73</v>
-      </c>
-      <c r="O48" s="66">
-        <v>0.43</v>
       </c>
       <c r="P48" s="66">
         <v>0.18</v>
       </c>
-      <c r="Q48" s="66">
-        <v>0.09</v>
+      <c t="inlineStr" r="Q48">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="R48" s="66">
         <v>1.00</v>
       </c>
       <c r="S48" s="66">
-        <v>0.59</v>
+        <v>1.10</v>
       </c>
       <c r="T48" s="66">
-        <v>0.25</v>
-      </c>
-      <c r="U48" s="66">
-        <v>0.12</v>
+        <v>0.32</v>
+      </c>
+      <c t="inlineStr" r="U48">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="V48" s="66">
-        <v>1.64</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="49">
       <c t="inlineStr" r="A49">
         <is>
-          <t xml:space="preserve">yzud1</t>
-        </is>
-      </c>
-      <c r="B49" s="66">
-        <v>0.00</v>
+          <t xml:space="preserve">sjnh6</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B49">
+        <is>
+          <t xml:space="preserve">sjnh6</t>
+        </is>
       </c>
       <c r="C49" s="66">
-        <v>20.00</v>
+        <v>23.00</v>
       </c>
       <c t="inlineStr" r="D49">
         <is>
-          <t xml:space="preserve">Female</t>
+          <t xml:space="preserve">Male</t>
         </is>
       </c>
       <c t="inlineStr" r="E49">
         <is>
-          <t xml:space="preserve">High school</t>
+          <t xml:space="preserve">Graduate school (Master)</t>
         </is>
       </c>
       <c r="F49" s="66">
         <v>1.00</v>
       </c>
       <c r="G49" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="H49" s="66">
-        <v>0.29</v>
+        <v>0.86</v>
+      </c>
+      <c t="inlineStr" r="H49">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="I49">
         <is>
@@ -4142,25 +4140,27 @@
         </is>
       </c>
       <c r="J49" s="66">
-        <v>0.93</v>
+        <v>0.79</v>
       </c>
       <c r="K49" s="66">
-        <v>0.92</v>
+        <v>0.70</v>
       </c>
       <c r="L49" s="66">
-        <v>0.30</v>
+        <v>0.50</v>
       </c>
       <c r="M49" s="66">
         <v>0.50</v>
       </c>
       <c r="N49" s="66">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="O49" s="66">
-        <v>0.62</v>
-      </c>
-      <c r="P49" s="66">
-        <v>0.14</v>
+        <v>0.48</v>
+      </c>
+      <c t="inlineStr" r="P49">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="Q49">
         <is>
@@ -4171,10 +4171,12 @@
         <v>1.00</v>
       </c>
       <c r="S49" s="66">
-        <v>0.96</v>
-      </c>
-      <c r="T49" s="66">
-        <v>0.22</v>
+        <v>0.79</v>
+      </c>
+      <c t="inlineStr" r="T49">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="U49">
         <is>
@@ -4182,39 +4184,43 @@
         </is>
       </c>
       <c r="V49" s="66">
-        <v>1.37</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="50">
       <c t="inlineStr" r="A50">
         <is>
-          <t xml:space="preserve">zhao8</t>
-        </is>
-      </c>
-      <c r="B50" s="66">
-        <v>0.00</v>
+          <t xml:space="preserve">swbd5</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B50">
+        <is>
+          <t xml:space="preserve">swbd5</t>
+        </is>
       </c>
       <c r="C50" s="66">
-        <v>23.00</v>
+        <v>20.00</v>
       </c>
       <c t="inlineStr" r="D50">
         <is>
-          <t xml:space="preserve">Female</t>
+          <t xml:space="preserve">Male</t>
         </is>
       </c>
       <c t="inlineStr" r="E50">
         <is>
-          <t xml:space="preserve">Graduate school (Master)</t>
+          <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
       <c r="F50" s="66">
         <v>1.00</v>
       </c>
       <c r="G50" s="66">
-        <v>0.89</v>
-      </c>
-      <c r="H50" s="66">
-        <v>0.29</v>
+        <v>0.96</v>
+      </c>
+      <c t="inlineStr" r="H50">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="I50">
         <is>
@@ -4222,25 +4228,27 @@
         </is>
       </c>
       <c r="J50" s="66">
-        <v>0.92</v>
+        <v>0.57</v>
       </c>
       <c r="K50" s="66">
-        <v>0.66</v>
+        <v>0.50</v>
       </c>
       <c r="L50" s="66">
-        <v>0.26</v>
+        <v>0.50</v>
       </c>
       <c r="M50" s="66">
         <v>0.50</v>
       </c>
       <c r="N50" s="66">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="O50" s="66">
-        <v>0.52</v>
-      </c>
-      <c r="P50" s="66">
-        <v>0.14</v>
+        <v>0.57</v>
+      </c>
+      <c t="inlineStr" r="P50">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="Q50">
         <is>
@@ -4251,10 +4259,12 @@
         <v>1.00</v>
       </c>
       <c r="S50" s="66">
-        <v>0.81</v>
-      </c>
-      <c r="T50" s="66">
-        <v>0.22</v>
+        <v>0.98</v>
+      </c>
+      <c t="inlineStr" r="T50">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="U50">
         <is>
@@ -4262,26 +4272,24 @@
         </is>
       </c>
       <c r="V50" s="66">
-        <v>1.38</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="51">
       <c t="inlineStr" r="A51">
         <is>
-          <t xml:space="preserve">zllv8</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B51">
-        <is>
-          <t xml:space="preserve">zllv8</t>
-        </is>
+          <t xml:space="preserve">sxhv6</t>
+        </is>
+      </c>
+      <c r="B51" s="66">
+        <v>0.00</v>
       </c>
       <c r="C51" s="66">
-        <v>22.00</v>
+        <v>23.00</v>
       </c>
       <c t="inlineStr" r="D51">
         <is>
-          <t xml:space="preserve">Female</t>
+          <t xml:space="preserve">Non-binary</t>
         </is>
       </c>
       <c t="inlineStr" r="E51">
@@ -4290,13 +4298,15 @@
         </is>
       </c>
       <c r="F51" s="66">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="G51" s="66">
-        <v>0.79</v>
-      </c>
-      <c r="H51" s="66">
-        <v>0.14</v>
+        <v>0.82</v>
+      </c>
+      <c t="inlineStr" r="H51">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="I51">
         <is>
@@ -4307,22 +4317,24 @@
         <v>0.91</v>
       </c>
       <c r="K51" s="66">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="L51" s="66">
-        <v>0.32</v>
+        <v>0.50</v>
       </c>
       <c r="M51" s="66">
         <v>0.50</v>
       </c>
       <c r="N51" s="66">
-        <v>0.60</v>
+        <v>0.56</v>
       </c>
       <c r="O51" s="66">
-        <v>0.49</v>
-      </c>
-      <c r="P51" s="66">
-        <v>0.07</v>
+        <v>0.51</v>
+      </c>
+      <c t="inlineStr" r="P51">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="Q51">
         <is>
@@ -4333,10 +4345,12 @@
         <v>1.00</v>
       </c>
       <c r="S51" s="66">
-        <v>0.82</v>
-      </c>
-      <c r="T51" s="66">
-        <v>0.12</v>
+        <v>0.92</v>
+      </c>
+      <c t="inlineStr" r="T51">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="U51">
         <is>
@@ -4344,43 +4358,45 @@
         </is>
       </c>
       <c r="V51" s="66">
-        <v>1.27</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="52">
       <c t="inlineStr" r="A52">
         <is>
-          <t xml:space="preserve">ztwr3</t>
+          <t xml:space="preserve">txeg9</t>
         </is>
       </c>
       <c t="inlineStr" r="B52">
         <is>
-          <t xml:space="preserve">ztwr3</t>
+          <t xml:space="preserve">txeg9</t>
         </is>
       </c>
       <c r="C52" s="66">
-        <v>27.00</v>
+        <v>18.00</v>
       </c>
       <c t="inlineStr" r="D52">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E52">
         <is>
-          <t xml:space="preserve">Graduate school (Master)</t>
-        </is>
-      </c>
-      <c r="F52" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="G52" s="66">
-        <v>0.96</v>
-      </c>
-      <c t="inlineStr" r="H52">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+          <t xml:space="preserve">High school</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F52">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G52">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="H52" s="66">
+        <v>0.21</v>
       </c>
       <c t="inlineStr" r="I52">
         <is>
@@ -4388,27 +4404,29 @@
         </is>
       </c>
       <c r="J52" s="66">
-        <v>0.96</v>
+        <v>0.58</v>
       </c>
       <c r="K52" s="66">
-        <v>0.81</v>
+        <v>0.50</v>
       </c>
       <c r="L52" s="66">
-        <v>0.50</v>
+        <v>0.28</v>
       </c>
       <c r="M52" s="66">
         <v>0.50</v>
       </c>
-      <c r="N52" s="66">
-        <v>0.62</v>
-      </c>
-      <c r="O52" s="66">
-        <v>0.59</v>
-      </c>
-      <c t="inlineStr" r="P52">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+      <c t="inlineStr" r="N52">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="O52">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="P52" s="66">
+        <v>0.11</v>
       </c>
       <c t="inlineStr" r="Q52">
         <is>
@@ -4418,8 +4436,10 @@
       <c r="R52" s="66">
         <v>1.00</v>
       </c>
-      <c r="S52" s="66">
-        <v>0.96</v>
+      <c t="inlineStr" r="S52">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="T52">
         <is>
@@ -4432,39 +4452,43 @@
         </is>
       </c>
       <c r="V52" s="66">
-        <v>1.00</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="53">
       <c t="inlineStr" r="A53">
         <is>
-          <t xml:space="preserve">zuff1</t>
-        </is>
-      </c>
-      <c r="B53" s="66">
-        <v>0.00</v>
+          <t xml:space="preserve">ugqo0</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B53">
+        <is>
+          <t xml:space="preserve">ugqo0</t>
+        </is>
       </c>
       <c r="C53" s="66">
-        <v>38.00</v>
+        <v>24.00</v>
       </c>
       <c t="inlineStr" r="D53">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E53">
         <is>
-          <t xml:space="preserve">Graduate school (Master)</t>
+          <t xml:space="preserve">High school</t>
         </is>
       </c>
       <c r="F53" s="66">
-        <v>1.00</v>
+        <v>0.14</v>
       </c>
       <c r="G53" s="66">
-        <v>0.93</v>
-      </c>
-      <c r="H53" s="66">
-        <v>0.29</v>
+        <v>1.00</v>
+      </c>
+      <c t="inlineStr" r="H53">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="I53">
         <is>
@@ -4472,25 +4496,27 @@
         </is>
       </c>
       <c r="J53" s="66">
-        <v>0.95</v>
+        <v>0.54</v>
       </c>
       <c r="K53" s="66">
-        <v>0.76</v>
+        <v>0.55</v>
       </c>
       <c r="L53" s="66">
-        <v>0.46</v>
+        <v>0.50</v>
       </c>
       <c r="M53" s="66">
-        <v>0.29</v>
+        <v>0.50</v>
       </c>
       <c r="N53" s="66">
-        <v>0.66</v>
+        <v>0.07</v>
       </c>
       <c r="O53" s="66">
-        <v>0.52</v>
-      </c>
-      <c r="P53" s="66">
-        <v>0.14</v>
+        <v>0.63</v>
+      </c>
+      <c t="inlineStr" r="P53">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="Q53">
         <is>
@@ -4501,10 +4527,12 @@
         <v>1.00</v>
       </c>
       <c r="S53" s="66">
-        <v>0.78</v>
-      </c>
-      <c r="T53" s="66">
-        <v>0.22</v>
+        <v>8.80</v>
+      </c>
+      <c t="inlineStr" r="T53">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="U53">
         <is>
@@ -4512,81 +4540,1287 @@
         </is>
       </c>
       <c r="V53" s="66">
-        <v>1.38</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="54">
       <c t="inlineStr" r="A54">
         <is>
+          <t xml:space="preserve">uicn9</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B54">
+        <is>
+          <t xml:space="preserve">uicn9</t>
+        </is>
+      </c>
+      <c r="C54" s="66">
+        <v>23.00</v>
+      </c>
+      <c t="inlineStr" r="D54">
+        <is>
+          <t xml:space="preserve">Female</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E54">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="F54" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G54" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="H54" s="66">
+        <v>0.32</v>
+      </c>
+      <c t="inlineStr" r="I54">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J54" s="66">
+        <v>0.92</v>
+      </c>
+      <c r="K54" s="66">
+        <v>0.72</v>
+      </c>
+      <c r="L54" s="66">
+        <v>0.17</v>
+      </c>
+      <c r="M54" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N54" s="66">
+        <v>0.63</v>
+      </c>
+      <c r="O54" s="66">
+        <v>0.59</v>
+      </c>
+      <c r="P54" s="66">
+        <v>0.16</v>
+      </c>
+      <c t="inlineStr" r="Q54">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R54" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S54" s="66">
+        <v>0.93</v>
+      </c>
+      <c r="T54" s="66">
+        <v>0.25</v>
+      </c>
+      <c t="inlineStr" r="U54">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V54" s="66">
+        <v>1.40</v>
+      </c>
+    </row>
+    <row r="55">
+      <c t="inlineStr" r="A55">
+        <is>
+          <t xml:space="preserve">usjs8</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B55">
+        <is>
+          <t xml:space="preserve">usjs8</t>
+        </is>
+      </c>
+      <c r="C55" s="66">
+        <v>24.00</v>
+      </c>
+      <c t="inlineStr" r="D55">
+        <is>
+          <t xml:space="preserve">Female</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E55">
+        <is>
+          <t xml:space="preserve">High school</t>
+        </is>
+      </c>
+      <c r="F55" s="66">
+        <v>0.96</v>
+      </c>
+      <c r="G55" s="66">
+        <v>0.89</v>
+      </c>
+      <c r="H55" s="66">
+        <v>0.57</v>
+      </c>
+      <c r="I55" s="66">
+        <v>0.18</v>
+      </c>
+      <c r="J55" s="66">
+        <v>0.56</v>
+      </c>
+      <c r="K55" s="66">
+        <v>0.51</v>
+      </c>
+      <c r="L55" s="66">
+        <v>0.52</v>
+      </c>
+      <c r="M55" s="66">
+        <v>0.51</v>
+      </c>
+      <c r="N55" s="66">
+        <v>0.49</v>
+      </c>
+      <c r="O55" s="66">
+        <v>0.55</v>
+      </c>
+      <c r="P55" s="66">
+        <v>0.30</v>
+      </c>
+      <c r="Q55" s="66">
+        <v>0.09</v>
+      </c>
+      <c r="R55" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S55" s="66">
+        <v>1.12</v>
+      </c>
+      <c r="T55" s="66">
+        <v>0.62</v>
+      </c>
+      <c r="U55" s="66">
+        <v>0.18</v>
+      </c>
+      <c r="V55" s="66">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="56">
+      <c t="inlineStr" r="A56">
+        <is>
+          <t xml:space="preserve">uwfo3</t>
+        </is>
+      </c>
+      <c r="B56" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="C56" s="66">
+        <v>21.00</v>
+      </c>
+      <c t="inlineStr" r="D56">
+        <is>
+          <t xml:space="preserve">Female</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E56">
+        <is>
+          <t xml:space="preserve">High school</t>
+        </is>
+      </c>
+      <c r="F56" s="66">
+        <v>0.86</v>
+      </c>
+      <c r="G56" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="H56" s="66">
+        <v>0.32</v>
+      </c>
+      <c r="I56" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="J56" s="66">
+        <v>0.95</v>
+      </c>
+      <c r="K56" s="66">
+        <v>0.72</v>
+      </c>
+      <c r="L56" s="66">
+        <v>0.26</v>
+      </c>
+      <c r="M56" s="66">
+        <v>0.17</v>
+      </c>
+      <c r="N56" s="66">
+        <v>0.53</v>
+      </c>
+      <c r="O56" s="66">
+        <v>0.41</v>
+      </c>
+      <c r="P56" s="66">
+        <v>0.16</v>
+      </c>
+      <c r="Q56" s="66">
+        <v>0.13</v>
+      </c>
+      <c r="R56" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S56" s="66">
+        <v>0.77</v>
+      </c>
+      <c r="T56" s="66">
+        <v>0.30</v>
+      </c>
+      <c r="U56" s="66">
+        <v>0.24</v>
+      </c>
+      <c r="V56" s="66">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="57">
+      <c t="inlineStr" r="A57">
+        <is>
+          <t xml:space="preserve">uyxx3</t>
+        </is>
+      </c>
+      <c r="B57" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="C57" s="66">
+        <v>26.00</v>
+      </c>
+      <c t="inlineStr" r="D57">
+        <is>
+          <t xml:space="preserve">Male</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E57">
+        <is>
+          <t xml:space="preserve">College (Bachelor)</t>
+        </is>
+      </c>
+      <c r="F57" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G57" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="H57" s="66">
+        <v>0.14</v>
+      </c>
+      <c t="inlineStr" r="I57">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J57" s="66">
+        <v>0.93</v>
+      </c>
+      <c r="K57" s="66">
+        <v>0.77</v>
+      </c>
+      <c r="L57" s="66">
+        <v>0.35</v>
+      </c>
+      <c r="M57" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N57" s="66">
+        <v>0.65</v>
+      </c>
+      <c r="O57" s="66">
+        <v>0.59</v>
+      </c>
+      <c r="P57" s="66">
+        <v>0.07</v>
+      </c>
+      <c t="inlineStr" r="Q57">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R57" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S57" s="66">
+        <v>0.92</v>
+      </c>
+      <c r="T57" s="66">
+        <v>0.11</v>
+      </c>
+      <c t="inlineStr" r="U57">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V57" s="66">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="58">
+      <c t="inlineStr" r="A58">
+        <is>
+          <t xml:space="preserve">wjob1</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B58">
+        <is>
+          <t xml:space="preserve">wjob1</t>
+        </is>
+      </c>
+      <c r="C58" s="66">
+        <v>44.00</v>
+      </c>
+      <c t="inlineStr" r="D58">
+        <is>
+          <t xml:space="preserve">Male</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E58">
+        <is>
+          <t xml:space="preserve">High school</t>
+        </is>
+      </c>
+      <c r="F58" s="66">
+        <v>0.89</v>
+      </c>
+      <c r="G58" s="66">
+        <v>0.71</v>
+      </c>
+      <c r="H58" s="66">
+        <v>0.54</v>
+      </c>
+      <c r="I58" s="66">
+        <v>0.18</v>
+      </c>
+      <c r="J58" s="66">
+        <v>0.97</v>
+      </c>
+      <c r="K58" s="66">
+        <v>0.80</v>
+      </c>
+      <c r="L58" s="66">
+        <v>0.74</v>
+      </c>
+      <c r="M58" s="66">
+        <v>0.33</v>
+      </c>
+      <c r="N58" s="66">
+        <v>0.52</v>
+      </c>
+      <c r="O58" s="66">
+        <v>0.38</v>
+      </c>
+      <c r="P58" s="66">
+        <v>0.27</v>
+      </c>
+      <c r="Q58" s="66">
+        <v>0.09</v>
+      </c>
+      <c r="R58" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S58" s="66">
+        <v>0.72</v>
+      </c>
+      <c r="T58" s="66">
+        <v>0.52</v>
+      </c>
+      <c r="U58" s="66">
+        <v>0.17</v>
+      </c>
+      <c r="V58" s="66">
+        <v>1.80</v>
+      </c>
+    </row>
+    <row r="59">
+      <c t="inlineStr" r="A59">
+        <is>
+          <t xml:space="preserve">xqls8</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B59">
+        <is>
+          <t xml:space="preserve">xqls8</t>
+        </is>
+      </c>
+      <c r="C59" s="66">
+        <v>21.00</v>
+      </c>
+      <c t="inlineStr" r="D59">
+        <is>
+          <t xml:space="preserve">Female</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E59">
+        <is>
+          <t xml:space="preserve">College (Bachelor)</t>
+        </is>
+      </c>
+      <c r="F59" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G59" s="66">
+        <v>0.86</v>
+      </c>
+      <c r="H59" s="66">
+        <v>0.14</v>
+      </c>
+      <c t="inlineStr" r="I59">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J59" s="66">
+        <v>0.93</v>
+      </c>
+      <c r="K59" s="66">
+        <v>0.74</v>
+      </c>
+      <c r="L59" s="66">
+        <v>0.26</v>
+      </c>
+      <c r="M59" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N59" s="66">
+        <v>0.76</v>
+      </c>
+      <c r="O59" s="66">
+        <v>0.48</v>
+      </c>
+      <c r="P59" s="66">
+        <v>0.07</v>
+      </c>
+      <c t="inlineStr" r="Q59">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R59" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S59" s="66">
+        <v>0.64</v>
+      </c>
+      <c r="T59" s="66">
+        <v>0.09</v>
+      </c>
+      <c t="inlineStr" r="U59">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V59" s="66">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="60">
+      <c t="inlineStr" r="A60">
+        <is>
+          <t xml:space="preserve">ymoq6</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B60">
+        <is>
+          <t xml:space="preserve">ymoq6</t>
+        </is>
+      </c>
+      <c r="C60" s="66">
+        <v>22.00</v>
+      </c>
+      <c t="inlineStr" r="D60">
+        <is>
+          <t xml:space="preserve">Female</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E60">
+        <is>
+          <t xml:space="preserve">High school</t>
+        </is>
+      </c>
+      <c r="F60" s="66">
+        <v>0.86</v>
+      </c>
+      <c r="G60" s="66">
+        <v>0.57</v>
+      </c>
+      <c t="inlineStr" r="H60">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I60">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J60" s="66">
+        <v>0.93</v>
+      </c>
+      <c r="K60" s="66">
+        <v>0.73</v>
+      </c>
+      <c r="L60" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M60" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N60" s="66">
+        <v>0.58</v>
+      </c>
+      <c r="O60" s="66">
+        <v>0.32</v>
+      </c>
+      <c t="inlineStr" r="P60">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q60">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R60" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S60" s="66">
+        <v>0.56</v>
+      </c>
+      <c t="inlineStr" r="T60">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U60">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V60" s="66">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="61">
+      <c t="inlineStr" r="A61">
+        <is>
+          <t xml:space="preserve">yozx4</t>
+        </is>
+      </c>
+      <c r="B61" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="C61" s="66">
+        <v>18.00</v>
+      </c>
+      <c t="inlineStr" r="D61">
+        <is>
+          <t xml:space="preserve">Male</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E61">
+        <is>
+          <t xml:space="preserve">High school</t>
+        </is>
+      </c>
+      <c r="F61" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G61" s="66">
+        <v>0.79</v>
+      </c>
+      <c r="H61" s="66">
+        <v>0.36</v>
+      </c>
+      <c r="I61" s="66">
+        <v>0.18</v>
+      </c>
+      <c r="J61" s="66">
+        <v>0.90</v>
+      </c>
+      <c r="K61" s="66">
+        <v>0.62</v>
+      </c>
+      <c r="L61" s="66">
+        <v>0.33</v>
+      </c>
+      <c r="M61" s="66">
+        <v>0.06</v>
+      </c>
+      <c r="N61" s="66">
+        <v>0.73</v>
+      </c>
+      <c r="O61" s="66">
+        <v>0.43</v>
+      </c>
+      <c r="P61" s="66">
+        <v>0.18</v>
+      </c>
+      <c r="Q61" s="66">
+        <v>0.09</v>
+      </c>
+      <c r="R61" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S61" s="66">
+        <v>0.59</v>
+      </c>
+      <c r="T61" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="U61" s="66">
+        <v>0.12</v>
+      </c>
+      <c r="V61" s="66">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="62">
+      <c t="inlineStr" r="A62">
+        <is>
+          <t xml:space="preserve">yzud1</t>
+        </is>
+      </c>
+      <c r="B62" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="C62" s="66">
+        <v>20.00</v>
+      </c>
+      <c t="inlineStr" r="D62">
+        <is>
+          <t xml:space="preserve">Female</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E62">
+        <is>
+          <t xml:space="preserve">High school</t>
+        </is>
+      </c>
+      <c r="F62" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G62" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="H62" s="66">
+        <v>0.29</v>
+      </c>
+      <c t="inlineStr" r="I62">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J62" s="66">
+        <v>0.93</v>
+      </c>
+      <c r="K62" s="66">
+        <v>0.92</v>
+      </c>
+      <c r="L62" s="66">
+        <v>0.30</v>
+      </c>
+      <c r="M62" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N62" s="66">
+        <v>0.64</v>
+      </c>
+      <c r="O62" s="66">
+        <v>0.62</v>
+      </c>
+      <c r="P62" s="66">
+        <v>0.14</v>
+      </c>
+      <c t="inlineStr" r="Q62">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R62" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S62" s="66">
+        <v>0.96</v>
+      </c>
+      <c r="T62" s="66">
+        <v>0.22</v>
+      </c>
+      <c t="inlineStr" r="U62">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V62" s="66">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="63">
+      <c t="inlineStr" r="A63">
+        <is>
+          <t xml:space="preserve">zhao8</t>
+        </is>
+      </c>
+      <c r="B63" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="C63" s="66">
+        <v>23.00</v>
+      </c>
+      <c t="inlineStr" r="D63">
+        <is>
+          <t xml:space="preserve">Female</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E63">
+        <is>
+          <t xml:space="preserve">Graduate school (Master)</t>
+        </is>
+      </c>
+      <c r="F63" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G63" s="66">
+        <v>0.89</v>
+      </c>
+      <c r="H63" s="66">
+        <v>0.29</v>
+      </c>
+      <c t="inlineStr" r="I63">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J63" s="66">
+        <v>0.92</v>
+      </c>
+      <c r="K63" s="66">
+        <v>0.66</v>
+      </c>
+      <c r="L63" s="66">
+        <v>0.26</v>
+      </c>
+      <c r="M63" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N63" s="66">
+        <v>0.64</v>
+      </c>
+      <c r="O63" s="66">
+        <v>0.52</v>
+      </c>
+      <c r="P63" s="66">
+        <v>0.14</v>
+      </c>
+      <c t="inlineStr" r="Q63">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R63" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S63" s="66">
+        <v>0.81</v>
+      </c>
+      <c r="T63" s="66">
+        <v>0.22</v>
+      </c>
+      <c t="inlineStr" r="U63">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V63" s="66">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="64">
+      <c t="inlineStr" r="A64">
+        <is>
+          <t xml:space="preserve">zkmg5</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B64">
+        <is>
+          <t xml:space="preserve">zkmg5</t>
+        </is>
+      </c>
+      <c r="C64" s="66">
+        <v>23.00</v>
+      </c>
+      <c t="inlineStr" r="D64">
+        <is>
+          <t xml:space="preserve">Female</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E64">
+        <is>
+          <t xml:space="preserve">High school</t>
+        </is>
+      </c>
+      <c r="F64" s="66">
+        <v>0.54</v>
+      </c>
+      <c r="G64" s="66">
+        <v>0.86</v>
+      </c>
+      <c t="inlineStr" r="H64">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I64">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J64" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="K64" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="L64" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M64" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N64" s="66">
+        <v>0.35</v>
+      </c>
+      <c r="O64" s="66">
+        <v>0.66</v>
+      </c>
+      <c t="inlineStr" r="P64">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q64">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R64" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S64" s="66">
+        <v>1.89</v>
+      </c>
+      <c t="inlineStr" r="T64">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U64">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V64" s="66">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="65">
+      <c t="inlineStr" r="A65">
+        <is>
+          <t xml:space="preserve">zllv8</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B65">
+        <is>
+          <t xml:space="preserve">zllv8</t>
+        </is>
+      </c>
+      <c r="C65" s="66">
+        <v>22.00</v>
+      </c>
+      <c t="inlineStr" r="D65">
+        <is>
+          <t xml:space="preserve">Female</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E65">
+        <is>
+          <t xml:space="preserve">College (Bachelor)</t>
+        </is>
+      </c>
+      <c r="F65" s="66">
+        <v>0.86</v>
+      </c>
+      <c r="G65" s="66">
+        <v>0.79</v>
+      </c>
+      <c r="H65" s="66">
+        <v>0.14</v>
+      </c>
+      <c t="inlineStr" r="I65">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J65" s="66">
+        <v>0.91</v>
+      </c>
+      <c r="K65" s="66">
+        <v>0.68</v>
+      </c>
+      <c r="L65" s="66">
+        <v>0.32</v>
+      </c>
+      <c r="M65" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N65" s="66">
+        <v>0.60</v>
+      </c>
+      <c r="O65" s="66">
+        <v>0.49</v>
+      </c>
+      <c r="P65" s="66">
+        <v>0.07</v>
+      </c>
+      <c t="inlineStr" r="Q65">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R65" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S65" s="66">
+        <v>0.82</v>
+      </c>
+      <c r="T65" s="66">
+        <v>0.12</v>
+      </c>
+      <c t="inlineStr" r="U65">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V65" s="66">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="66">
+      <c t="inlineStr" r="A66">
+        <is>
+          <t xml:space="preserve">ztwr3</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B66">
+        <is>
+          <t xml:space="preserve">ztwr3</t>
+        </is>
+      </c>
+      <c r="C66" s="66">
+        <v>27.00</v>
+      </c>
+      <c t="inlineStr" r="D66">
+        <is>
+          <t xml:space="preserve">Male</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E66">
+        <is>
+          <t xml:space="preserve">Graduate school (Master)</t>
+        </is>
+      </c>
+      <c r="F66" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G66" s="66">
+        <v>0.96</v>
+      </c>
+      <c t="inlineStr" r="H66">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I66">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J66" s="66">
+        <v>0.96</v>
+      </c>
+      <c r="K66" s="66">
+        <v>0.81</v>
+      </c>
+      <c r="L66" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M66" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N66" s="66">
+        <v>0.62</v>
+      </c>
+      <c r="O66" s="66">
+        <v>0.59</v>
+      </c>
+      <c t="inlineStr" r="P66">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q66">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R66" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S66" s="66">
+        <v>0.96</v>
+      </c>
+      <c t="inlineStr" r="T66">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U66">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V66" s="66">
+        <v>1.00</v>
+      </c>
+    </row>
+    <row r="67">
+      <c t="inlineStr" r="A67">
+        <is>
+          <t xml:space="preserve">zuff1</t>
+        </is>
+      </c>
+      <c r="B67" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="C67" s="66">
+        <v>38.00</v>
+      </c>
+      <c t="inlineStr" r="D67">
+        <is>
+          <t xml:space="preserve">Male</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E67">
+        <is>
+          <t xml:space="preserve">Graduate school (Master)</t>
+        </is>
+      </c>
+      <c r="F67" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G67" s="66">
+        <v>0.93</v>
+      </c>
+      <c r="H67" s="66">
+        <v>0.29</v>
+      </c>
+      <c t="inlineStr" r="I67">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J67" s="66">
+        <v>0.95</v>
+      </c>
+      <c r="K67" s="66">
+        <v>0.76</v>
+      </c>
+      <c r="L67" s="66">
+        <v>0.46</v>
+      </c>
+      <c r="M67" s="66">
+        <v>0.29</v>
+      </c>
+      <c r="N67" s="66">
+        <v>0.66</v>
+      </c>
+      <c r="O67" s="66">
+        <v>0.52</v>
+      </c>
+      <c r="P67" s="66">
+        <v>0.14</v>
+      </c>
+      <c t="inlineStr" r="Q67">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R67" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S67" s="66">
+        <v>0.78</v>
+      </c>
+      <c r="T67" s="66">
+        <v>0.22</v>
+      </c>
+      <c t="inlineStr" r="U67">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V67" s="66">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="68">
+      <c t="inlineStr" r="A68">
+        <is>
           <t xml:space="preserve">zuwa4</t>
         </is>
       </c>
-      <c r="B54" s="66">
+      <c r="B68" s="66">
         <v>0.00</v>
       </c>
-      <c r="C54" s="66">
+      <c r="C68" s="66">
         <v>28.00</v>
       </c>
-      <c t="inlineStr" r="D54">
+      <c t="inlineStr" r="D68">
         <is>
           <t xml:space="preserve">Male</t>
         </is>
       </c>
-      <c t="inlineStr" r="E54">
+      <c t="inlineStr" r="E68">
         <is>
           <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
-      <c r="F54" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="G54" s="66">
+      <c r="F68" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G68" s="66">
         <v>0.89</v>
       </c>
-      <c r="H54" s="66">
+      <c r="H68" s="66">
         <v>0.29</v>
       </c>
-      <c r="I54" s="66">
+      <c r="I68" s="66">
         <v>0.32</v>
       </c>
-      <c r="J54" s="66">
+      <c r="J68" s="66">
         <v>0.94</v>
       </c>
-      <c r="K54" s="66">
+      <c r="K68" s="66">
         <v>0.78</v>
       </c>
-      <c r="L54" s="66">
+      <c r="L68" s="66">
         <v>0.32</v>
       </c>
-      <c r="M54" s="66">
+      <c r="M68" s="66">
         <v>0.30</v>
       </c>
-      <c r="N54" s="66">
+      <c r="N68" s="66">
         <v>0.59</v>
       </c>
-      <c r="O54" s="66">
+      <c r="O68" s="66">
         <v>0.52</v>
       </c>
-      <c r="P54" s="66">
+      <c r="P68" s="66">
         <v>0.14</v>
       </c>
-      <c r="Q54" s="66">
+      <c r="Q68" s="66">
         <v>0.16</v>
       </c>
-      <c r="R54" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="S54" s="66">
+      <c r="R68" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S68" s="66">
         <v>0.88</v>
       </c>
-      <c r="T54" s="66">
+      <c r="T68" s="66">
         <v>0.24</v>
       </c>
-      <c r="U54" s="66">
+      <c r="U68" s="66">
         <v>0.27</v>
       </c>
-      <c r="V54" s="66">
+      <c r="V68" s="66">
         <v>1.75</v>
+      </c>
+    </row>
+    <row r="69">
+      <c t="inlineStr" r="A69">
+        <is>
+          <t xml:space="preserve">zygb0</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B69">
+        <is>
+          <t xml:space="preserve">Zygb0</t>
+        </is>
+      </c>
+      <c r="C69" s="66">
+        <v>19.00</v>
+      </c>
+      <c t="inlineStr" r="D69">
+        <is>
+          <t xml:space="preserve">Female</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E69">
+        <is>
+          <t xml:space="preserve">High school</t>
+        </is>
+      </c>
+      <c r="F69" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G69" s="66">
+        <v>0.32</v>
+      </c>
+      <c r="H69" s="66">
+        <v>0.21</v>
+      </c>
+      <c r="I69" s="66">
+        <v>0.86</v>
+      </c>
+      <c r="J69" s="66">
+        <v>0.97</v>
+      </c>
+      <c r="K69" s="66">
+        <v>0.13</v>
+      </c>
+      <c r="L69" s="66">
+        <v>0.24</v>
+      </c>
+      <c r="M69" s="66">
+        <v>0.51</v>
+      </c>
+      <c r="N69" s="66">
+        <v>0.71</v>
+      </c>
+      <c r="O69" s="66">
+        <v>0.16</v>
+      </c>
+      <c r="P69" s="66">
+        <v>0.11</v>
+      </c>
+      <c r="Q69" s="66">
+        <v>0.49</v>
+      </c>
+      <c r="R69" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S69" s="66">
+        <v>0.23</v>
+      </c>
+      <c r="T69" s="66">
+        <v>0.15</v>
+      </c>
+      <c r="U69" s="66">
+        <v>0.69</v>
+      </c>
+      <c r="V69" s="66">
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw data/language history/LHQ3 Aggregate Scores.xlsx
+++ b/data/raw data/language history/LHQ3 Aggregate Scores.xlsx
@@ -2796,35 +2796,35 @@
     <row r="33">
       <c t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">monr7</t>
+          <t xml:space="preserve">mhbu4</t>
         </is>
       </c>
       <c t="inlineStr" r="B33">
         <is>
-          <t xml:space="preserve">monr7</t>
+          <t xml:space="preserve">mhbu4</t>
         </is>
       </c>
       <c r="C33" s="66">
-        <v>18.00</v>
+        <v>16.00</v>
       </c>
       <c t="inlineStr" r="D33">
         <is>
-          <t xml:space="preserve">Female</t>
+          <t xml:space="preserve">Male</t>
         </is>
       </c>
       <c t="inlineStr" r="E33">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">High school</t>
         </is>
       </c>
       <c r="F33" s="66">
-        <v>0.32</v>
+        <v>0.89</v>
       </c>
       <c r="G33" s="66">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="H33" s="66">
-        <v>1.00</v>
+        <v>0.50</v>
       </c>
       <c t="inlineStr" r="I33">
         <is>
@@ -2832,10 +2832,10 @@
         </is>
       </c>
       <c r="J33" s="66">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="K33" s="66">
-        <v>0.50</v>
+        <v>0.63</v>
       </c>
       <c r="L33" s="66">
         <v>0.50</v>
@@ -2844,13 +2844,13 @@
         <v>0.50</v>
       </c>
       <c r="N33" s="66">
-        <v>0.18</v>
+        <v>0.60</v>
       </c>
       <c r="O33" s="66">
-        <v>0.53</v>
+        <v>0.38</v>
       </c>
       <c r="P33" s="66">
-        <v>0.83</v>
+        <v>0.26</v>
       </c>
       <c t="inlineStr" r="Q33">
         <is>
@@ -2861,10 +2861,10 @@
         <v>1.00</v>
       </c>
       <c r="S33" s="66">
-        <v>3.01</v>
+        <v>0.63</v>
       </c>
       <c r="T33" s="66">
-        <v>4.70</v>
+        <v>0.43</v>
       </c>
       <c t="inlineStr" r="U33">
         <is>
@@ -2872,180 +2872,180 @@
         </is>
       </c>
       <c r="V33" s="66">
-        <v>1.37</v>
+        <v>1.50</v>
       </c>
     </row>
     <row r="34">
       <c t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">mrbf1</t>
+          <t xml:space="preserve">monr7</t>
         </is>
       </c>
       <c t="inlineStr" r="B34">
         <is>
-          <t xml:space="preserve">mrbf1</t>
+          <t xml:space="preserve">monr7</t>
         </is>
       </c>
       <c r="C34" s="66">
-        <v>21.00</v>
+        <v>18.00</v>
       </c>
       <c t="inlineStr" r="D34">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E34">
         <is>
-          <t xml:space="preserve">High school</t>
+          <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
       <c r="F34" s="66">
-        <v>0.82</v>
+        <v>0.32</v>
       </c>
       <c r="G34" s="66">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="H34" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="I34" s="66">
-        <v>0.86</v>
+        <v>1.00</v>
+      </c>
+      <c t="inlineStr" r="I34">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="J34" s="66">
-        <v>0.90</v>
+        <v>0.91</v>
       </c>
       <c r="K34" s="66">
-        <v>0.21</v>
+        <v>0.50</v>
       </c>
       <c r="L34" s="66">
-        <v>0.17</v>
+        <v>0.50</v>
       </c>
       <c r="M34" s="66">
-        <v>0.48</v>
+        <v>0.50</v>
       </c>
       <c r="N34" s="66">
-        <v>0.51</v>
+        <v>0.18</v>
       </c>
       <c r="O34" s="66">
-        <v>0.21</v>
+        <v>0.53</v>
       </c>
       <c r="P34" s="66">
-        <v>0.25</v>
-      </c>
-      <c r="Q34" s="66">
-        <v>0.52</v>
+        <v>0.83</v>
+      </c>
+      <c t="inlineStr" r="Q34">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="R34" s="66">
         <v>1.00</v>
       </c>
       <c r="S34" s="66">
-        <v>0.42</v>
+        <v>3.01</v>
       </c>
       <c r="T34" s="66">
-        <v>0.49</v>
-      </c>
-      <c r="U34" s="66">
-        <v>1.01</v>
+        <v>4.70</v>
+      </c>
+      <c t="inlineStr" r="U34">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="V34" s="66">
-        <v>1.89</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="35">
       <c t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">mtjw7</t>
+          <t xml:space="preserve">mrbf1</t>
         </is>
       </c>
       <c t="inlineStr" r="B35">
         <is>
-          <t xml:space="preserve">mtjw7</t>
+          <t xml:space="preserve">mrbf1</t>
         </is>
       </c>
       <c r="C35" s="66">
-        <v>27.00</v>
+        <v>21.00</v>
       </c>
       <c t="inlineStr" r="D35">
         <is>
-          <t xml:space="preserve">Female</t>
+          <t xml:space="preserve">Male</t>
         </is>
       </c>
       <c t="inlineStr" r="E35">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">High school</t>
         </is>
       </c>
       <c r="F35" s="66">
-        <v>1.00</v>
+        <v>0.82</v>
       </c>
       <c r="G35" s="66">
-        <v>0.93</v>
+        <v>0.43</v>
       </c>
       <c r="H35" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="I35" s="66">
+        <v>0.86</v>
+      </c>
+      <c r="J35" s="66">
+        <v>0.90</v>
+      </c>
+      <c r="K35" s="66">
         <v>0.21</v>
       </c>
-      <c t="inlineStr" r="I35">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="J35" s="66">
-        <v>0.95</v>
-      </c>
-      <c r="K35" s="66">
-        <v>0.80</v>
-      </c>
       <c r="L35" s="66">
-        <v>0.37</v>
+        <v>0.17</v>
       </c>
       <c r="M35" s="66">
-        <v>0.50</v>
+        <v>0.48</v>
       </c>
       <c r="N35" s="66">
-        <v>0.56</v>
+        <v>0.51</v>
       </c>
       <c r="O35" s="66">
-        <v>0.54</v>
+        <v>0.21</v>
       </c>
       <c r="P35" s="66">
-        <v>0.11</v>
-      </c>
-      <c t="inlineStr" r="Q35">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.25</v>
+      </c>
+      <c r="Q35" s="66">
+        <v>0.52</v>
       </c>
       <c r="R35" s="66">
         <v>1.00</v>
       </c>
       <c r="S35" s="66">
-        <v>0.96</v>
+        <v>0.42</v>
       </c>
       <c r="T35" s="66">
-        <v>0.19</v>
-      </c>
-      <c t="inlineStr" r="U35">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.49</v>
+      </c>
+      <c r="U35" s="66">
+        <v>1.01</v>
       </c>
       <c r="V35" s="66">
-        <v>1.34</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="36">
       <c t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">mvse0</t>
+          <t xml:space="preserve">mtjw7</t>
         </is>
       </c>
       <c t="inlineStr" r="B36">
         <is>
-          <t xml:space="preserve">mvse0</t>
+          <t xml:space="preserve">mtjw7</t>
         </is>
       </c>
       <c r="C36" s="66">
-        <v>25.00</v>
+        <v>27.00</v>
       </c>
       <c t="inlineStr" r="D36">
         <is>
@@ -3054,57 +3054,57 @@
       </c>
       <c t="inlineStr" r="E36">
         <is>
-          <t xml:space="preserve">High school</t>
+          <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
       <c r="F36" s="66">
-        <v>0.86</v>
+        <v>1.00</v>
       </c>
       <c r="G36" s="66">
+        <v>0.93</v>
+      </c>
+      <c r="H36" s="66">
+        <v>0.21</v>
+      </c>
+      <c t="inlineStr" r="I36">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J36" s="66">
+        <v>0.95</v>
+      </c>
+      <c r="K36" s="66">
+        <v>0.80</v>
+      </c>
+      <c r="L36" s="66">
+        <v>0.37</v>
+      </c>
+      <c r="M36" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N36" s="66">
+        <v>0.56</v>
+      </c>
+      <c r="O36" s="66">
+        <v>0.54</v>
+      </c>
+      <c r="P36" s="66">
+        <v>0.11</v>
+      </c>
+      <c t="inlineStr" r="Q36">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R36" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S36" s="66">
         <v>0.96</v>
       </c>
-      <c r="H36" s="66">
-        <v>0.93</v>
-      </c>
-      <c t="inlineStr" r="I36">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="J36" s="66">
-        <v>0.93</v>
-      </c>
-      <c r="K36" s="66">
-        <v>0.82</v>
-      </c>
-      <c r="L36" s="66">
-        <v>0.68</v>
-      </c>
-      <c r="M36" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="N36" s="66">
-        <v>0.58</v>
-      </c>
-      <c r="O36" s="66">
-        <v>0.53</v>
-      </c>
-      <c r="P36" s="66">
-        <v>0.60</v>
-      </c>
-      <c t="inlineStr" r="Q36">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="R36" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="S36" s="66">
-        <v>0.90</v>
-      </c>
       <c r="T36" s="66">
-        <v>1.02</v>
+        <v>0.19</v>
       </c>
       <c t="inlineStr" r="U36">
         <is>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="V36" s="66">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="37">
       <c t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">noyy6</t>
+          <t xml:space="preserve">mvse0</t>
         </is>
       </c>
       <c t="inlineStr" r="B37">
         <is>
-          <t xml:space="preserve">noyy6</t>
+          <t xml:space="preserve">mvse0</t>
         </is>
       </c>
       <c r="C37" s="66">
-        <v>23.00</v>
+        <v>25.00</v>
       </c>
       <c t="inlineStr" r="D37">
         <is>
@@ -3136,19 +3136,17 @@
       </c>
       <c t="inlineStr" r="E37">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">High school</t>
         </is>
       </c>
       <c r="F37" s="66">
+        <v>0.86</v>
+      </c>
+      <c r="G37" s="66">
         <v>0.96</v>
       </c>
-      <c r="G37" s="66">
-        <v>0.86</v>
-      </c>
-      <c t="inlineStr" r="H37">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+      <c r="H37" s="66">
+        <v>0.93</v>
       </c>
       <c t="inlineStr" r="I37">
         <is>
@@ -3159,25 +3157,23 @@
         <v>0.93</v>
       </c>
       <c r="K37" s="66">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
       <c r="L37" s="66">
-        <v>0.50</v>
+        <v>0.68</v>
       </c>
       <c r="M37" s="66">
         <v>0.50</v>
       </c>
       <c r="N37" s="66">
+        <v>0.58</v>
+      </c>
+      <c r="O37" s="66">
+        <v>0.53</v>
+      </c>
+      <c r="P37" s="66">
         <v>0.60</v>
       </c>
-      <c r="O37" s="66">
-        <v>0.46</v>
-      </c>
-      <c t="inlineStr" r="P37">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
       <c t="inlineStr" r="Q37">
         <is>
           <t xml:space="preserve">N/A</t>
@@ -3187,12 +3183,10 @@
         <v>1.00</v>
       </c>
       <c r="S37" s="66">
-        <v>0.77</v>
-      </c>
-      <c t="inlineStr" r="T37">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.90</v>
+      </c>
+      <c r="T37" s="66">
+        <v>1.02</v>
       </c>
       <c t="inlineStr" r="U37">
         <is>
@@ -3200,22 +3194,22 @@
         </is>
       </c>
       <c r="V37" s="66">
-        <v>0.99</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="38">
       <c t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">plco6</t>
+          <t xml:space="preserve">noyy6</t>
         </is>
       </c>
       <c t="inlineStr" r="B38">
         <is>
-          <t xml:space="preserve">plco6</t>
+          <t xml:space="preserve">noyy6</t>
         </is>
       </c>
       <c r="C38" s="66">
-        <v>24.00</v>
+        <v>23.00</v>
       </c>
       <c t="inlineStr" r="D38">
         <is>
@@ -3224,17 +3218,19 @@
       </c>
       <c t="inlineStr" r="E38">
         <is>
-          <t xml:space="preserve">Graduate school (Master)</t>
+          <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
       <c r="F38" s="66">
-        <v>1.00</v>
+        <v>0.96</v>
       </c>
       <c r="G38" s="66">
         <v>0.86</v>
       </c>
-      <c r="H38" s="66">
-        <v>0.50</v>
+      <c t="inlineStr" r="H38">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="I38">
         <is>
@@ -3242,25 +3238,27 @@
         </is>
       </c>
       <c r="J38" s="66">
-        <v>0.90</v>
+        <v>0.93</v>
       </c>
       <c r="K38" s="66">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="L38" s="66">
-        <v>0.96</v>
+        <v>0.50</v>
       </c>
       <c r="M38" s="66">
         <v>0.50</v>
       </c>
       <c r="N38" s="66">
-        <v>0.75</v>
+        <v>0.60</v>
       </c>
       <c r="O38" s="66">
-        <v>0.58</v>
-      </c>
-      <c r="P38" s="66">
-        <v>0.26</v>
+        <v>0.46</v>
+      </c>
+      <c t="inlineStr" r="P38">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="Q38">
         <is>
@@ -3273,8 +3271,10 @@
       <c r="S38" s="66">
         <v>0.77</v>
       </c>
-      <c r="T38" s="66">
-        <v>0.34</v>
+      <c t="inlineStr" r="T38">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="U38">
         <is>
@@ -3282,20 +3282,22 @@
         </is>
       </c>
       <c r="V38" s="66">
-        <v>1.47</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="39">
       <c t="inlineStr" r="A39">
         <is>
-          <t xml:space="preserve">pson3</t>
-        </is>
-      </c>
-      <c r="B39" s="66">
-        <v>0.00</v>
+          <t xml:space="preserve">plco6</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B39">
+        <is>
+          <t xml:space="preserve">plco6</t>
+        </is>
       </c>
       <c r="C39" s="66">
-        <v>30.00</v>
+        <v>24.00</v>
       </c>
       <c t="inlineStr" r="D39">
         <is>
@@ -3304,19 +3306,17 @@
       </c>
       <c t="inlineStr" r="E39">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">Graduate school (Master)</t>
         </is>
       </c>
       <c r="F39" s="66">
-        <v>0.79</v>
+        <v>1.00</v>
       </c>
       <c r="G39" s="66">
-        <v>0.71</v>
-      </c>
-      <c t="inlineStr" r="H39">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.86</v>
+      </c>
+      <c r="H39" s="66">
+        <v>0.50</v>
       </c>
       <c t="inlineStr" r="I39">
         <is>
@@ -3324,27 +3324,25 @@
         </is>
       </c>
       <c r="J39" s="66">
-        <v>0.95</v>
+        <v>0.90</v>
       </c>
       <c r="K39" s="66">
-        <v>0.69</v>
+        <v>0.75</v>
       </c>
       <c r="L39" s="66">
-        <v>0.50</v>
+        <v>0.96</v>
       </c>
       <c r="M39" s="66">
         <v>0.50</v>
       </c>
       <c r="N39" s="66">
-        <v>0.49</v>
+        <v>0.75</v>
       </c>
       <c r="O39" s="66">
-        <v>0.44</v>
-      </c>
-      <c t="inlineStr" r="P39">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.58</v>
+      </c>
+      <c r="P39" s="66">
+        <v>0.26</v>
       </c>
       <c t="inlineStr" r="Q39">
         <is>
@@ -3355,12 +3353,10 @@
         <v>1.00</v>
       </c>
       <c r="S39" s="66">
-        <v>0.89</v>
-      </c>
-      <c t="inlineStr" r="T39">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.77</v>
+      </c>
+      <c r="T39" s="66">
+        <v>0.34</v>
       </c>
       <c t="inlineStr" r="U39">
         <is>
@@ -3368,22 +3364,20 @@
         </is>
       </c>
       <c r="V39" s="66">
-        <v>1.00</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="40">
       <c t="inlineStr" r="A40">
         <is>
-          <t xml:space="preserve">pwck3</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B40">
-        <is>
-          <t xml:space="preserve">pwck3</t>
-        </is>
+          <t xml:space="preserve">pson3</t>
+        </is>
+      </c>
+      <c r="B40" s="66">
+        <v>0.00</v>
       </c>
       <c r="C40" s="66">
-        <v>19.00</v>
+        <v>30.00</v>
       </c>
       <c t="inlineStr" r="D40">
         <is>
@@ -3392,17 +3386,19 @@
       </c>
       <c t="inlineStr" r="E40">
         <is>
-          <t xml:space="preserve">High school</t>
+          <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
       <c r="F40" s="66">
-        <v>1.00</v>
+        <v>0.79</v>
       </c>
       <c r="G40" s="66">
-        <v>0.86</v>
-      </c>
-      <c r="H40" s="66">
-        <v>0.29</v>
+        <v>0.71</v>
+      </c>
+      <c t="inlineStr" r="H40">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="I40">
         <is>
@@ -3410,10 +3406,10 @@
         </is>
       </c>
       <c r="J40" s="66">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="K40" s="66">
-        <v>0.50</v>
+        <v>0.69</v>
       </c>
       <c r="L40" s="66">
         <v>0.50</v>
@@ -3422,13 +3418,15 @@
         <v>0.50</v>
       </c>
       <c r="N40" s="66">
-        <v>0.70</v>
+        <v>0.49</v>
       </c>
       <c r="O40" s="66">
-        <v>0.46</v>
-      </c>
-      <c r="P40" s="66">
-        <v>0.14</v>
+        <v>0.44</v>
+      </c>
+      <c t="inlineStr" r="P40">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="Q40">
         <is>
@@ -3439,10 +3437,12 @@
         <v>1.00</v>
       </c>
       <c r="S40" s="66">
-        <v>0.67</v>
-      </c>
-      <c r="T40" s="66">
-        <v>0.21</v>
+        <v>0.89</v>
+      </c>
+      <c t="inlineStr" r="T40">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="U40">
         <is>
@@ -3450,22 +3450,22 @@
         </is>
       </c>
       <c r="V40" s="66">
-        <v>1.37</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="41">
       <c t="inlineStr" r="A41">
         <is>
-          <t xml:space="preserve">qdvg4</t>
+          <t xml:space="preserve">pwck3</t>
         </is>
       </c>
       <c t="inlineStr" r="B41">
         <is>
-          <t xml:space="preserve">Qdvg4</t>
+          <t xml:space="preserve">pwck3</t>
         </is>
       </c>
       <c r="C41" s="66">
-        <v>20.00</v>
+        <v>19.00</v>
       </c>
       <c t="inlineStr" r="D41">
         <is>
@@ -3474,17 +3474,17 @@
       </c>
       <c t="inlineStr" r="E41">
         <is>
-          <t xml:space="preserve">Other</t>
+          <t xml:space="preserve">High school</t>
         </is>
       </c>
       <c r="F41" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G41" s="66">
         <v>0.86</v>
       </c>
-      <c r="G41" s="66">
-        <v>0.71</v>
-      </c>
       <c r="H41" s="66">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c t="inlineStr" r="I41">
         <is>
@@ -3492,10 +3492,10 @@
         </is>
       </c>
       <c r="J41" s="66">
-        <v>0.93</v>
+        <v>0.55</v>
       </c>
       <c r="K41" s="66">
-        <v>0.89</v>
+        <v>0.50</v>
       </c>
       <c r="L41" s="66">
         <v>0.50</v>
@@ -3504,13 +3504,13 @@
         <v>0.50</v>
       </c>
       <c r="N41" s="66">
-        <v>0.58</v>
+        <v>0.70</v>
       </c>
       <c r="O41" s="66">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="P41" s="66">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c t="inlineStr" r="Q41">
         <is>
@@ -3521,10 +3521,10 @@
         <v>1.00</v>
       </c>
       <c r="S41" s="66">
-        <v>0.70</v>
+        <v>0.67</v>
       </c>
       <c r="T41" s="66">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c t="inlineStr" r="U41">
         <is>
@@ -3532,22 +3532,22 @@
         </is>
       </c>
       <c r="V41" s="66">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="42">
       <c t="inlineStr" r="A42">
         <is>
-          <t xml:space="preserve">qgsl9</t>
+          <t xml:space="preserve">qdvg4</t>
         </is>
       </c>
       <c t="inlineStr" r="B42">
         <is>
-          <t xml:space="preserve">qgsl9</t>
+          <t xml:space="preserve">Qdvg4</t>
         </is>
       </c>
       <c r="C42" s="66">
-        <v>21.00</v>
+        <v>20.00</v>
       </c>
       <c t="inlineStr" r="D42">
         <is>
@@ -3556,17 +3556,17 @@
       </c>
       <c t="inlineStr" r="E42">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">Other</t>
         </is>
       </c>
       <c r="F42" s="66">
-        <v>1.00</v>
+        <v>0.86</v>
       </c>
       <c r="G42" s="66">
-        <v>1.00</v>
+        <v>0.71</v>
       </c>
       <c r="H42" s="66">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c t="inlineStr" r="I42">
         <is>
@@ -3574,62 +3574,62 @@
         </is>
       </c>
       <c r="J42" s="66">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="K42" s="66">
-        <v>0.57</v>
+        <v>0.89</v>
       </c>
       <c r="L42" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M42" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N42" s="66">
+        <v>0.58</v>
+      </c>
+      <c r="O42" s="66">
+        <v>0.41</v>
+      </c>
+      <c r="P42" s="66">
+        <v>0.18</v>
+      </c>
+      <c t="inlineStr" r="Q42">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R42" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S42" s="66">
+        <v>0.70</v>
+      </c>
+      <c r="T42" s="66">
         <v>0.31</v>
       </c>
-      <c r="M42" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="N42" s="66">
-        <v>0.76</v>
-      </c>
-      <c r="O42" s="66">
-        <v>0.54</v>
-      </c>
-      <c r="P42" s="66">
-        <v>0.11</v>
-      </c>
-      <c t="inlineStr" r="Q42">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="R42" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="S42" s="66">
-        <v>0.71</v>
-      </c>
-      <c r="T42" s="66">
-        <v>0.14</v>
-      </c>
       <c t="inlineStr" r="U42">
         <is>
           <t xml:space="preserve">N/A</t>
         </is>
       </c>
       <c r="V42" s="66">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="43">
       <c t="inlineStr" r="A43">
         <is>
-          <t xml:space="preserve">qlhb2</t>
+          <t xml:space="preserve">qgsl9</t>
         </is>
       </c>
       <c t="inlineStr" r="B43">
         <is>
-          <t xml:space="preserve">qlhb2</t>
+          <t xml:space="preserve">qgsl9</t>
         </is>
       </c>
       <c r="C43" s="66">
-        <v>22.00</v>
+        <v>21.00</v>
       </c>
       <c t="inlineStr" r="D43">
         <is>
@@ -3638,166 +3638,160 @@
       </c>
       <c t="inlineStr" r="E43">
         <is>
-          <t xml:space="preserve">Graduate school (Master)</t>
+          <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
       <c r="F43" s="66">
         <v>1.00</v>
       </c>
       <c r="G43" s="66">
-        <v>0.75</v>
+        <v>1.00</v>
       </c>
       <c r="H43" s="66">
-        <v>0.39</v>
-      </c>
-      <c r="I43" s="66">
+        <v>0.21</v>
+      </c>
+      <c t="inlineStr" r="I43">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J43" s="66">
+        <v>0.92</v>
+      </c>
+      <c r="K43" s="66">
+        <v>0.57</v>
+      </c>
+      <c r="L43" s="66">
+        <v>0.31</v>
+      </c>
+      <c r="M43" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N43" s="66">
+        <v>0.76</v>
+      </c>
+      <c r="O43" s="66">
+        <v>0.54</v>
+      </c>
+      <c r="P43" s="66">
+        <v>0.11</v>
+      </c>
+      <c t="inlineStr" r="Q43">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R43" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S43" s="66">
+        <v>0.71</v>
+      </c>
+      <c r="T43" s="66">
         <v>0.14</v>
       </c>
-      <c r="J43" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="K43" s="66">
-        <v>0.47</v>
-      </c>
-      <c r="L43" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="M43" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="N43" s="66">
-        <v>0.66</v>
-      </c>
-      <c r="O43" s="66">
-        <v>0.44</v>
-      </c>
-      <c r="P43" s="66">
-        <v>0.20</v>
-      </c>
-      <c r="Q43" s="66">
-        <v>0.07</v>
-      </c>
-      <c r="R43" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="S43" s="66">
-        <v>0.67</v>
-      </c>
-      <c r="T43" s="66">
-        <v>0.30</v>
-      </c>
-      <c r="U43" s="66">
-        <v>0.11</v>
+      <c t="inlineStr" r="U43">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="V43" s="66">
-        <v>1.66</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="44">
       <c t="inlineStr" r="A44">
         <is>
-          <t xml:space="preserve">rlgy8</t>
+          <t xml:space="preserve">qlhb2</t>
         </is>
       </c>
       <c t="inlineStr" r="B44">
         <is>
-          <t xml:space="preserve">rlgy8</t>
+          <t xml:space="preserve">qlhb2</t>
         </is>
       </c>
       <c r="C44" s="66">
-        <v>39.00</v>
+        <v>22.00</v>
       </c>
       <c t="inlineStr" r="D44">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E44">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">Graduate school (Master)</t>
         </is>
       </c>
       <c r="F44" s="66">
-        <v>0.96</v>
+        <v>1.00</v>
       </c>
       <c r="G44" s="66">
-        <v>0.82</v>
-      </c>
-      <c t="inlineStr" r="H44">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I44">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.75</v>
+      </c>
+      <c r="H44" s="66">
+        <v>0.39</v>
+      </c>
+      <c r="I44" s="66">
+        <v>0.14</v>
       </c>
       <c r="J44" s="66">
-        <v>0.95</v>
+        <v>0.50</v>
       </c>
       <c r="K44" s="66">
-        <v>0.79</v>
+        <v>0.47</v>
       </c>
       <c r="L44" s="66">
-        <v>0.48</v>
+        <v>0.50</v>
       </c>
       <c r="M44" s="66">
         <v>0.50</v>
       </c>
       <c r="N44" s="66">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="O44" s="66">
-        <v>0.45</v>
-      </c>
-      <c t="inlineStr" r="P44">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="Q44">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.44</v>
+      </c>
+      <c r="P44" s="66">
+        <v>0.20</v>
+      </c>
+      <c r="Q44" s="66">
+        <v>0.07</v>
       </c>
       <c r="R44" s="66">
         <v>1.00</v>
       </c>
       <c r="S44" s="66">
-        <v>0.84</v>
-      </c>
-      <c t="inlineStr" r="T44">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="U44">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.67</v>
+      </c>
+      <c r="T44" s="66">
+        <v>0.30</v>
+      </c>
+      <c r="U44" s="66">
+        <v>0.11</v>
       </c>
       <c r="V44" s="66">
-        <v>0.99</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="45">
       <c t="inlineStr" r="A45">
         <is>
-          <t xml:space="preserve">rnkr7</t>
+          <t xml:space="preserve">rlgy8</t>
         </is>
       </c>
       <c t="inlineStr" r="B45">
         <is>
-          <t xml:space="preserve">rnkr7</t>
+          <t xml:space="preserve">rlgy8</t>
         </is>
       </c>
       <c r="C45" s="66">
-        <v>25.00</v>
+        <v>39.00</v>
       </c>
       <c t="inlineStr" r="D45">
         <is>
-          <t xml:space="preserve">Non-relevant</t>
+          <t xml:space="preserve">Male</t>
         </is>
       </c>
       <c t="inlineStr" r="E45">
@@ -3806,13 +3800,15 @@
         </is>
       </c>
       <c r="F45" s="66">
-        <v>1.00</v>
+        <v>0.96</v>
       </c>
       <c r="G45" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="H45" s="66">
-        <v>0.29</v>
+        <v>0.82</v>
+      </c>
+      <c t="inlineStr" r="H45">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="I45">
         <is>
@@ -3820,25 +3816,27 @@
         </is>
       </c>
       <c r="J45" s="66">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="K45" s="66">
-        <v>0.68</v>
+        <v>0.79</v>
       </c>
       <c r="L45" s="66">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="M45" s="66">
         <v>0.50</v>
       </c>
       <c r="N45" s="66">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="O45" s="66">
-        <v>0.67</v>
-      </c>
-      <c r="P45" s="66">
-        <v>0.15</v>
+        <v>0.45</v>
+      </c>
+      <c t="inlineStr" r="P45">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="Q45">
         <is>
@@ -3849,10 +3847,12 @@
         <v>1.00</v>
       </c>
       <c r="S45" s="66">
-        <v>1.09</v>
-      </c>
-      <c r="T45" s="66">
-        <v>0.24</v>
+        <v>0.84</v>
+      </c>
+      <c t="inlineStr" r="T45">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="U45">
         <is>
@@ -3860,22 +3860,22 @@
         </is>
       </c>
       <c r="V45" s="66">
-        <v>1.38</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="46">
       <c t="inlineStr" r="A46">
         <is>
-          <t xml:space="preserve">rodf4</t>
+          <t xml:space="preserve">rnkr7</t>
         </is>
       </c>
       <c t="inlineStr" r="B46">
         <is>
-          <t xml:space="preserve">rodf4</t>
+          <t xml:space="preserve">rnkr7</t>
         </is>
       </c>
       <c r="C46" s="66">
-        <v>21.00</v>
+        <v>25.00</v>
       </c>
       <c t="inlineStr" r="D46">
         <is>
@@ -3888,13 +3888,13 @@
         </is>
       </c>
       <c r="F46" s="66">
-        <v>0.96</v>
+        <v>1.00</v>
       </c>
       <c r="G46" s="66">
-        <v>0.61</v>
+        <v>1.00</v>
       </c>
       <c r="H46" s="66">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
       <c t="inlineStr" r="I46">
         <is>
@@ -3902,25 +3902,25 @@
         </is>
       </c>
       <c r="J46" s="66">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="K46" s="66">
+        <v>0.68</v>
+      </c>
+      <c r="L46" s="66">
+        <v>0.34</v>
+      </c>
+      <c r="M46" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N46" s="66">
+        <v>0.62</v>
+      </c>
+      <c r="O46" s="66">
         <v>0.67</v>
       </c>
-      <c r="L46" s="66">
-        <v>0.31</v>
-      </c>
-      <c r="M46" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="N46" s="66">
-        <v>0.58</v>
-      </c>
-      <c r="O46" s="66">
-        <v>0.37</v>
-      </c>
       <c r="P46" s="66">
-        <v>0.07</v>
+        <v>0.15</v>
       </c>
       <c t="inlineStr" r="Q46">
         <is>
@@ -3931,10 +3931,10 @@
         <v>1.00</v>
       </c>
       <c r="S46" s="66">
-        <v>0.65</v>
+        <v>1.09</v>
       </c>
       <c r="T46" s="66">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c t="inlineStr" r="U46">
         <is>
@@ -3942,98 +3942,106 @@
         </is>
       </c>
       <c r="V46" s="66">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="47">
       <c t="inlineStr" r="A47">
         <is>
-          <t xml:space="preserve">rqed8</t>
-        </is>
-      </c>
-      <c r="B47" s="66">
-        <v>0.00</v>
+          <t xml:space="preserve">rodf4</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B47">
+        <is>
+          <t xml:space="preserve">rodf4</t>
+        </is>
       </c>
       <c r="C47" s="66">
-        <v>22.00</v>
+        <v>21.00</v>
       </c>
       <c t="inlineStr" r="D47">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Non-relevant</t>
         </is>
       </c>
       <c t="inlineStr" r="E47">
         <is>
-          <t xml:space="preserve">Graduate school (Master)</t>
+          <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
       <c r="F47" s="66">
-        <v>1.00</v>
+        <v>0.96</v>
       </c>
       <c r="G47" s="66">
-        <v>0.86</v>
+        <v>0.61</v>
       </c>
       <c r="H47" s="66">
-        <v>0.39</v>
-      </c>
-      <c r="I47" s="66">
-        <v>0.25</v>
+        <v>0.14</v>
+      </c>
+      <c t="inlineStr" r="I47">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="J47" s="66">
-        <v>0.81</v>
+        <v>0.95</v>
       </c>
       <c r="K47" s="66">
-        <v>0.50</v>
+        <v>0.67</v>
       </c>
       <c r="L47" s="66">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="M47" s="66">
-        <v>0.06</v>
+        <v>0.50</v>
       </c>
       <c r="N47" s="66">
-        <v>0.69</v>
+        <v>0.58</v>
       </c>
       <c r="O47" s="66">
-        <v>0.46</v>
+        <v>0.37</v>
       </c>
       <c r="P47" s="66">
-        <v>0.20</v>
-      </c>
-      <c r="Q47" s="66">
+        <v>0.07</v>
+      </c>
+      <c t="inlineStr" r="Q47">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R47" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S47" s="66">
+        <v>0.65</v>
+      </c>
+      <c r="T47" s="66">
         <v>0.12</v>
       </c>
-      <c r="R47" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="S47" s="66">
-        <v>0.67</v>
-      </c>
-      <c r="T47" s="66">
-        <v>0.29</v>
-      </c>
-      <c r="U47" s="66">
-        <v>0.18</v>
+      <c t="inlineStr" r="U47">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="V47" s="66">
-        <v>1.73</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="48">
       <c t="inlineStr" r="A48">
         <is>
-          <t xml:space="preserve">rvax5</t>
+          <t xml:space="preserve">rqed8</t>
         </is>
       </c>
       <c r="B48" s="66">
         <v>0.00</v>
       </c>
       <c r="C48" s="66">
-        <v>26.00</v>
+        <v>22.00</v>
       </c>
       <c t="inlineStr" r="D48">
         <is>
-          <t xml:space="preserve">Female</t>
+          <t xml:space="preserve">Male</t>
         </is>
       </c>
       <c t="inlineStr" r="E48">
@@ -4045,77 +4053,69 @@
         <v>1.00</v>
       </c>
       <c r="G48" s="66">
-        <v>1.00</v>
+        <v>0.86</v>
       </c>
       <c r="H48" s="66">
-        <v>0.36</v>
-      </c>
-      <c t="inlineStr" r="I48">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.39</v>
+      </c>
+      <c r="I48" s="66">
+        <v>0.25</v>
       </c>
       <c r="J48" s="66">
-        <v>0.95</v>
+        <v>0.81</v>
       </c>
       <c r="K48" s="66">
-        <v>0.76</v>
+        <v>0.50</v>
       </c>
       <c r="L48" s="66">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="M48" s="66">
-        <v>0.50</v>
+        <v>0.06</v>
       </c>
       <c r="N48" s="66">
-        <v>0.56</v>
+        <v>0.69</v>
       </c>
       <c r="O48" s="66">
-        <v>0.62</v>
+        <v>0.46</v>
       </c>
       <c r="P48" s="66">
+        <v>0.20</v>
+      </c>
+      <c r="Q48" s="66">
+        <v>0.12</v>
+      </c>
+      <c r="R48" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S48" s="66">
+        <v>0.67</v>
+      </c>
+      <c r="T48" s="66">
+        <v>0.29</v>
+      </c>
+      <c r="U48" s="66">
         <v>0.18</v>
       </c>
-      <c t="inlineStr" r="Q48">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="R48" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="S48" s="66">
-        <v>1.10</v>
-      </c>
-      <c r="T48" s="66">
-        <v>0.32</v>
-      </c>
-      <c t="inlineStr" r="U48">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
       <c r="V48" s="66">
-        <v>1.43</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="49">
       <c t="inlineStr" r="A49">
         <is>
-          <t xml:space="preserve">sjnh6</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B49">
-        <is>
-          <t xml:space="preserve">sjnh6</t>
-        </is>
+          <t xml:space="preserve">rsnb6</t>
+        </is>
+      </c>
+      <c r="B49" s="66">
+        <v>0.00</v>
       </c>
       <c r="C49" s="66">
-        <v>23.00</v>
+        <v>29.00</v>
       </c>
       <c t="inlineStr" r="D49">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E49">
@@ -4127,7 +4127,7 @@
         <v>1.00</v>
       </c>
       <c r="G49" s="66">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c t="inlineStr" r="H49">
         <is>
@@ -4140,39 +4140,39 @@
         </is>
       </c>
       <c r="J49" s="66">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="K49" s="66">
+        <v>0.72</v>
+      </c>
+      <c r="L49" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M49" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N49" s="66">
+        <v>0.63</v>
+      </c>
+      <c r="O49" s="66">
+        <v>0.44</v>
+      </c>
+      <c t="inlineStr" r="P49">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q49">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R49" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S49" s="66">
         <v>0.70</v>
       </c>
-      <c r="L49" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="M49" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="N49" s="66">
-        <v>0.61</v>
-      </c>
-      <c r="O49" s="66">
-        <v>0.48</v>
-      </c>
-      <c t="inlineStr" r="P49">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="Q49">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="R49" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="S49" s="66">
-        <v>0.79</v>
-      </c>
       <c t="inlineStr" r="T49">
         <is>
           <t xml:space="preserve">N/A</t>
@@ -4184,43 +4184,39 @@
         </is>
       </c>
       <c r="V49" s="66">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="50">
       <c t="inlineStr" r="A50">
         <is>
-          <t xml:space="preserve">swbd5</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B50">
-        <is>
-          <t xml:space="preserve">swbd5</t>
-        </is>
+          <t xml:space="preserve">rvax5</t>
+        </is>
+      </c>
+      <c r="B50" s="66">
+        <v>0.00</v>
       </c>
       <c r="C50" s="66">
-        <v>20.00</v>
+        <v>26.00</v>
       </c>
       <c t="inlineStr" r="D50">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E50">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">Graduate school (Master)</t>
         </is>
       </c>
       <c r="F50" s="66">
         <v>1.00</v>
       </c>
       <c r="G50" s="66">
-        <v>0.96</v>
-      </c>
-      <c t="inlineStr" r="H50">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>1.00</v>
+      </c>
+      <c r="H50" s="66">
+        <v>0.36</v>
       </c>
       <c t="inlineStr" r="I50">
         <is>
@@ -4228,27 +4224,25 @@
         </is>
       </c>
       <c r="J50" s="66">
-        <v>0.57</v>
+        <v>0.95</v>
       </c>
       <c r="K50" s="66">
-        <v>0.50</v>
+        <v>0.76</v>
       </c>
       <c r="L50" s="66">
-        <v>0.50</v>
+        <v>0.04</v>
       </c>
       <c r="M50" s="66">
         <v>0.50</v>
       </c>
       <c r="N50" s="66">
-        <v>0.58</v>
+        <v>0.56</v>
       </c>
       <c r="O50" s="66">
-        <v>0.57</v>
-      </c>
-      <c t="inlineStr" r="P50">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.62</v>
+      </c>
+      <c r="P50" s="66">
+        <v>0.18</v>
       </c>
       <c t="inlineStr" r="Q50">
         <is>
@@ -4259,12 +4253,10 @@
         <v>1.00</v>
       </c>
       <c r="S50" s="66">
-        <v>0.98</v>
-      </c>
-      <c t="inlineStr" r="T50">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>1.10</v>
+      </c>
+      <c r="T50" s="66">
+        <v>0.32</v>
       </c>
       <c t="inlineStr" r="U50">
         <is>
@@ -4272,36 +4264,38 @@
         </is>
       </c>
       <c r="V50" s="66">
-        <v>1.00</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="51">
       <c t="inlineStr" r="A51">
         <is>
-          <t xml:space="preserve">sxhv6</t>
-        </is>
-      </c>
-      <c r="B51" s="66">
-        <v>0.00</v>
+          <t xml:space="preserve">sjnh6</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B51">
+        <is>
+          <t xml:space="preserve">sjnh6</t>
+        </is>
       </c>
       <c r="C51" s="66">
         <v>23.00</v>
       </c>
       <c t="inlineStr" r="D51">
         <is>
-          <t xml:space="preserve">Non-binary</t>
+          <t xml:space="preserve">Male</t>
         </is>
       </c>
       <c t="inlineStr" r="E51">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">Graduate school (Master)</t>
         </is>
       </c>
       <c r="F51" s="66">
-        <v>0.89</v>
+        <v>1.00</v>
       </c>
       <c r="G51" s="66">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c t="inlineStr" r="H51">
         <is>
@@ -4314,10 +4308,10 @@
         </is>
       </c>
       <c r="J51" s="66">
-        <v>0.91</v>
+        <v>0.79</v>
       </c>
       <c r="K51" s="66">
-        <v>0.75</v>
+        <v>0.70</v>
       </c>
       <c r="L51" s="66">
         <v>0.50</v>
@@ -4326,10 +4320,10 @@
         <v>0.50</v>
       </c>
       <c r="N51" s="66">
-        <v>0.56</v>
+        <v>0.61</v>
       </c>
       <c r="O51" s="66">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c t="inlineStr" r="P51">
         <is>
@@ -4345,7 +4339,7 @@
         <v>1.00</v>
       </c>
       <c r="S51" s="66">
-        <v>0.92</v>
+        <v>0.79</v>
       </c>
       <c t="inlineStr" r="T51">
         <is>
@@ -4358,45 +4352,43 @@
         </is>
       </c>
       <c r="V51" s="66">
-        <v>1.00</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="52">
       <c t="inlineStr" r="A52">
         <is>
-          <t xml:space="preserve">txeg9</t>
+          <t xml:space="preserve">swbd5</t>
         </is>
       </c>
       <c t="inlineStr" r="B52">
         <is>
-          <t xml:space="preserve">txeg9</t>
+          <t xml:space="preserve">swbd5</t>
         </is>
       </c>
       <c r="C52" s="66">
-        <v>18.00</v>
+        <v>20.00</v>
       </c>
       <c t="inlineStr" r="D52">
         <is>
-          <t xml:space="preserve">Female</t>
+          <t xml:space="preserve">Male</t>
         </is>
       </c>
       <c t="inlineStr" r="E52">
         <is>
-          <t xml:space="preserve">High school</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="F52">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="G52">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="H52" s="66">
-        <v>0.21</v>
+          <t xml:space="preserve">College (Bachelor)</t>
+        </is>
+      </c>
+      <c r="F52" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G52" s="66">
+        <v>0.96</v>
+      </c>
+      <c t="inlineStr" r="H52">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="I52">
         <is>
@@ -4404,29 +4396,27 @@
         </is>
       </c>
       <c r="J52" s="66">
+        <v>0.57</v>
+      </c>
+      <c r="K52" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="L52" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="M52" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N52" s="66">
         <v>0.58</v>
       </c>
-      <c r="K52" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="L52" s="66">
-        <v>0.28</v>
-      </c>
-      <c r="M52" s="66">
-        <v>0.50</v>
-      </c>
-      <c t="inlineStr" r="N52">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="O52">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="P52" s="66">
-        <v>0.11</v>
+      <c r="O52" s="66">
+        <v>0.57</v>
+      </c>
+      <c t="inlineStr" r="P52">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="Q52">
         <is>
@@ -4436,10 +4426,8 @@
       <c r="R52" s="66">
         <v>1.00</v>
       </c>
-      <c t="inlineStr" r="S52">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+      <c r="S52" s="66">
+        <v>0.98</v>
       </c>
       <c t="inlineStr" r="T52">
         <is>
@@ -4452,38 +4440,36 @@
         </is>
       </c>
       <c r="V52" s="66">
-        <v>1.23</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="53">
       <c t="inlineStr" r="A53">
         <is>
-          <t xml:space="preserve">ugqo0</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B53">
-        <is>
-          <t xml:space="preserve">ugqo0</t>
-        </is>
+          <t xml:space="preserve">sxhv6</t>
+        </is>
+      </c>
+      <c r="B53" s="66">
+        <v>0.00</v>
       </c>
       <c r="C53" s="66">
-        <v>24.00</v>
+        <v>23.00</v>
       </c>
       <c t="inlineStr" r="D53">
         <is>
-          <t xml:space="preserve">Female</t>
+          <t xml:space="preserve">Non-binary</t>
         </is>
       </c>
       <c t="inlineStr" r="E53">
         <is>
-          <t xml:space="preserve">High school</t>
+          <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
       <c r="F53" s="66">
-        <v>0.14</v>
+        <v>0.89</v>
       </c>
       <c r="G53" s="66">
-        <v>1.00</v>
+        <v>0.82</v>
       </c>
       <c t="inlineStr" r="H53">
         <is>
@@ -4496,10 +4482,10 @@
         </is>
       </c>
       <c r="J53" s="66">
-        <v>0.54</v>
+        <v>0.91</v>
       </c>
       <c r="K53" s="66">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="L53" s="66">
         <v>0.50</v>
@@ -4508,10 +4494,10 @@
         <v>0.50</v>
       </c>
       <c r="N53" s="66">
-        <v>0.07</v>
+        <v>0.56</v>
       </c>
       <c r="O53" s="66">
-        <v>0.63</v>
+        <v>0.51</v>
       </c>
       <c t="inlineStr" r="P53">
         <is>
@@ -4527,7 +4513,7 @@
         <v>1.00</v>
       </c>
       <c r="S53" s="66">
-        <v>8.80</v>
+        <v>0.92</v>
       </c>
       <c t="inlineStr" r="T53">
         <is>
@@ -4540,22 +4526,22 @@
         </is>
       </c>
       <c r="V53" s="66">
-        <v>0.48</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="54">
       <c t="inlineStr" r="A54">
         <is>
-          <t xml:space="preserve">uicn9</t>
+          <t xml:space="preserve">txeg9</t>
         </is>
       </c>
       <c t="inlineStr" r="B54">
         <is>
-          <t xml:space="preserve">uicn9</t>
+          <t xml:space="preserve">txeg9</t>
         </is>
       </c>
       <c r="C54" s="66">
-        <v>23.00</v>
+        <v>18.00</v>
       </c>
       <c t="inlineStr" r="D54">
         <is>
@@ -4564,17 +4550,21 @@
       </c>
       <c t="inlineStr" r="E54">
         <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="F54" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="G54" s="66">
-        <v>1.00</v>
+          <t xml:space="preserve">High school</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F54">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G54">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="H54" s="66">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c t="inlineStr" r="I54">
         <is>
@@ -4582,25 +4572,29 @@
         </is>
       </c>
       <c r="J54" s="66">
-        <v>0.92</v>
+        <v>0.58</v>
       </c>
       <c r="K54" s="66">
-        <v>0.72</v>
+        <v>0.50</v>
       </c>
       <c r="L54" s="66">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
       <c r="M54" s="66">
         <v>0.50</v>
       </c>
-      <c r="N54" s="66">
-        <v>0.63</v>
-      </c>
-      <c r="O54" s="66">
-        <v>0.59</v>
+      <c t="inlineStr" r="N54">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="O54">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="P54" s="66">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c t="inlineStr" r="Q54">
         <is>
@@ -4610,11 +4604,15 @@
       <c r="R54" s="66">
         <v>1.00</v>
       </c>
-      <c r="S54" s="66">
-        <v>0.93</v>
-      </c>
-      <c r="T54" s="66">
-        <v>0.25</v>
+      <c t="inlineStr" r="S54">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="T54">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="U54">
         <is>
@@ -4622,18 +4620,18 @@
         </is>
       </c>
       <c r="V54" s="66">
-        <v>1.40</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="55">
       <c t="inlineStr" r="A55">
         <is>
-          <t xml:space="preserve">usjs8</t>
+          <t xml:space="preserve">ugqo0</t>
         </is>
       </c>
       <c t="inlineStr" r="B55">
         <is>
-          <t xml:space="preserve">usjs8</t>
+          <t xml:space="preserve">ugqo0</t>
         </is>
       </c>
       <c r="C55" s="66">
@@ -4650,68 +4648,82 @@
         </is>
       </c>
       <c r="F55" s="66">
-        <v>0.96</v>
+        <v>0.14</v>
       </c>
       <c r="G55" s="66">
-        <v>0.89</v>
-      </c>
-      <c r="H55" s="66">
-        <v>0.57</v>
-      </c>
-      <c r="I55" s="66">
-        <v>0.18</v>
+        <v>1.00</v>
+      </c>
+      <c t="inlineStr" r="H55">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I55">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="J55" s="66">
-        <v>0.56</v>
+        <v>0.54</v>
       </c>
       <c r="K55" s="66">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="L55" s="66">
-        <v>0.52</v>
+        <v>0.50</v>
       </c>
       <c r="M55" s="66">
-        <v>0.51</v>
+        <v>0.50</v>
       </c>
       <c r="N55" s="66">
-        <v>0.49</v>
+        <v>0.07</v>
       </c>
       <c r="O55" s="66">
-        <v>0.55</v>
-      </c>
-      <c r="P55" s="66">
-        <v>0.30</v>
-      </c>
-      <c r="Q55" s="66">
-        <v>0.09</v>
+        <v>0.63</v>
+      </c>
+      <c t="inlineStr" r="P55">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q55">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="R55" s="66">
         <v>1.00</v>
       </c>
       <c r="S55" s="66">
-        <v>1.12</v>
-      </c>
-      <c r="T55" s="66">
-        <v>0.62</v>
-      </c>
-      <c r="U55" s="66">
-        <v>0.18</v>
+        <v>8.80</v>
+      </c>
+      <c t="inlineStr" r="T55">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U55">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="V55" s="66">
-        <v>1.78</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="56">
       <c t="inlineStr" r="A56">
         <is>
-          <t xml:space="preserve">uwfo3</t>
-        </is>
-      </c>
-      <c r="B56" s="66">
-        <v>0.00</v>
+          <t xml:space="preserve">uicn9</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B56">
+        <is>
+          <t xml:space="preserve">uicn9</t>
+        </is>
       </c>
       <c r="C56" s="66">
-        <v>21.00</v>
+        <v>23.00</v>
       </c>
       <c t="inlineStr" r="D56">
         <is>
@@ -4720,158 +4732,158 @@
       </c>
       <c t="inlineStr" r="E56">
         <is>
-          <t xml:space="preserve">High school</t>
+          <t xml:space="preserve">N/A</t>
         </is>
       </c>
       <c r="F56" s="66">
-        <v>0.86</v>
+        <v>1.00</v>
       </c>
       <c r="G56" s="66">
-        <v>0.75</v>
+        <v>1.00</v>
       </c>
       <c r="H56" s="66">
         <v>0.32</v>
       </c>
-      <c r="I56" s="66">
-        <v>0.25</v>
+      <c t="inlineStr" r="I56">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="J56" s="66">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="K56" s="66">
         <v>0.72</v>
       </c>
       <c r="L56" s="66">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="M56" s="66">
-        <v>0.17</v>
+        <v>0.50</v>
       </c>
       <c r="N56" s="66">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
       <c r="O56" s="66">
-        <v>0.41</v>
+        <v>0.59</v>
       </c>
       <c r="P56" s="66">
         <v>0.16</v>
       </c>
-      <c r="Q56" s="66">
-        <v>0.13</v>
+      <c t="inlineStr" r="Q56">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="R56" s="66">
         <v>1.00</v>
       </c>
       <c r="S56" s="66">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="T56" s="66">
-        <v>0.30</v>
-      </c>
-      <c r="U56" s="66">
-        <v>0.24</v>
+        <v>0.25</v>
+      </c>
+      <c t="inlineStr" r="U56">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="V56" s="66">
-        <v>1.77</v>
+        <v>1.40</v>
       </c>
     </row>
     <row r="57">
       <c t="inlineStr" r="A57">
         <is>
-          <t xml:space="preserve">uyxx3</t>
-        </is>
-      </c>
-      <c r="B57" s="66">
-        <v>0.00</v>
+          <t xml:space="preserve">usjs8</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B57">
+        <is>
+          <t xml:space="preserve">usjs8</t>
+        </is>
       </c>
       <c r="C57" s="66">
-        <v>26.00</v>
+        <v>24.00</v>
       </c>
       <c t="inlineStr" r="D57">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E57">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">High school</t>
         </is>
       </c>
       <c r="F57" s="66">
-        <v>1.00</v>
+        <v>0.96</v>
       </c>
       <c r="G57" s="66">
-        <v>1.00</v>
+        <v>0.89</v>
       </c>
       <c r="H57" s="66">
-        <v>0.14</v>
-      </c>
-      <c t="inlineStr" r="I57">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.57</v>
+      </c>
+      <c r="I57" s="66">
+        <v>0.18</v>
       </c>
       <c r="J57" s="66">
-        <v>0.93</v>
+        <v>0.56</v>
       </c>
       <c r="K57" s="66">
-        <v>0.77</v>
+        <v>0.51</v>
       </c>
       <c r="L57" s="66">
-        <v>0.35</v>
+        <v>0.52</v>
       </c>
       <c r="M57" s="66">
-        <v>0.50</v>
+        <v>0.51</v>
       </c>
       <c r="N57" s="66">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="O57" s="66">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
       <c r="P57" s="66">
-        <v>0.07</v>
-      </c>
-      <c t="inlineStr" r="Q57">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.30</v>
+      </c>
+      <c r="Q57" s="66">
+        <v>0.09</v>
       </c>
       <c r="R57" s="66">
         <v>1.00</v>
       </c>
       <c r="S57" s="66">
-        <v>0.92</v>
+        <v>1.12</v>
       </c>
       <c r="T57" s="66">
-        <v>0.11</v>
-      </c>
-      <c t="inlineStr" r="U57">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.62</v>
+      </c>
+      <c r="U57" s="66">
+        <v>0.18</v>
       </c>
       <c r="V57" s="66">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="58">
       <c t="inlineStr" r="A58">
         <is>
-          <t xml:space="preserve">wjob1</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B58">
-        <is>
-          <t xml:space="preserve">wjob1</t>
-        </is>
+          <t xml:space="preserve">uwfo3</t>
+        </is>
+      </c>
+      <c r="B58" s="66">
+        <v>0.00</v>
       </c>
       <c r="C58" s="66">
-        <v>44.00</v>
+        <v>21.00</v>
       </c>
       <c t="inlineStr" r="D58">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E58">
@@ -4880,74 +4892,72 @@
         </is>
       </c>
       <c r="F58" s="66">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="G58" s="66">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="H58" s="66">
-        <v>0.54</v>
+        <v>0.32</v>
       </c>
       <c r="I58" s="66">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="J58" s="66">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="K58" s="66">
-        <v>0.80</v>
+        <v>0.72</v>
       </c>
       <c r="L58" s="66">
-        <v>0.74</v>
+        <v>0.26</v>
       </c>
       <c r="M58" s="66">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="N58" s="66">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="O58" s="66">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="P58" s="66">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
       <c r="Q58" s="66">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="R58" s="66">
         <v>1.00</v>
       </c>
       <c r="S58" s="66">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="T58" s="66">
-        <v>0.52</v>
+        <v>0.30</v>
       </c>
       <c r="U58" s="66">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="V58" s="66">
-        <v>1.80</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="59">
       <c t="inlineStr" r="A59">
         <is>
-          <t xml:space="preserve">xqls8</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B59">
-        <is>
-          <t xml:space="preserve">xqls8</t>
-        </is>
+          <t xml:space="preserve">uyxx3</t>
+        </is>
+      </c>
+      <c r="B59" s="66">
+        <v>0.00</v>
       </c>
       <c r="C59" s="66">
-        <v>21.00</v>
+        <v>26.00</v>
       </c>
       <c t="inlineStr" r="D59">
         <is>
-          <t xml:space="preserve">Female</t>
+          <t xml:space="preserve">Male</t>
         </is>
       </c>
       <c t="inlineStr" r="E59">
@@ -4959,7 +4969,7 @@
         <v>1.00</v>
       </c>
       <c r="G59" s="66">
-        <v>0.86</v>
+        <v>1.00</v>
       </c>
       <c r="H59" s="66">
         <v>0.14</v>
@@ -4973,19 +4983,19 @@
         <v>0.93</v>
       </c>
       <c r="K59" s="66">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="L59" s="66">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="M59" s="66">
         <v>0.50</v>
       </c>
       <c r="N59" s="66">
-        <v>0.76</v>
+        <v>0.65</v>
       </c>
       <c r="O59" s="66">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="P59" s="66">
         <v>0.07</v>
@@ -4999,10 +5009,10 @@
         <v>1.00</v>
       </c>
       <c r="S59" s="66">
-        <v>0.64</v>
+        <v>0.92</v>
       </c>
       <c r="T59" s="66">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c t="inlineStr" r="U59">
         <is>
@@ -5010,26 +5020,26 @@
         </is>
       </c>
       <c r="V59" s="66">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="60">
       <c t="inlineStr" r="A60">
         <is>
-          <t xml:space="preserve">ymoq6</t>
+          <t xml:space="preserve">wjob1</t>
         </is>
       </c>
       <c t="inlineStr" r="B60">
         <is>
-          <t xml:space="preserve">ymoq6</t>
+          <t xml:space="preserve">wjob1</t>
         </is>
       </c>
       <c r="C60" s="66">
-        <v>22.00</v>
+        <v>44.00</v>
       </c>
       <c t="inlineStr" r="D60">
         <is>
-          <t xml:space="preserve">Female</t>
+          <t xml:space="preserve">Male</t>
         </is>
       </c>
       <c t="inlineStr" r="E60">
@@ -5038,154 +5048,152 @@
         </is>
       </c>
       <c r="F60" s="66">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="G60" s="66">
-        <v>0.57</v>
-      </c>
-      <c t="inlineStr" r="H60">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I60">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.71</v>
+      </c>
+      <c r="H60" s="66">
+        <v>0.54</v>
+      </c>
+      <c r="I60" s="66">
+        <v>0.18</v>
       </c>
       <c r="J60" s="66">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="K60" s="66">
-        <v>0.73</v>
+        <v>0.80</v>
       </c>
       <c r="L60" s="66">
-        <v>0.50</v>
+        <v>0.74</v>
       </c>
       <c r="M60" s="66">
-        <v>0.50</v>
+        <v>0.33</v>
       </c>
       <c r="N60" s="66">
-        <v>0.58</v>
+        <v>0.52</v>
       </c>
       <c r="O60" s="66">
-        <v>0.32</v>
-      </c>
-      <c t="inlineStr" r="P60">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="Q60">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.38</v>
+      </c>
+      <c r="P60" s="66">
+        <v>0.27</v>
+      </c>
+      <c r="Q60" s="66">
+        <v>0.09</v>
       </c>
       <c r="R60" s="66">
         <v>1.00</v>
       </c>
       <c r="S60" s="66">
-        <v>0.56</v>
-      </c>
-      <c t="inlineStr" r="T60">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="U60">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.72</v>
+      </c>
+      <c r="T60" s="66">
+        <v>0.52</v>
+      </c>
+      <c r="U60" s="66">
+        <v>0.17</v>
       </c>
       <c r="V60" s="66">
-        <v>0.94</v>
+        <v>1.80</v>
       </c>
     </row>
     <row r="61">
       <c t="inlineStr" r="A61">
         <is>
-          <t xml:space="preserve">yozx4</t>
-        </is>
-      </c>
-      <c r="B61" s="66">
-        <v>0.00</v>
+          <t xml:space="preserve">xqls8</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B61">
+        <is>
+          <t xml:space="preserve">xqls8</t>
+        </is>
       </c>
       <c r="C61" s="66">
-        <v>18.00</v>
+        <v>21.00</v>
       </c>
       <c t="inlineStr" r="D61">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E61">
         <is>
-          <t xml:space="preserve">High school</t>
+          <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
       <c r="F61" s="66">
         <v>1.00</v>
       </c>
       <c r="G61" s="66">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="H61" s="66">
-        <v>0.36</v>
-      </c>
-      <c r="I61" s="66">
-        <v>0.18</v>
+        <v>0.14</v>
+      </c>
+      <c t="inlineStr" r="I61">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="J61" s="66">
-        <v>0.90</v>
+        <v>0.93</v>
       </c>
       <c r="K61" s="66">
-        <v>0.62</v>
+        <v>0.74</v>
       </c>
       <c r="L61" s="66">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="M61" s="66">
-        <v>0.06</v>
+        <v>0.50</v>
       </c>
       <c r="N61" s="66">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="O61" s="66">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="P61" s="66">
-        <v>0.18</v>
-      </c>
-      <c r="Q61" s="66">
+        <v>0.07</v>
+      </c>
+      <c t="inlineStr" r="Q61">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R61" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S61" s="66">
+        <v>0.64</v>
+      </c>
+      <c r="T61" s="66">
         <v>0.09</v>
       </c>
-      <c r="R61" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="S61" s="66">
-        <v>0.59</v>
-      </c>
-      <c r="T61" s="66">
-        <v>0.25</v>
-      </c>
-      <c r="U61" s="66">
-        <v>0.12</v>
+      <c t="inlineStr" r="U61">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="V61" s="66">
-        <v>1.64</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="62">
       <c t="inlineStr" r="A62">
         <is>
-          <t xml:space="preserve">yzud1</t>
-        </is>
-      </c>
-      <c r="B62" s="66">
-        <v>0.00</v>
+          <t xml:space="preserve">ymoq6</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B62">
+        <is>
+          <t xml:space="preserve">ymoq6</t>
+        </is>
       </c>
       <c r="C62" s="66">
-        <v>20.00</v>
+        <v>22.00</v>
       </c>
       <c t="inlineStr" r="D62">
         <is>
@@ -5198,13 +5206,15 @@
         </is>
       </c>
       <c r="F62" s="66">
-        <v>1.00</v>
+        <v>0.86</v>
       </c>
       <c r="G62" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="H62" s="66">
-        <v>0.29</v>
+        <v>0.57</v>
+      </c>
+      <c t="inlineStr" r="H62">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="I62">
         <is>
@@ -5215,22 +5225,24 @@
         <v>0.93</v>
       </c>
       <c r="K62" s="66">
-        <v>0.92</v>
+        <v>0.73</v>
       </c>
       <c r="L62" s="66">
-        <v>0.30</v>
+        <v>0.50</v>
       </c>
       <c r="M62" s="66">
         <v>0.50</v>
       </c>
       <c r="N62" s="66">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="O62" s="66">
-        <v>0.62</v>
-      </c>
-      <c r="P62" s="66">
-        <v>0.14</v>
+        <v>0.32</v>
+      </c>
+      <c t="inlineStr" r="P62">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="Q62">
         <is>
@@ -5241,10 +5253,12 @@
         <v>1.00</v>
       </c>
       <c r="S62" s="66">
-        <v>0.96</v>
-      </c>
-      <c r="T62" s="66">
-        <v>0.22</v>
+        <v>0.56</v>
+      </c>
+      <c t="inlineStr" r="T62">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c t="inlineStr" r="U62">
         <is>
@@ -5252,102 +5266,94 @@
         </is>
       </c>
       <c r="V62" s="66">
-        <v>1.37</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="63">
       <c t="inlineStr" r="A63">
         <is>
-          <t xml:space="preserve">zhao8</t>
+          <t xml:space="preserve">yozx4</t>
         </is>
       </c>
       <c r="B63" s="66">
         <v>0.00</v>
       </c>
       <c r="C63" s="66">
-        <v>23.00</v>
+        <v>18.00</v>
       </c>
       <c t="inlineStr" r="D63">
         <is>
-          <t xml:space="preserve">Female</t>
+          <t xml:space="preserve">Male</t>
         </is>
       </c>
       <c t="inlineStr" r="E63">
         <is>
-          <t xml:space="preserve">Graduate school (Master)</t>
+          <t xml:space="preserve">High school</t>
         </is>
       </c>
       <c r="F63" s="66">
         <v>1.00</v>
       </c>
       <c r="G63" s="66">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="H63" s="66">
-        <v>0.29</v>
-      </c>
-      <c t="inlineStr" r="I63">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.36</v>
+      </c>
+      <c r="I63" s="66">
+        <v>0.18</v>
       </c>
       <c r="J63" s="66">
-        <v>0.92</v>
+        <v>0.90</v>
       </c>
       <c r="K63" s="66">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="L63" s="66">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="M63" s="66">
-        <v>0.50</v>
+        <v>0.06</v>
       </c>
       <c r="N63" s="66">
-        <v>0.64</v>
+        <v>0.73</v>
       </c>
       <c r="O63" s="66">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="P63" s="66">
-        <v>0.14</v>
-      </c>
-      <c t="inlineStr" r="Q63">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.18</v>
+      </c>
+      <c r="Q63" s="66">
+        <v>0.09</v>
       </c>
       <c r="R63" s="66">
         <v>1.00</v>
       </c>
       <c r="S63" s="66">
-        <v>0.81</v>
+        <v>0.59</v>
       </c>
       <c r="T63" s="66">
-        <v>0.22</v>
-      </c>
-      <c t="inlineStr" r="U63">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.25</v>
+      </c>
+      <c r="U63" s="66">
+        <v>0.12</v>
       </c>
       <c r="V63" s="66">
-        <v>1.38</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="64">
       <c t="inlineStr" r="A64">
         <is>
-          <t xml:space="preserve">zkmg5</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B64">
-        <is>
-          <t xml:space="preserve">zkmg5</t>
-        </is>
+          <t xml:space="preserve">yzud1</t>
+        </is>
+      </c>
+      <c r="B64" s="66">
+        <v>0.00</v>
       </c>
       <c r="C64" s="66">
-        <v>23.00</v>
+        <v>20.00</v>
       </c>
       <c t="inlineStr" r="D64">
         <is>
@@ -5360,15 +5366,13 @@
         </is>
       </c>
       <c r="F64" s="66">
-        <v>0.54</v>
+        <v>1.00</v>
       </c>
       <c r="G64" s="66">
-        <v>0.86</v>
-      </c>
-      <c t="inlineStr" r="H64">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>1.00</v>
+      </c>
+      <c r="H64" s="66">
+        <v>0.29</v>
       </c>
       <c t="inlineStr" r="I64">
         <is>
@@ -5376,27 +5380,25 @@
         </is>
       </c>
       <c r="J64" s="66">
-        <v>0.50</v>
+        <v>0.93</v>
       </c>
       <c r="K64" s="66">
-        <v>0.50</v>
+        <v>0.92</v>
       </c>
       <c r="L64" s="66">
-        <v>0.50</v>
+        <v>0.30</v>
       </c>
       <c r="M64" s="66">
         <v>0.50</v>
       </c>
       <c r="N64" s="66">
-        <v>0.35</v>
+        <v>0.64</v>
       </c>
       <c r="O64" s="66">
-        <v>0.66</v>
-      </c>
-      <c t="inlineStr" r="P64">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.62</v>
+      </c>
+      <c r="P64" s="66">
+        <v>0.14</v>
       </c>
       <c t="inlineStr" r="Q64">
         <is>
@@ -5407,12 +5409,10 @@
         <v>1.00</v>
       </c>
       <c r="S64" s="66">
-        <v>1.89</v>
-      </c>
-      <c t="inlineStr" r="T64">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
+        <v>0.96</v>
+      </c>
+      <c r="T64" s="66">
+        <v>0.22</v>
       </c>
       <c t="inlineStr" r="U64">
         <is>
@@ -5420,22 +5420,20 @@
         </is>
       </c>
       <c r="V64" s="66">
-        <v>0.93</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="65">
       <c t="inlineStr" r="A65">
         <is>
-          <t xml:space="preserve">zllv8</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B65">
-        <is>
-          <t xml:space="preserve">zllv8</t>
-        </is>
+          <t xml:space="preserve">zhao8</t>
+        </is>
+      </c>
+      <c r="B65" s="66">
+        <v>0.00</v>
       </c>
       <c r="C65" s="66">
-        <v>22.00</v>
+        <v>23.00</v>
       </c>
       <c t="inlineStr" r="D65">
         <is>
@@ -5444,44 +5442,44 @@
       </c>
       <c t="inlineStr" r="E65">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">Graduate school (Master)</t>
         </is>
       </c>
       <c r="F65" s="66">
-        <v>0.86</v>
+        <v>1.00</v>
       </c>
       <c r="G65" s="66">
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
       <c r="H65" s="66">
+        <v>0.29</v>
+      </c>
+      <c t="inlineStr" r="I65">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J65" s="66">
+        <v>0.92</v>
+      </c>
+      <c r="K65" s="66">
+        <v>0.66</v>
+      </c>
+      <c r="L65" s="66">
+        <v>0.26</v>
+      </c>
+      <c r="M65" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="N65" s="66">
+        <v>0.64</v>
+      </c>
+      <c r="O65" s="66">
+        <v>0.52</v>
+      </c>
+      <c r="P65" s="66">
         <v>0.14</v>
       </c>
-      <c t="inlineStr" r="I65">
-        <is>
-          <t xml:space="preserve">N/A</t>
-        </is>
-      </c>
-      <c r="J65" s="66">
-        <v>0.91</v>
-      </c>
-      <c r="K65" s="66">
-        <v>0.68</v>
-      </c>
-      <c r="L65" s="66">
-        <v>0.32</v>
-      </c>
-      <c r="M65" s="66">
-        <v>0.50</v>
-      </c>
-      <c r="N65" s="66">
-        <v>0.60</v>
-      </c>
-      <c r="O65" s="66">
-        <v>0.49</v>
-      </c>
-      <c r="P65" s="66">
-        <v>0.07</v>
-      </c>
       <c t="inlineStr" r="Q65">
         <is>
           <t xml:space="preserve">N/A</t>
@@ -5491,10 +5489,10 @@
         <v>1.00</v>
       </c>
       <c r="S65" s="66">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="T65" s="66">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c t="inlineStr" r="U65">
         <is>
@@ -5502,38 +5500,38 @@
         </is>
       </c>
       <c r="V65" s="66">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="66">
       <c t="inlineStr" r="A66">
         <is>
-          <t xml:space="preserve">ztwr3</t>
+          <t xml:space="preserve">zkmg5</t>
         </is>
       </c>
       <c t="inlineStr" r="B66">
         <is>
-          <t xml:space="preserve">ztwr3</t>
+          <t xml:space="preserve">zkmg5</t>
         </is>
       </c>
       <c r="C66" s="66">
-        <v>27.00</v>
+        <v>23.00</v>
       </c>
       <c t="inlineStr" r="D66">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E66">
         <is>
-          <t xml:space="preserve">Graduate school (Master)</t>
+          <t xml:space="preserve">High school</t>
         </is>
       </c>
       <c r="F66" s="66">
-        <v>1.00</v>
+        <v>0.54</v>
       </c>
       <c r="G66" s="66">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c t="inlineStr" r="H66">
         <is>
@@ -5546,10 +5544,10 @@
         </is>
       </c>
       <c r="J66" s="66">
-        <v>0.96</v>
+        <v>0.50</v>
       </c>
       <c r="K66" s="66">
-        <v>0.81</v>
+        <v>0.50</v>
       </c>
       <c r="L66" s="66">
         <v>0.50</v>
@@ -5558,10 +5556,10 @@
         <v>0.50</v>
       </c>
       <c r="N66" s="66">
-        <v>0.62</v>
+        <v>0.35</v>
       </c>
       <c r="O66" s="66">
-        <v>0.59</v>
+        <v>0.66</v>
       </c>
       <c t="inlineStr" r="P66">
         <is>
@@ -5577,7 +5575,7 @@
         <v>1.00</v>
       </c>
       <c r="S66" s="66">
-        <v>0.96</v>
+        <v>1.89</v>
       </c>
       <c t="inlineStr" r="T66">
         <is>
@@ -5590,39 +5588,41 @@
         </is>
       </c>
       <c r="V66" s="66">
-        <v>1.00</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="67">
       <c t="inlineStr" r="A67">
         <is>
-          <t xml:space="preserve">zuff1</t>
-        </is>
-      </c>
-      <c r="B67" s="66">
-        <v>0.00</v>
+          <t xml:space="preserve">zllv8</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B67">
+        <is>
+          <t xml:space="preserve">zllv8</t>
+        </is>
       </c>
       <c r="C67" s="66">
-        <v>38.00</v>
+        <v>22.00</v>
       </c>
       <c t="inlineStr" r="D67">
         <is>
-          <t xml:space="preserve">Male</t>
+          <t xml:space="preserve">Female</t>
         </is>
       </c>
       <c t="inlineStr" r="E67">
         <is>
-          <t xml:space="preserve">Graduate school (Master)</t>
+          <t xml:space="preserve">College (Bachelor)</t>
         </is>
       </c>
       <c r="F67" s="66">
-        <v>1.00</v>
+        <v>0.86</v>
       </c>
       <c r="G67" s="66">
-        <v>0.93</v>
+        <v>0.79</v>
       </c>
       <c r="H67" s="66">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c t="inlineStr" r="I67">
         <is>
@@ -5630,25 +5630,25 @@
         </is>
       </c>
       <c r="J67" s="66">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="K67" s="66">
-        <v>0.76</v>
+        <v>0.68</v>
       </c>
       <c r="L67" s="66">
-        <v>0.46</v>
+        <v>0.32</v>
       </c>
       <c r="M67" s="66">
-        <v>0.29</v>
+        <v>0.50</v>
       </c>
       <c r="N67" s="66">
-        <v>0.66</v>
+        <v>0.60</v>
       </c>
       <c r="O67" s="66">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="P67" s="66">
-        <v>0.14</v>
+        <v>0.07</v>
       </c>
       <c t="inlineStr" r="Q67">
         <is>
@@ -5659,10 +5659,10 @@
         <v>1.00</v>
       </c>
       <c r="S67" s="66">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="T67" s="66">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c t="inlineStr" r="U67">
         <is>
@@ -5670,20 +5670,22 @@
         </is>
       </c>
       <c r="V67" s="66">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="68">
       <c t="inlineStr" r="A68">
         <is>
-          <t xml:space="preserve">zuwa4</t>
-        </is>
-      </c>
-      <c r="B68" s="66">
-        <v>0.00</v>
+          <t xml:space="preserve">ztwr3</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B68">
+        <is>
+          <t xml:space="preserve">ztwr3</t>
+        </is>
       </c>
       <c r="C68" s="66">
-        <v>28.00</v>
+        <v>27.00</v>
       </c>
       <c t="inlineStr" r="D68">
         <is>
@@ -5692,134 +5694,300 @@
       </c>
       <c t="inlineStr" r="E68">
         <is>
-          <t xml:space="preserve">College (Bachelor)</t>
+          <t xml:space="preserve">Graduate school (Master)</t>
         </is>
       </c>
       <c r="F68" s="66">
         <v>1.00</v>
       </c>
       <c r="G68" s="66">
-        <v>0.89</v>
-      </c>
-      <c r="H68" s="66">
-        <v>0.29</v>
-      </c>
-      <c r="I68" s="66">
-        <v>0.32</v>
+        <v>0.96</v>
+      </c>
+      <c t="inlineStr" r="H68">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I68">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="J68" s="66">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="K68" s="66">
-        <v>0.78</v>
+        <v>0.81</v>
       </c>
       <c r="L68" s="66">
-        <v>0.32</v>
+        <v>0.50</v>
       </c>
       <c r="M68" s="66">
-        <v>0.30</v>
+        <v>0.50</v>
       </c>
       <c r="N68" s="66">
+        <v>0.62</v>
+      </c>
+      <c r="O68" s="66">
         <v>0.59</v>
       </c>
-      <c r="O68" s="66">
-        <v>0.52</v>
-      </c>
-      <c r="P68" s="66">
-        <v>0.14</v>
-      </c>
-      <c r="Q68" s="66">
-        <v>0.16</v>
+      <c t="inlineStr" r="P68">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="Q68">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="R68" s="66">
         <v>1.00</v>
       </c>
       <c r="S68" s="66">
-        <v>0.88</v>
-      </c>
-      <c r="T68" s="66">
-        <v>0.24</v>
-      </c>
-      <c r="U68" s="66">
-        <v>0.27</v>
+        <v>0.96</v>
+      </c>
+      <c t="inlineStr" r="T68">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="U68">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
       </c>
       <c r="V68" s="66">
-        <v>1.75</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="69">
       <c t="inlineStr" r="A69">
         <is>
+          <t xml:space="preserve">zuff1</t>
+        </is>
+      </c>
+      <c r="B69" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="C69" s="66">
+        <v>38.00</v>
+      </c>
+      <c t="inlineStr" r="D69">
+        <is>
+          <t xml:space="preserve">Male</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E69">
+        <is>
+          <t xml:space="preserve">Graduate school (Master)</t>
+        </is>
+      </c>
+      <c r="F69" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G69" s="66">
+        <v>0.93</v>
+      </c>
+      <c r="H69" s="66">
+        <v>0.29</v>
+      </c>
+      <c t="inlineStr" r="I69">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="J69" s="66">
+        <v>0.95</v>
+      </c>
+      <c r="K69" s="66">
+        <v>0.76</v>
+      </c>
+      <c r="L69" s="66">
+        <v>0.46</v>
+      </c>
+      <c r="M69" s="66">
+        <v>0.29</v>
+      </c>
+      <c r="N69" s="66">
+        <v>0.66</v>
+      </c>
+      <c r="O69" s="66">
+        <v>0.52</v>
+      </c>
+      <c r="P69" s="66">
+        <v>0.14</v>
+      </c>
+      <c t="inlineStr" r="Q69">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="R69" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S69" s="66">
+        <v>0.78</v>
+      </c>
+      <c r="T69" s="66">
+        <v>0.22</v>
+      </c>
+      <c t="inlineStr" r="U69">
+        <is>
+          <t xml:space="preserve">N/A</t>
+        </is>
+      </c>
+      <c r="V69" s="66">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="70">
+      <c t="inlineStr" r="A70">
+        <is>
+          <t xml:space="preserve">zuwa4</t>
+        </is>
+      </c>
+      <c r="B70" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="C70" s="66">
+        <v>28.00</v>
+      </c>
+      <c t="inlineStr" r="D70">
+        <is>
+          <t xml:space="preserve">Male</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E70">
+        <is>
+          <t xml:space="preserve">College (Bachelor)</t>
+        </is>
+      </c>
+      <c r="F70" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G70" s="66">
+        <v>0.89</v>
+      </c>
+      <c r="H70" s="66">
+        <v>0.29</v>
+      </c>
+      <c r="I70" s="66">
+        <v>0.32</v>
+      </c>
+      <c r="J70" s="66">
+        <v>0.94</v>
+      </c>
+      <c r="K70" s="66">
+        <v>0.78</v>
+      </c>
+      <c r="L70" s="66">
+        <v>0.32</v>
+      </c>
+      <c r="M70" s="66">
+        <v>0.30</v>
+      </c>
+      <c r="N70" s="66">
+        <v>0.59</v>
+      </c>
+      <c r="O70" s="66">
+        <v>0.52</v>
+      </c>
+      <c r="P70" s="66">
+        <v>0.14</v>
+      </c>
+      <c r="Q70" s="66">
+        <v>0.16</v>
+      </c>
+      <c r="R70" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S70" s="66">
+        <v>0.88</v>
+      </c>
+      <c r="T70" s="66">
+        <v>0.24</v>
+      </c>
+      <c r="U70" s="66">
+        <v>0.27</v>
+      </c>
+      <c r="V70" s="66">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="71">
+      <c t="inlineStr" r="A71">
+        <is>
           <t xml:space="preserve">zygb0</t>
         </is>
       </c>
-      <c t="inlineStr" r="B69">
+      <c t="inlineStr" r="B71">
         <is>
           <t xml:space="preserve">Zygb0</t>
         </is>
       </c>
-      <c r="C69" s="66">
+      <c r="C71" s="66">
         <v>19.00</v>
       </c>
-      <c t="inlineStr" r="D69">
+      <c t="inlineStr" r="D71">
         <is>
           <t xml:space="preserve">Female</t>
         </is>
       </c>
-      <c t="inlineStr" r="E69">
+      <c t="inlineStr" r="E71">
         <is>
           <t xml:space="preserve">High school</t>
         </is>
       </c>
-      <c r="F69" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="G69" s="66">
+      <c r="F71" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="G71" s="66">
         <v>0.32</v>
       </c>
-      <c r="H69" s="66">
+      <c r="H71" s="66">
         <v>0.21</v>
       </c>
-      <c r="I69" s="66">
+      <c r="I71" s="66">
         <v>0.86</v>
       </c>
-      <c r="J69" s="66">
+      <c r="J71" s="66">
         <v>0.97</v>
       </c>
-      <c r="K69" s="66">
+      <c r="K71" s="66">
         <v>0.13</v>
       </c>
-      <c r="L69" s="66">
+      <c r="L71" s="66">
         <v>0.24</v>
       </c>
-      <c r="M69" s="66">
+      <c r="M71" s="66">
         <v>0.51</v>
       </c>
-      <c r="N69" s="66">
+      <c r="N71" s="66">
         <v>0.71</v>
       </c>
-      <c r="O69" s="66">
+      <c r="O71" s="66">
         <v>0.16</v>
       </c>
-      <c r="P69" s="66">
+      <c r="P71" s="66">
         <v>0.11</v>
       </c>
-      <c r="Q69" s="66">
+      <c r="Q71" s="66">
         <v>0.49</v>
       </c>
-      <c r="R69" s="66">
-        <v>1.00</v>
-      </c>
-      <c r="S69" s="66">
+      <c r="R71" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="S71" s="66">
         <v>0.23</v>
       </c>
-      <c r="T69" s="66">
+      <c r="T71" s="66">
         <v>0.15</v>
       </c>
-      <c r="U69" s="66">
+      <c r="U71" s="66">
         <v>0.69</v>
       </c>
-      <c r="V69" s="66">
+      <c r="V71" s="66">
         <v>1.66</v>
       </c>
     </row>
